--- a/Yearly_Results/locations_result.xlsx
+++ b/Yearly_Results/locations_result.xlsx
@@ -1,47 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="HalfMoonBay" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Arizona" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Alaska" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Minnesota" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Florida" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet r:id="rId1" sheetId="1" name="HalfMoonBay"/>
+    <sheet r:id="rId2" sheetId="2" name="Arizona"/>
+    <sheet r:id="rId3" sheetId="3" name="Alaska"/>
+    <sheet r:id="rId4" sheetId="4" name="Minnesota"/>
+    <sheet r:id="rId5" sheetId="5" name="Florida"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>var PV</t>
+  </si>
+  <si>
+    <t>var E_Load</t>
+  </si>
+  <si>
+    <t>var Cooling_Load</t>
+  </si>
+  <si>
+    <t>var Heating_Load</t>
+  </si>
+  <si>
+    <t>CV PV</t>
+  </si>
+  <si>
+    <t>CV E_Load</t>
+  </si>
+  <si>
+    <t>CV Cooling_Load</t>
+  </si>
+  <si>
+    <t>CV Heating_Load</t>
+  </si>
+  <si>
+    <t>Total pv (kWh/kW Capacity)</t>
+  </si>
+  <si>
+    <t>Total E_Load (kWh)</t>
+  </si>
+  <si>
+    <t>Total Cooling_Load (kWh T)</t>
+  </si>
+  <si>
+    <t>Total Heating_Load (kWh T)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,93 +102,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,10 +166,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -186,69 +207,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -272,54 +295,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -329,7 +351,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -338,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -347,7 +369,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -355,10 +377,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -387,7 +409,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -400,13 +422,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,5556 +445,5486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>var PV</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>var E_Load</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>var Cooling_Load</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>var Heating_Load</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CV PV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CV E_Load</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Cooling_Load</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Heating_Load</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total pv (kWh/kW Capacity)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total E_Load (kWh)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cooling_Load (kWh T)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total Heating_Load (kWh T)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1998</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4">
         <v>3.809298751430293</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>4.817145777480054</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>12.73156524424821</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>179.7815706067889</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>0.5205256055405633</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>0.9160548728493352</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>1.283857874413099</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>0.6259375189983354</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>1368.589751697369</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>874.5129999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>1014.417692849875</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>7818.698481069239</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>1999</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>3.307869306252719</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>5.183040375884389</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>11.86268113776409</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>170.1114502961771</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>0.4388030925095855</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>0.9472276300831177</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>1.33563970283364</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>0.50487640459327</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>1512.855177646434</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>877.2649999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>941.2282912909438</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>9429.193836482471</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>2000</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>3.444805875008666</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>5.038316116769532</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>14.8340548563044</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>122.5898170738229</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>0.4575329796530529</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>0.9023033963858765</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>1.279099935638611</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>0.4944364594485474</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>1480.651452208748</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>907.9939999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4">
         <v>1099.052219712301</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4">
         <v>8173.528383126261</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>2001</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>3.442824728619528</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>12.69790701904664</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>147.4015592461361</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>0.4441537159742089</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>0.8897713584292684</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>1.192848548057699</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>0.5270515452263784</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>1524.814528723175</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>880.702</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4">
         <v>1090.369335936819</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4">
         <v>8407.963395737159</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>2002</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>3.334021130915295</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>4.900170806834261</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>13.74070528770939</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>143.8999569160387</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>0.4173503227910144</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>0.9491329791632978</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>1.277519085271033</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>0.5137325225027244</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>1596.894719298534</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>851.278</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>1059.082958616489</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>8522.875339384884</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>2003</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>3.245098350839097</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>5.104784588258316</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>19.65038556252824</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>129.4762082072637</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>0.4106520943841577</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>0.9062057628274756</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>1.1729474542991</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>0.5628828021820742</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>1601.152707920177</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>910.028</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4">
         <v>1379.430567461996</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4">
         <v>7378.530397691607</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>2004</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>3.148031559404409</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>5.052474334984193</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>18.29895857703511</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>153.0413984179449</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>0.414637343204932</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>0.8961983216846947</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4">
         <v>1.170674379079099</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>0.6015530719967704</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>1561.866788390272</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4">
         <v>915.463</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4">
         <v>1333.736196781239</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4">
         <v>7506.256108676915</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>2005</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>3.522983298272055</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>4.710681830528375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>11.62486712492815</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>103.1891657429647</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>0.4500091876832975</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>1.096734158237111</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>0.501857760691757</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4">
         <v>1522.392991255506</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>866.966</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4">
         <v>1134.711596411601</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4">
         <v>7388.040553965758</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>2006</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>3.179764816817132</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>4.931752996643083</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>15.34360392788214</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>182.7092149861407</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>0.4306919826868958</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>0.8991000893174085</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>1.189128815374064</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>0.6040660277506557</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4">
         <v>1511.205678560094</v>
       </c>
-      <c r="K10" t="n">
-        <v>901.5410000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="4">
+        <v>901.541</v>
+      </c>
+      <c r="L10" s="4">
         <v>1202.340983490853</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>8167.491257656136</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>2007</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>2.870915977341283</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>5.372029326915549</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>19.19689967553156</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>227.4158819233287</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>0.3818247044007347</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>0.9337528423440373</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>1.261185125535272</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>0.6274397201978645</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4">
         <v>1619.71677977542</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4">
         <v>906.004</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>1268.030127081559</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>8772.6590666927</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>2008</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>2.996672048110249</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>5.102246183381002</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>18.51063406148069</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>199.740604639506</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>0.3790550923671357</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>0.9117180608121523</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>1.202406807583393</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>0.5690507962428903</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>1666.90226775703</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4">
         <v>904.3009999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4">
         <v>1306.026790488751</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>9065.150302308495</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>2009</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>2.841304206717104</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>5.022203393120577</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>15.22514507583594</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>206.6950305703281</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>0.3843403083402358</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>0.8532304494205779</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>1.158378297634075</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>0.5994665885233715</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="4">
         <v>1600.795288485837</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>958.6800000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4">
         <v>1229.484822408216</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4">
         <v>8753.725010205088</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>2010</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>3.496607292636825</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>4.585485732274575</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>12.68925424577125</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>135.0529740266677</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>0.4589059238852041</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>0.915637349717223</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="4">
         <v>1.307025297472408</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4">
         <v>0.5021583865856729</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4">
         <v>1487.279630786839</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>994.7797145296602</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4">
         <v>8447.033573642206</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>2011</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>2.73698751955307</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>5.269317561011592</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>12.34209046601993</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>184.1466938863502</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>0.3893419527469293</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4">
         <v>0.8965230660921905</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4">
         <v>1.239751934920388</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>0.5528368224236117</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="4">
         <v>1550.950975343402</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4">
         <v>934.563</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>1034.314069658411</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>8959.378110555994</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>2012</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>3.551023931677171</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>4.9426654820563</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>10.12588729362615</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>131.6441672800252</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>0.4268975610010534</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4">
         <v>0.9195065404939854</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>1.132108268148956</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>0.5087087517045541</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>1611.187153648661</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4">
         <v>882.508</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>1025.938781379978</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4">
         <v>8232.362128856435</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>2013</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>2.523792941355568</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>5.448667112102966</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>21.26504367073419</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>229.1727568152131</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>0.3353316852262178</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>0.9602626481108519</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>1.187899239163974</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>0.6532454281357638</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="4">
         <v>1729.19962878303</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4">
         <v>887.254</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4">
         <v>1416.923488657565</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4">
         <v>8458.590106966258</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>2014</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>2.897783742562533</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>5.313157794866777</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>40.37497021443481</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>119.537598142069</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>0.3913142555183779</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>0.9344154392072506</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>1.061104961983947</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>0.7244377068194862</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="4">
         <v>1587.816025121865</v>
       </c>
-      <c r="K18" t="n">
-        <v>900.3869999999999</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="4">
+        <v>900.387</v>
+      </c>
+      <c r="L18" s="4">
         <v>2185.700373722947</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>5508.636050563186</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>2015</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>2.446876209037634</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>42.19661415853276</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>158.2555686874532</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>0.353465193977447</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>0.9027012943672187</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>1.109316108399594</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>0.7924978255411461</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>1615.296338892637</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4">
         <v>912.306</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4">
         <v>2137.353454158723</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4">
         <v>5793.943897410037</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>2016</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>2.95139285417575</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>5.060059289823874</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>15.75664126271761</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>101.2811567459985</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>0.4229382755941576</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>0.9363686109652082</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>1.139648883843046</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>0.5847994637780838</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="4">
         <v>1482.618397644714</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>876.847</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>1271.316309897265</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>6281.309964988935</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>2017</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>2.897558929219258</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>5.6695298584224</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>31.89388459820684</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>126.5067016223585</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>0.4030037256091871</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>0.9137673581108009</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>1.252062190464978</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>0.6101746636994505</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>1541.700247127791</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>951.1099999999999</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4">
         <v>1646.344331509225</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4">
         <v>6728.146825432676</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>2018</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>2.858305870162422</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>4.741563831807918</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>11.52477976362361</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>132.6917156832367</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>0.375831457848527</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>0.9546412806047563</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>1.060982292024872</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>0.5690488285096765</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>1641.927914785872</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>832.556</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>1167.887597345918</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>7388.652399806724</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>2019</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="4">
         <v>3.626741441830217</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>5.132679222896282</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4">
         <v>32.74266619346135</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4">
         <v>165.4304557833053</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4">
         <v>0.4350673762073891</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4">
         <v>0.9391555700336812</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>1.358989106429148</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>0.6452123151090703</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="4">
         <v>1597.697822260729</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4">
         <v>880.496</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4">
         <v>1536.858591392629</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="4">
         <v>7276.088108985974</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
         <v>2020</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="4">
         <v>2.610021793298616</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4">
         <v>5.290498737121782</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4">
         <v>22.92156277778036</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4">
         <v>168.6777056990284</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>0.3466964463727872</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>0.9153747056368959</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>1.148251528216029</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>0.6407921231793343</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4">
         <v>1700.848146608032</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4">
         <v>917.154</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4">
         <v>1521.871361127916</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4">
         <v>7397.833327184935</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>2021</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="4">
         <v>3.051145264538714</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>4.692852742992623</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4">
         <v>11.44583296427225</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>142.260259598735</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4">
         <v>0.3745661847113321</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>1.138821305522402</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>0.5389651468755957</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="4">
         <v>1702.141810150611</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4">
         <v>856.9110000000001</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4">
         <v>1084.328774845618</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="4">
         <v>8077.44447285051</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
         <v>2022</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="4">
         <v>2.73631942604779</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>5.281167338822821</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4">
         <v>20.8991129979013</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>154.7919596934741</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>0.3315490839022636</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>0.8717437962903186</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>1.210795592453505</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>0.5756154456330479</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="4">
         <v>1821.077501984596</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4">
         <v>962.208</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4">
         <v>1378.116587773341</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="4">
         <v>7889.23013154157</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>var PV</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>var E_Load</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>var Cooling_Load</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>var Heating_Load</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CV PV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CV E_Load</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Cooling_Load</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Heating_Load</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total pv (kWh/kW Capacity)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total E_Load (kWh)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cooling_Load (kWh T)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total Heating_Load (kWh T)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1998</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4">
         <v>5.598843570215775</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>4.817145777480054</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>718.8682961034746</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>583.0701530732294</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>0.4238102073338076</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>0.9160548728493352</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>1.02510526713959</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>0.9896169590076406</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>2037.842516628927</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>874.5129999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>9546.607443497078</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>8906.070746501448</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>1999</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>3.66347850944371</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>5.183040375884389</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>625.5737781121011</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>715.1129408343971</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>0.3351335471561223</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>0.9472276300831177</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>0.888651325514225</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>0.9754894779693756</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>2084.595449079347</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>877.2649999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>10273.081643186</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>10005.93307529983</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>2000</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>4.460720534546722</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>5.038316116769532</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>733.3616895046306</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>640.0332303514263</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>0.3777005714371059</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>0.9023033963858765</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>0.9122921301569986</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>1.062917552003024</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>2041.022208253348</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>907.9939999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4">
         <v>10834.72880740341</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4">
         <v>8687.494593664942</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>2001</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>4.283016700489782</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>674.4534919507973</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>699.3557127053164</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>0.3723110963150156</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>0.8897713584292684</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>0.876823420319072</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>1.174245016360087</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>2028.905261048923</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>880.702</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4">
         <v>10810.77246322581</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4">
         <v>8220.215482835754</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>2002</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>4.362676760777194</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>4.900170806834261</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>618.4182517841846</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>767.4107666307101</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>0.3641695289591599</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>0.9491329791632978</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>0.9058000148721944</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>1.006597932716128</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>2093.465355920915</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>851.278</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>10020.78375564909</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>10045.01927202996</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>2003</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>5.097651513223705</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>5.104784588258316</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>725.8217175263649</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>574.4718893459361</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>0.4013394791453497</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>0.9062057628274756</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>0.9101827239976555</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>1.085810682655895</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>2053.364517896088</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>910.028</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4">
         <v>10803.86766215421</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4">
         <v>8056.995951983009</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>2004</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>5.308640820200534</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>5.052474334984193</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>584.9998529656582</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>598.4821424749339</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>0.4070242937014567</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>0.8961983216846947</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4">
         <v>0.8988007473782625</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>1.111935188585753</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>2066.161211625342</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4">
         <v>915.463</v>
       </c>
-      <c r="L8" t="n">
-        <v>9822.167093984121</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" s="4">
+        <v>9822.16709398412</v>
+      </c>
+      <c r="M8" s="4">
         <v>8030.433470030394</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>2005</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>5.272595087808578</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>4.710681830528375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>685.2690522854938</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>572.3702974230993</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>0.4080544610302989</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>0.922340773972932</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>1.171005089539521</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4">
         <v>2053.936178287589</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>866.966</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4">
         <v>10359.33830281679</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4">
         <v>7457.145656276835</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>2006</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>4.160679974507331</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>4.931752996643083</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>729.9576023698268</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>823.3974310076575</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>0.3610058717402402</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>0.8991000893174085</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>0.9292057874359222</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>1.04748782736315</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4">
         <v>2062.342326066342</v>
       </c>
-      <c r="K10" t="n">
-        <v>901.5410000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="4">
+        <v>901.541</v>
+      </c>
+      <c r="L10" s="4">
         <v>10612.7950254051</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>9998.817311846618</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>2007</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>4.797796300485554</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>5.372029326915549</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>784.4266101568394</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>775.6297818311785</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>0.3863419219978322</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>0.9337528423440373</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>0.9362662736656095</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>1.130285245101428</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4">
         <v>2069.388022254204</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4">
         <v>906.004</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>10918.66757720176</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>8993.568447884121</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>2008</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>4.564009452980215</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>5.102246183381002</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>688.1455601795328</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>608.4102772482258</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>0.373787004087051</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>0.9117180608121523</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>0.9259536375175125</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>1.002623681767599</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>2086.132718067063</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4">
         <v>904.3009999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4">
         <v>10340.55332244372</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>8979.521132826263</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>2009</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>3.976668012396288</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>5.022203393120577</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>729.5618109759635</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>670.6726413891256</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>0.3501086752813195</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>0.8532304494205779</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>0.9176117521727885</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>1.059667778853461</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="4">
         <v>2078.976882768764</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>958.6800000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4">
         <v>10743.97387713024</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4">
         <v>8920.278850314728</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>2010</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>5.096631318588726</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>4.585485732274575</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>711.2755061309816</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>549.7630444671784</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>0.4010989068868572</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>0.915637349717223</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="4">
         <v>0.9638700634125952</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4">
         <v>1.033955357289846</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4">
         <v>2054.390487009961</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>10099.34711766963</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4">
         <v>8277.112310438766</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>2011</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>4.391843825794236</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>5.269317561011592</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>734.9323497211524</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>720.9443105568224</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>0.366114549104662</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4">
         <v>0.8965230660921905</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4">
         <v>0.9517998891445631</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>1.01419234014038</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="4">
         <v>2089.292863377961</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4">
         <v>934.563</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>10396.11073333461</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>9663.254057237045</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>2012</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>4.008806726611501</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>4.9426654820563</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>649.6918792892039</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>570.2203430192768</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>0.3569204052365913</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4">
         <v>0.9195065404939854</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>0.8729722608284799</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>1.031951076789018</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>2047.524213359817</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4">
         <v>882.508</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>10657.27419605088</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4">
         <v>8446.078419623078</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>2013</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>4.093694684090959</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>5.448667112102966</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>634.6520945375174</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>732.4760709440596</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>0.3612708422652935</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>0.9602626481108519</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>0.9104432530176315</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>1.090824573503331</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="4">
         <v>2044.173139529064</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4">
         <v>887.254</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4">
         <v>10099.68529549511</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4">
         <v>9055.963683629441</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>2014</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>4.450355592429219</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>5.313157794866777</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>625.1482175859971</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>485.1191239398645</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>0.3760588717480378</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>0.9344154392072506</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>0.8291687332708593</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>1.09113380536838</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="4">
         <v>2047.549371152506</v>
       </c>
-      <c r="K18" t="n">
-        <v>900.3869999999999</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="4">
+        <v>900.387</v>
+      </c>
+      <c r="L18" s="4">
         <v>11006.30252691444</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>7367.820740146692</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>2015</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>4.247478715341076</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>743.8584110938567</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>579.9165890189397</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>0.377829955983815</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>0.9027012943672187</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>0.8713498842879042</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>1.252605133677086</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>1990.95792606225</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4">
         <v>912.306</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4">
         <v>11424.71633240565</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4">
         <v>7017.161037742533</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>2016</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>4.548246610574694</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>5.060059289823874</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>616.8587272620543</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>477.9275118092738</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>0.3761526718736534</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>0.9363686109652082</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>0.8397709474957152</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>1.166384976207404</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="4">
         <v>2069.429881087686</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>876.847</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>10795.05539770159</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>6841.194896991995</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>2017</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>4.762205374105571</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>5.6695298584224</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>584.5777732284927</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>470.0477551628236</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>0.3892529203495757</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>0.9137673581108009</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>0.8400202021730118</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>1.181232556348778</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>2046.279932982369</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>951.1099999999999</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4">
         <v>10505.682776484</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4">
         <v>6699.284905186782</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>2018</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>8.563168674130234</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>4.741563831807918</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>746.3467917669395</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>577.2172408452358</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>0.4761361649419052</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>0.9546412806047563</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>0.901018486559267</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>1.109502661050296</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>2243.256548492526</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>832.556</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>11066.9895010884</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>7903.767629515705</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>2019</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="4">
         <v>9.122040242775256</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>5.132679222896282</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4">
         <v>696.2856058948214</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4">
         <v>585.6730314148168</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4">
         <v>0.489532346331772</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4">
         <v>0.9391555700336812</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>0.9525931418286339</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>1.160594811978399</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="4">
         <v>2251.943358668295</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4">
         <v>880.496</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4">
         <v>10110.65106819472</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="4">
         <v>7610.967243577225</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
         <v>2020</v>
       </c>
-      <c r="B24" t="n">
-        <v>8.287471528184669</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="4">
+        <v>8.28747152818467</v>
+      </c>
+      <c r="C24" s="4">
         <v>5.290498737121782</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4">
         <v>777.5123118056697</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4">
         <v>621.4817950864272</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>0.4549105834454986</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>0.9153747056368959</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>0.9093214968707567</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>1.159341012582836</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4">
         <v>2309.818462632529</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4">
         <v>917.154</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4">
         <v>11192.55001268586</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4">
         <v>7848.666406354947</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>2021</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="4">
         <v>7.454932071006543</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>4.692852742992623</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4">
         <v>754.9593783007336</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>534.6419303689788</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4">
         <v>0.4458463941467184</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>0.9022051238611722</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>1.025865118676627</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="4">
         <v>2235.267229700439</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4">
         <v>856.9110000000001</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4">
         <v>11116.02122669919</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="4">
         <v>8226.860047425776</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
         <v>2022</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="4">
         <v>8.109877267144252</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>5.281167338822821</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4">
         <v>852.268963584617</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>616.0904657026701</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>0.4485296152940118</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>0.8717437962903186</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>0.9060002314876157</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>1.025162565421964</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="4">
         <v>2317.442042786567</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4">
         <v>962.208</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4">
         <v>11761.23404799809</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="4">
         <v>8837.356385430083</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>var PV</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>var E_Load</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>var Cooling_Load</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>var Heating_Load</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CV PV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CV E_Load</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Cooling_Load</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Heating_Load</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total pv (kWh/kW Capacity)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total E_Load (kWh)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cooling_Load (kWh T)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total Heating_Load (kWh T)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1998</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4">
         <v>1802240133.031911</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>4.817145777480054</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>0.4906413055276479</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>3575.434109705763</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>13.47246808840718</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>0.9160548728493352</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>5.765349611347892</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>0.6013965555908323</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>1150143.499375862</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>874.5129999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>44.34547080000735</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>36290.78124718825</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>1999</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>1138676097.192012</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>5.183040375884389</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>0.332198540862629</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>5942.938994605423</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>13.65967926150769</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>0.9472276300831177</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>5.065959037703245</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>0.65200350098446</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>901680.0577501256</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>877.2649999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>41.52695152090219</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>43156.23733655891</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>2000</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>214404093.1428357</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>5.038316116769532</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>0.3915805980770042</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>2981.935211276706</v>
       </c>
-      <c r="F4" t="n">
-        <v>9.693074937047021</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="4">
+        <v>9.69307493704702</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.9023033963858765</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>5.077582444430208</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>0.5839494394432907</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>551375.9641968003</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>907.9939999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4">
         <v>44.98279775736012</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4">
         <v>34132.39164536127</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>2001</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>545060832.3115444</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>1.094636515140939</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>4072.483748799799</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>10.82331714032359</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>0.8897713584292684</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>4.249283022941798</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>0.6364869399190481</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>787326.6786984436</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>880.702</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4">
         <v>89.86946823635249</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4">
         <v>36595.95186031811</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>2002</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>2987444695.408409</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>4.900170806834261</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>1.434477190906076</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>2822.95064946682</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>13.81371205760433</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>0.9491329791632978</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>4.563089532148545</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>0.5940621888533683</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>1444216.832821209</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>851.278</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>95.80335051849315</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>32644.69357185208</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>2003</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>3536223036.626304</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>5.104784588258316</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>3.017699680750778</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>3322.354138442307</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>15.11856031434959</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>0.9062057628274756</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>4.502799844959732</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>0.6380159980714548</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>1435662.154591837</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>910.028</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4">
         <v>140.8147765820371</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4">
         <v>32974.95847923962</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>2004</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>627296682.3999305</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>5.052474334984193</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>2.689323034541554</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>3646.253059635671</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>11.83248883926194</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>0.8961983216846947</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4">
         <v>3.361165696257368</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>0.6478974259315503</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>772597.4249094706</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4">
         <v>915.463</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4">
         <v>178.083805574264</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4">
         <v>34018.09684712344</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>2005</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>2272628991.773708</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>4.710681830528375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>2.756255700941991</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>3625.918277602391</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>14.53480026046571</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>3.499396684102601</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>0.639963781337391</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4">
         <v>1197148.615969284</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>866.966</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4">
         <v>173.164730385838</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4">
         <v>34343.65196490317</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>2006</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>2934311815.856866</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>4.931752996643083</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>1.800273969789365</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>5008.453101500278</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>14.01148387731815</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>0.8991000893174085</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>4.217231385842851</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>0.6543772521980546</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4">
         <v>1411113.232055007</v>
       </c>
-      <c r="K10" t="n">
-        <v>901.5410000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="4">
+        <v>901.541</v>
+      </c>
+      <c r="L10" s="4">
         <v>116.1274087818486</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>39474.48533543856</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>2007</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>3244869646.883327</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>5.372029326915549</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>1.345133933198492</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>4733.665478661185</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>14.58317112951756</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>0.9337528423440373</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>4.4985338061747</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>0.658657174712557</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4">
         <v>1425737.326506451</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4">
         <v>906.004</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>94.10325379875043</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>38126.96356371428</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>2008</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>3890019343.188559</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>5.102246183381002</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>0.1550825328593602</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>4770.478948537895</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>14.80981953385213</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>0.9117180608121523</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>4.746372318860032</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>0.6137833258701562</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>1537159.659301939</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4">
         <v>904.3009999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4">
         <v>30.28394889783512</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>41073.22177542034</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>2009</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>1956161421.388142</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>5.022203393120577</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>2.193594869576318</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>4658.334442661859</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>13.3658252100806</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>0.8532304494205779</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>4.411236492788539</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>0.6604642127163695</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="4">
         <v>1207812.25517515</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>958.6800000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4">
         <v>122.549271454896</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4">
         <v>37718.89026297753</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>2010</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>2634722212.456336</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>4.585485732274575</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>0.1235395891153896</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>4107.520553189053</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>14.36723781554581</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>0.915637349717223</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="4">
         <v>5.423268248541272</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4">
         <v>0.6035604888077105</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4">
         <v>1304028.251338676</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>23.65564828765022</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4">
         <v>38758.05150237409</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>2011</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>1672751028.525597</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>5.269317561011592</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>0.2109549595151088</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>4263.753125767871</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>13.16868762849842</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4">
         <v>0.8965230660921905</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4">
         <v>4.953011187537244</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>0.6159580460667824</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="4">
         <v>1133616.141717878</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4">
         <v>934.563</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>33.84686315509728</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>38693.47699857151</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>2012</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>769366628.6581867</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>4.9426654820563</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>0.6285278763164324</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>5573.230988772068</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>13.07458354681699</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4">
         <v>0.9195065404939854</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>6.360261248767669</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>0.646171773801841</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>774339.9610572258</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4">
         <v>882.508</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>45.496729812391</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4">
         <v>42169.49526781171</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>2013</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>308014359.1999328</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>5.448667112102966</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>2.568136032951347</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>3588.046766699232</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>11.6190450767567</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>0.9602626481108519</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>3.687177056873097</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>0.6176285846472988</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="4">
         <v>551325.2835030393</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4">
         <v>887.254</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4">
         <v>158.6382403298578</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4">
         <v>35399.28779517193</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>2014</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>4094217722.324664</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>5.313157794866777</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>1.38023538824176</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>2385.768003445418</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>14.18972691264718</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>0.9344154392072506</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>3.912347762829961</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>0.564016494476701</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="4">
         <v>1645903.216785797</v>
       </c>
-      <c r="K18" t="n">
-        <v>900.3869999999999</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="4">
+        <v>900.387</v>
+      </c>
+      <c r="L18" s="4">
         <v>109.6054102443197</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>31609.32081946239</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>2015</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>3117030330.682498</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>2.886793839715874</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>2863.716152099581</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>13.8354911063256</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>0.9027012943672187</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>4.269120813317423</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>0.6019004364745617</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>1472884.863551907</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4">
         <v>912.306</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4">
         <v>145.2654400913029</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4">
         <v>32451.3815508492</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>2016</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>1952895461.527488</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>5.060059289823874</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>1.0962847223848</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>2302.613269334474</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>14.67329159364344</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>0.9363686109652082</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>3.361162796699406</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>0.6276006838810786</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="4">
         <v>1099271.11003542</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>876.847</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>113.70118672335</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>27907.43730958288</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>2017</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>3408274776.374233</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>5.6695298584224</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>0.528077429473061</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>4225.696951622084</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>14.10690329274102</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>0.9137673581108009</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>5.042137915765675</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>0.677756217074341</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>1510526.941124208</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>951.1099999999999</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4">
         <v>52.60499052567301</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4">
         <v>35008.09899972234</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>2018</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>2865373141.99584</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>4.741563831807918</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>1.553495354311461</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>3145.388960869767</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>13.98164253311681</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>0.9546412806047563</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>6.116591326443189</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>0.6449945780054255</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>1397414.556822444</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>832.556</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>74.37695243283368</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>31737.59250555807</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>2019</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="4">
         <v>1144481747.367269</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>5.132679222896282</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4">
         <v>11.07378631831269</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4">
         <v>2867.324717266768</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4">
         <v>12.04000187792536</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4">
         <v>0.9391555700336812</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>3.09217015305618</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>0.6838034733012578</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="4">
         <v>1025582.838912287</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4">
         <v>880.496</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4">
         <v>392.8054909906421</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="4">
         <v>28582.48612113619</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
         <v>2020</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="4">
         <v>1363565008.538139</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4">
         <v>5.290498737121782</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4">
         <v>2.241793638573851</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4">
         <v>4714.659704046745</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>12.4007121745474</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>0.9153747056368959</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>3.321055223482863</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>0.7079825876766673</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4">
         <v>1086886.416055174</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4">
         <v>917.154</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4">
         <v>164.5563263854981</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4">
         <v>35399.36434322075</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>2021</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="4">
         <v>807589209.9885542</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>4.692852742992623</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4">
         <v>1.568863930787055</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>4384.055912886939</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4">
         <v>11.60789291708159</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>4.173010075844048</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>0.6411475225193591</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="4">
         <v>893582.6447520612</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4">
         <v>856.9110000000001</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4">
         <v>109.5559755276112</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="4">
         <v>37694.06179596334</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
         <v>2022</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="4">
         <v>6284845728.665865</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>5.281167338822821</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4">
         <v>2.375309988969315</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>3258.083744456627</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>14.49446560603399</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>0.8717437962903186</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>3.808918702650255</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>0.6366620572372119</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="4">
         <v>1996355.898305657</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4">
         <v>962.208</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4">
         <v>147.6900742415605</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="4">
         <v>32723.89705270311</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>var PV</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>var E_Load</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>var Cooling_Load</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>var Heating_Load</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CV PV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CV E_Load</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Cooling_Load</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Heating_Load</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total pv (kWh/kW Capacity)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total E_Load (kWh)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cooling_Load (kWh T)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total Heating_Load (kWh T)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1998</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4">
         <v>4.000547394715827</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>4.817145777480054</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>129.5981458186593</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>3345.628245795029</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>0.5046598372452182</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>0.9160548728493352</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>1.390747986737069</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>0.9488186795267071</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>1446.617888287213</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>874.5129999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>2987.746997023894</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>22250.9459798945</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>1999</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>3.445797612617359</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>5.183040375884389</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>138.9730600066001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>3559.027173128837</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>0.4524519624395796</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>0.9472276300831177</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>1.596034253395528</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>0.90034448183251</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>1497.494621085089</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>877.2649999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>2695.975659133428</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>24185.20702177967</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>2000</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>3.714908057419038</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>5.038316116769532</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>121.446387666033</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>4323.347077693378</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>0.4828929020704463</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>0.9023033963858765</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>1.428748734816996</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>0.9361816914328777</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>1456.85415660669</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>907.9939999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4">
         <v>2815.329988602864</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4">
         <v>25635.55781861692</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>2001</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>3.684928369777788</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>200.8054079471254</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>3844.036668888113</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>0.4703172045124638</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>0.8897713584292684</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>1.689626288308879</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>0.9210298526651632</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>1489.760735511788</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>880.702</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4">
         <v>3061.187342191557</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4">
         <v>24570.43913495836</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>2002</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>3.57912007275068</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>4.900170806834261</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>162.2731482068037</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>3229.201569867475</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>0.4649301492968235</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>0.9491329791632978</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>1.575282012959532</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>0.8175889589726093</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>1485.228549913714</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>851.278</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>2951.602579710457</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>25369.12124000533</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>2003</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>3.943718210358451</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>5.104784588258316</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>140.7657896585584</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>4201.457729796158</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>0.490323867278527</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>0.9062057628274756</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>1.504288030943476</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>0.9071913069679161</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>1478.300652687211</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>910.028</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4">
         <v>2878.792913365752</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4">
         <v>26079.18311289533</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>2004</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>4.094057445139582</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>5.052474334984193</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>99.64915609284107</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>3804.703783565807</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>0.5321283946066915</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>0.8961983216846947</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4">
         <v>1.553649214863232</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>0.9019578165260678</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>1387.884727738274</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4">
         <v>915.463</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4">
         <v>2345.182836586689</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4">
         <v>24961.29213066941</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>2005</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>3.921612279106915</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>4.710681830528375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>206.1789650453101</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>3858.040868418348</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>0.5137451329572849</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>1.49681200618595</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>0.9402966411949334</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4">
         <v>1406.946135040898</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>866.966</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4">
         <v>3501.448830504532</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4">
         <v>24110.78728766156</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>2006</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>4.246777931811768</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>4.931752996643083</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>223.4146475293802</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>3047.056796570431</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>0.5373630258449957</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>0.8991000893174085</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>1.579295195332152</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>0.8688964774643902</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4">
         <v>1399.764128175383</v>
       </c>
-      <c r="K10" t="n">
-        <v>901.5410000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="4">
+        <v>901.541</v>
+      </c>
+      <c r="L10" s="4">
         <v>3454.501390347807</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>23188.09668887022</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>2007</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>4.461098249060022</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>5.372029326915549</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>213.332067571474</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>4482.647716523151</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>0.5391198239903534</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>0.9337528423440373</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>1.474058907753947</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>0.9760139563901239</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4">
         <v>1429.975039710765</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4">
         <v>906.004</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>3616.646785771336</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>25038.2598043144</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>2008</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>4.360593088971775</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>5.102246183381002</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>122.5049318961823</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>4671.09154461659</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>0.5247439408407083</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>0.9117180608121523</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>1.543234055700855</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>0.9079055483026234</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>1452.506929609271</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4">
         <v>904.3009999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4">
         <v>2617.808372783014</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>27476.49828564801</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>2009</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>4.233652967487193</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>5.022203393120577</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>103.8624811024892</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>4401.817583312705</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>0.5298027363066177</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>0.8532304494205779</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>1.535058947790419</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>0.9197884688946594</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="4">
         <v>1417.543175418154</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>958.6800000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4">
         <v>2423.244041139828</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4">
         <v>26328.18520003458</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>2010</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>3.970269673330658</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>4.585485732274575</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>161.0259327515555</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>4819.787827450863</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>0.5066576355115151</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>0.915637349717223</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="4">
         <v>1.516294798954074</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="4">
         <v>0.9857105606476594</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4">
         <v>1435.45068098628</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>3054.619577665814</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4">
         <v>25707.35620367154</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>2011</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>3.634993316082562</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>5.269317561011592</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>185.3721130248525</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>4163.885063934154</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>0.49779902423537</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4">
         <v>0.8965230660921905</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4">
         <v>1.674298056107683</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.9129244720351259</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I15" s="4">
+        <v>0.912924472035126</v>
+      </c>
+      <c r="J15" s="4">
         <v>1397.946759724009</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4">
         <v>934.563</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>2968.125715717079</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>25799.26788486712</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>2012</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>4.006996356805822</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>4.9426654820563</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>175.8151523831331</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>3222.239484994696</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>0.5096673147770265</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4">
         <v>0.9195065404939854</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>1.466059282888865</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>0.9212604446856856</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>1433.558946113183</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4">
         <v>882.508</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>3301.182110740223</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4">
         <v>22489.99440386106</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>2013</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>3.787124156515514</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>5.448667112102966</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>185.3413720232717</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>4692.763027277824</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>0.5080627954089334</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>0.9602626481108519</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>1.72235260550873</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>0.898174028090442</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="4">
         <v>1398.074268592636</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4">
         <v>887.254</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4">
         <v>2885.074185631851</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4">
         <v>27838.55467330785</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>2014</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>3.848861220703304</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>5.313157794866777</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>102.5128505144468</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>5451.604886784962</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>0.5017407411741874</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>0.9344154392072506</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>1.533376400914033</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>0.9309350378786564</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="4">
         <v>1427.182866790205</v>
       </c>
-      <c r="K18" t="n">
-        <v>900.3869999999999</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="4">
+        <v>900.387</v>
+      </c>
+      <c r="L18" s="4">
         <v>2410.089908917965</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>28949.14051358519</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>2015</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>4.280264627475034</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>126.8465722803765</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>4015.604479226499</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>0.5285116208539449</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>0.9027012943672187</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>1.428248815083735</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>0.9649073643021417</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>1428.807211556046</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4">
         <v>912.306</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4">
         <v>2878.248983856619</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4">
         <v>23970.80993801372</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>2016</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>4.110341327357064</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>5.060059289823874</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>136.9170484582435</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>3817.681534207198</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>0.5408210672680698</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>0.9363686109652082</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>1.515883851954213</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>1.015539453473231</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="4">
         <v>1368.290171537759</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>876.847</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>2817.446655537969</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>22207.30783800522</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>2017</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>4.042985179311516</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>5.6695298584224</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>84.85841250470129</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>3800.857306250758</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>0.5254831706803208</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>0.9137673581108009</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>1.471062795551808</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>0.9648541744920066</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>1396.642094351892</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>951.1099999999999</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4">
         <v>2285.646716133476</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4">
         <v>23322.3316567994</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>2018</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>4.185556143775051</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>4.741563831807918</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>177.319864581662</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>4365.810480756531</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>0.537104735867631</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>0.9546412806047563</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>1.527999136466875</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>0.895886359268127</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>1390.30622923903</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>832.556</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>3180.88853754854</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>26919.83415022164</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>2019</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="4">
         <v>4.053911453332339</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>5.132679222896282</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4">
         <v>132.2785495203863</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4">
         <v>4741.578470492909</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4">
         <v>0.5348902926588798</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4">
         <v>0.9391555700336812</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>1.612413086943417</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>0.9125033476693812</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="4">
         <v>1373.93212244813</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4">
         <v>880.496</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4">
         <v>2603.522061449298</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="4">
         <v>27543.54713548067</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
         <v>2020</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="4">
         <v>3.998727236017018</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4">
         <v>5.290498737121782</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4">
         <v>159.968762594997</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4">
         <v>3703.272418791894</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>0.5102389555544337</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>0.9153747056368959</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>1.632493308665028</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>0.8658811581902816</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4">
         <v>1430.47457098474</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4">
         <v>917.154</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4">
         <v>2827.867438991879</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4">
         <v>25652.36468443536</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>2021</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="4">
         <v>3.925227201417209</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>4.692852742992623</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4">
         <v>203.5487482741081</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>4169.516141039316</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4">
         <v>0.4921424368664091</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>1.449224808754641</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>0.9870145836533077</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="4">
         <v>1469.381098632878</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4">
         <v>856.9110000000001</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4">
         <v>3593.282170708595</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="4">
         <v>23878.77946144854</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
         <v>2022</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="4">
         <v>4.14329274600438</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>5.281167338822821</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4">
         <v>183.5300905394524</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>5059.666229573233</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>0.5173891229987307</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>0.8717437962903186</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>1.508865292089262</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>0.9556946269702955</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="4">
         <v>1435.979962688713</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4">
         <v>962.208</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4">
         <v>3277.147849564776</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="4">
         <v>27166.56035341575</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>var PV</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>var E_Load</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>var Cooling_Load</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>var Heating_Load</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CV PV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CV E_Load</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Cooling_Load</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Heating_Load</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total pv (kWh/kW Capacity)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total E_Load (kWh)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Total Cooling_Load (kWh T)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total Heating_Load (kWh T)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1998</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4">
         <v>1.734523035388377</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>4.817145777480054</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>374.4226428467412</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>4.570710749009597</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>0.2734307025129672</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>0.9160548728493352</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>0.5010292565410669</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>3.14334666016228</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>1758.067809972343</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>874.5129999999999</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>14096.48489595441</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>248.2518275877363</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>1999</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>1.755481283123192</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>5.183040375884389</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>315.4204696381922</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>3.191252160486273</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>0.2758528474445057</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>0.9472276300831177</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>0.4731938390957472</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>3.670198402248886</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>1753.127470348527</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>877.2649999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>13699.31083726334</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>177.6576379133008</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>2000</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>1.598108205446653</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>5.038316116769532</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>323.3859811341895</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>6.564756415229303</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>0.2572419297626673</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>0.9023033963858765</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>0.4718344956337163</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>3.659504729465628</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>1793.718123674236</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>907.9939999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4">
         <v>13911.17359875802</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4">
         <v>255.5523387252058</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>2001</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>1.495614469195745</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>331.8312900306536</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>9.848461687773694</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>0.2529174553280931</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>0.8897713584292684</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>0.4902085091023851</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>3.670408248413474</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>1764.915388849627</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>880.702</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4">
         <v>13563.46611174095</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4">
         <v>312.0776680637161</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>2002</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>1.487559107296425</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>4.900170806834261</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>430.9944331298062</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>5.833085070015496</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>0.2534401715186803</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>0.9491329791632978</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>0.5076631011024786</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>3.678315297774261</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>1756.52577207232</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>851.278</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>14926.33197331591</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>239.6586266208542</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>2003</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>1.533337228375699</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>5.104784588258316</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>309.2561902391876</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>10.98564759446507</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>0.2644979468990304</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>0.9062057628274756</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>0.4834609086139399</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>3.250416376580731</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>1708.792775655507</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>910.028</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4">
         <v>13276.71709538481</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4">
         <v>372.1917125844568</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>2004</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>1.717982139991187</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>5.052474334984193</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>324.1389285844806</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>3.635756448691633</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>0.2711408680618109</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>0.8961983216846947</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4">
         <v>0.4961325421657249</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>2.975757963732855</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>1764.441259226901</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4">
         <v>915.463</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4">
         <v>13245.26789117925</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4">
         <v>233.879766443863</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>2005</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>1.891880322077831</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>4.710681830528375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>338.7098495848991</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>4.131228005321498</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>0.2926616688355007</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>0.5073372320335545</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>2.809585242571299</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4">
         <v>1715.433352873237</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>866.966</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4">
         <v>13240.67245863446</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4">
         <v>264.0524696183569</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>2006</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>1.735169342569544</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>4.931752996643083</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>356.5800536752212</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>7.92020063759248</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>0.2784311927797866</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>0.8991000893174085</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>0.4894958667710672</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>3.878624141365748</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4">
         <v>1726.815385648863</v>
       </c>
-      <c r="K10" t="n">
-        <v>901.5410000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="4">
+        <v>901.541</v>
+      </c>
+      <c r="L10" s="4">
         <v>14080.63881370148</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>264.8398052858039</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
         <v>2007</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>1.774755014139929</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>5.372029326915549</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>315.0161018383281</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>3.269545147941449</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>0.2871821838032328</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>0.9337528423440373</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>0.4583144676439753</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>4.319958057161564</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4">
         <v>1693.185640672939</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4">
         <v>906.004</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>14134.99548512239</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>152.7766573054079</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>2008</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>1.854250512702444</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>5.102246183381002</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>310.0826746134633</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>4.099761185731273</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>0.2962826347131365</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>0.9117180608121523</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>0.4633180450507205</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>4.290990331902285</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>1677.532220110945</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4">
         <v>904.3009999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4">
         <v>13872.42546128857</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>172.232302757055</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>2009</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>1.501169014984187</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>5.022203393120577</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>419.1311572543147</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>10.44669698453283</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>0.2602423944972439</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>0.8532304494205779</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>0.5254821140200242</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>3.493733925888101</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="4">
         <v>1718.421169041886</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>958.6800000000001</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4">
         <v>14220.33734924675</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4">
         <v>337.6700454156176</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>2010</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>1.894813879483753</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>4.585485732274575</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>541.0157624849007</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>52.96000339461318</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>0.2886216485285709</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>0.915637349717223</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.6599273249904311</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" s="4">
+        <v>0.659927324990431</v>
+      </c>
+      <c r="I14" s="4">
         <v>2.529330153303803</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4">
         <v>1740.793434915546</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>12864.76070896654</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4">
         <v>1050.174201206651</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>2011</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>1.718657360213199</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>5.269317561011592</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>354.8508793649507</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>3.018178290876333</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>0.2728355204068838</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4">
         <v>0.8965230660921905</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4">
         <v>0.432452182433185</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>4.070092116053694</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="4">
         <v>1753.826408375593</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4">
         <v>934.563</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>15899.28938914241</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>155.7977105715547</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>2012</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>1.61463320880051</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>4.9426654820563</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>350.8530572077869</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>5.073795019606708</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>0.2688015863277761</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4">
         <v>0.9195065404939854</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>0.4757690433597266</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>4.822197906125067</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>1725.432512996249</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4">
         <v>882.508</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>14370.08431944011</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4">
         <v>170.4960387680075</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
         <v>2013</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>1.738057496972627</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>5.448667112102966</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>333.3754206697068</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>4.315744371960942</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>0.2808833040115757</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>0.9602626481108519</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>0.4510814416399192</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>4.530394613682856</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="4">
         <v>1713.164273711046</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4">
         <v>887.254</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4">
         <v>14774.22446780637</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4">
         <v>167.3727256409111</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
         <v>2014</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>1.747613187157687</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>5.313157794866777</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>393.7539986690187</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>3.870008899821288</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>0.2752579428743526</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>0.9344154392072506</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>0.4604898088978744</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>4.030259570172955</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="4">
         <v>1752.974752560864</v>
       </c>
-      <c r="K18" t="n">
-        <v>900.3869999999999</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="4">
+        <v>900.387</v>
+      </c>
+      <c r="L18" s="4">
         <v>15728.42840448842</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>178.1623073016802</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
         <v>2015</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>1.86045611430823</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>422.9578945168267</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>3.900185185195476</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>0.288572267613787</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>0.9027012943672187</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>0.4494368776545557</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>5.692389147769647</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>1725.233916190866</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4">
         <v>912.306</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4">
         <v>16702.1633744471</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4">
         <v>126.6312507854277</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
         <v>2016</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>1.958483507806492</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>5.060059289823874</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>409.0038211102411</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>5.181897378848768</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>0.316162867852913</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>0.9363686109652082</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>0.5370955165899873</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>3.838695243125959</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="4">
         <v>1615.630196000685</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>876.847</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>13743.74282725496</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>216.4480282680304</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
         <v>2017</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>1.517806415724196</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>5.6695298584224</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>343.3884130142008</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>2.725636729896714</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>0.2656641586689862</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>0.9137673581108009</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>0.4636567480250516</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>4.360625447309569</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>1692.653602321886</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>951.1099999999999</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4">
         <v>14587.7764016894</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4">
         <v>138.1904611491491</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
         <v>2018</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>1.575785858874087</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>4.741563831807918</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>531.9145067308808</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>6.056119783926223</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>0.2709471352599982</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>0.9546412806047563</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>0.5039261468198949</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>4.5210387892073</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>1691.051758217025</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>832.556</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>16705.01573484978</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>198.6789515570177</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
         <v>2019</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="4">
         <v>1.795971244637607</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>5.132679222896282</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4">
         <v>451.3764403433841</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4">
         <v>1.48461934350109</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4">
         <v>0.2896319527593126</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4">
         <v>0.9391555700336812</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>0.435339226089363</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>4.438145103014466</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="4">
         <v>1688.869456667297</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4">
         <v>880.496</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4">
         <v>17812.89497139008</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="4">
         <v>100.2071994177383</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
         <v>2020</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="4">
         <v>1.864614082864689</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4">
         <v>5.290498737121782</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4">
         <v>438.3332610091376</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4">
         <v>3.19473566016925</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>0.3028588394528919</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>0.9153747056368959</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>0.4718656147418612</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>4.452831689590424</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4">
         <v>1645.686439823584</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4">
         <v>917.154</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4">
         <v>16194.84316700709</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4">
         <v>146.5122876241975</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
         <v>2021</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="4">
         <v>1.671129145364973</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>4.692852742992623</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4">
         <v>427.0945860371214</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>2.677701790652181</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4">
         <v>0.2742228925413567</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>0.438732425369766</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>4.08453283635215</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="4">
         <v>1720.656437817535</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4">
         <v>856.9110000000001</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4">
         <v>17193.13861632112</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="4">
         <v>146.2283491960329</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
         <v>2022</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="4">
         <v>1.916126049678305</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>5.281167338822821</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4">
         <v>533.2837933025686</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>11.87040727118634</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>0.2818030175307331</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>0.8717437962903186</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>0.4433553115564004</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>5.738823351641816</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="4">
         <v>1792.913192487435</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4">
         <v>962.208</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4">
         <v>19011.66448710239</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="4">
         <v>219.1304938671438</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Yearly_Results/locations_result.xlsx
+++ b/Yearly_Results/locations_result.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Desktop\Capacity_Algo\Yearly_Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938E2503-AF41-4328-AEDE-AAAA4DA8D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="HalfMoonBay"/>
-    <sheet r:id="rId2" sheetId="2" name="Arizona"/>
-    <sheet r:id="rId3" sheetId="3" name="Alaska"/>
-    <sheet r:id="rId4" sheetId="4" name="Minnesota"/>
-    <sheet r:id="rId5" sheetId="5" name="Florida"/>
+    <sheet name="California" sheetId="1" r:id="rId1"/>
+    <sheet name="Arizona" sheetId="2" r:id="rId2"/>
+    <sheet name="Alaska" sheetId="3" r:id="rId3"/>
+    <sheet name="Minnesota" sheetId="4" r:id="rId4"/>
+    <sheet name="Florida" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -62,8 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,34 +133,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -166,10 +174,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -207,71 +215,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -299,7 +307,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -322,11 +330,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -335,13 +343,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -351,7 +359,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -360,7 +368,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,7 +377,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,10 +385,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -445,32 +453,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,97 +513,97 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1998</v>
       </c>
       <c r="B2" s="4">
-        <v>3.809298751430293</v>
+        <v>3.8092987514302932</v>
       </c>
       <c r="C2" s="4">
-        <v>4.817145777480054</v>
+        <v>4.8171457774800537</v>
       </c>
       <c r="D2" s="4">
-        <v>12.73156524424821</v>
+        <v>12.731565244248211</v>
       </c>
       <c r="E2" s="4">
         <v>179.7815706067889</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5205256055405633</v>
+        <v>0.52052560554056326</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9160548728493352</v>
+        <v>0.91605487284933518</v>
       </c>
       <c r="H2" s="4">
-        <v>1.283857874413099</v>
+        <v>1.2838578744130991</v>
       </c>
       <c r="I2" s="4">
-        <v>0.6259375189983354</v>
+        <v>0.62593751899833538</v>
       </c>
       <c r="J2" s="4">
-        <v>1368.589751697369</v>
+        <v>1368.5897516973689</v>
       </c>
       <c r="K2" s="4">
-        <v>874.5129999999999</v>
+        <v>874.51299999999992</v>
       </c>
       <c r="L2" s="4">
         <v>1014.417692849875</v>
       </c>
       <c r="M2" s="4">
-        <v>7818.698481069239</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>7818.6984810692393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1999</v>
       </c>
       <c r="B3" s="4">
-        <v>3.307869306252719</v>
+        <v>3.3078693062527189</v>
       </c>
       <c r="C3" s="4">
-        <v>5.183040375884389</v>
+        <v>5.1830403758843886</v>
       </c>
       <c r="D3" s="4">
         <v>11.86268113776409</v>
       </c>
       <c r="E3" s="4">
-        <v>170.1114502961771</v>
+        <v>170.11145029617711</v>
       </c>
       <c r="F3" s="4">
-        <v>0.4388030925095855</v>
+        <v>0.43880309250958549</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9472276300831177</v>
+        <v>0.94722763008311772</v>
       </c>
       <c r="H3" s="4">
         <v>1.33563970283364</v>
       </c>
       <c r="I3" s="4">
-        <v>0.50487640459327</v>
+        <v>0.50487640459326999</v>
       </c>
       <c r="J3" s="4">
         <v>1512.855177646434</v>
       </c>
       <c r="K3" s="4">
-        <v>877.2649999999999</v>
+        <v>877.26499999999987</v>
       </c>
       <c r="L3" s="4">
-        <v>941.2282912909438</v>
+        <v>941.22829129094384</v>
       </c>
       <c r="M3" s="4">
-        <v>9429.193836482471</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>9429.1938364824709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2000</v>
       </c>
       <c r="B4" s="4">
-        <v>3.444805875008666</v>
+        <v>3.4448058750086661</v>
       </c>
       <c r="C4" s="4">
-        <v>5.038316116769532</v>
+        <v>5.0383161167695318</v>
       </c>
       <c r="D4" s="4">
         <v>14.8340548563044</v>
@@ -613,54 +615,54 @@
         <v>0.4575329796530529</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9023033963858765</v>
+        <v>0.90230339638587653</v>
       </c>
       <c r="H4" s="4">
         <v>1.279099935638611</v>
       </c>
       <c r="I4" s="4">
-        <v>0.4944364594485474</v>
+        <v>0.49443645944854742</v>
       </c>
       <c r="J4" s="4">
         <v>1480.651452208748</v>
       </c>
       <c r="K4" s="4">
-        <v>907.9939999999999</v>
+        <v>907.99399999999991</v>
       </c>
       <c r="L4" s="4">
-        <v>1099.052219712301</v>
+        <v>1099.0522197123009</v>
       </c>
       <c r="M4" s="4">
-        <v>8173.528383126261</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>8173.5283831262614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2001</v>
       </c>
       <c r="B5" s="4">
-        <v>3.442824728619528</v>
+        <v>3.4428247286195282</v>
       </c>
       <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
       <c r="D5" s="4">
-        <v>12.69790701904664</v>
+        <v>12.697907019046641</v>
       </c>
       <c r="E5" s="4">
-        <v>147.4015592461361</v>
+        <v>147.40155924613609</v>
       </c>
       <c r="F5" s="4">
-        <v>0.4441537159742089</v>
+        <v>0.44415371597420888</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8897713584292684</v>
+        <v>0.88977135842926836</v>
       </c>
       <c r="H5" s="4">
-        <v>1.192848548057699</v>
+        <v>1.1928485480576989</v>
       </c>
       <c r="I5" s="4">
-        <v>0.5270515452263784</v>
+        <v>0.52705154522637843</v>
       </c>
       <c r="J5" s="4">
         <v>1524.814528723175</v>
@@ -672,10 +674,10 @@
         <v>1090.369335936819</v>
       </c>
       <c r="M5" s="4">
-        <v>8407.963395737159</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>8407.9633957371589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
@@ -683,81 +685,81 @@
         <v>3.334021130915295</v>
       </c>
       <c r="C6" s="4">
-        <v>4.900170806834261</v>
+        <v>4.9001708068342609</v>
       </c>
       <c r="D6" s="4">
-        <v>13.74070528770939</v>
+        <v>13.740705287709391</v>
       </c>
       <c r="E6" s="4">
-        <v>143.8999569160387</v>
+        <v>143.89995691603869</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4173503227910144</v>
+        <v>0.41735032279101442</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9491329791632978</v>
+        <v>0.94913297916329775</v>
       </c>
       <c r="H6" s="4">
         <v>1.277519085271033</v>
       </c>
       <c r="I6" s="4">
-        <v>0.5137325225027244</v>
+        <v>0.51373252250272439</v>
       </c>
       <c r="J6" s="4">
         <v>1596.894719298534</v>
       </c>
       <c r="K6" s="4">
-        <v>851.278</v>
+        <v>851.27800000000002</v>
       </c>
       <c r="L6" s="4">
-        <v>1059.082958616489</v>
+        <v>1059.0829586164889</v>
       </c>
       <c r="M6" s="4">
-        <v>8522.875339384884</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>8522.8753393848838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2003</v>
       </c>
       <c r="B7" s="4">
-        <v>3.245098350839097</v>
+        <v>3.2450983508390969</v>
       </c>
       <c r="C7" s="4">
-        <v>5.104784588258316</v>
+        <v>5.1047845882583163</v>
       </c>
       <c r="D7" s="4">
-        <v>19.65038556252824</v>
+        <v>19.650385562528239</v>
       </c>
       <c r="E7" s="4">
-        <v>129.4762082072637</v>
+        <v>129.47620820726371</v>
       </c>
       <c r="F7" s="4">
-        <v>0.4106520943841577</v>
+        <v>0.41065209438415767</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9062057628274756</v>
+        <v>0.90620576282747556</v>
       </c>
       <c r="H7" s="4">
-        <v>1.1729474542991</v>
+        <v>1.1729474542991001</v>
       </c>
       <c r="I7" s="4">
         <v>0.5628828021820742</v>
       </c>
       <c r="J7" s="4">
-        <v>1601.152707920177</v>
+        <v>1601.1527079201769</v>
       </c>
       <c r="K7" s="4">
-        <v>910.028</v>
+        <v>910.02800000000002</v>
       </c>
       <c r="L7" s="4">
-        <v>1379.430567461996</v>
+        <v>1379.4305674619959</v>
       </c>
       <c r="M7" s="4">
-        <v>7378.530397691607</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>7378.5303976916066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2004</v>
       </c>
@@ -765,40 +767,40 @@
         <v>3.148031559404409</v>
       </c>
       <c r="C8" s="4">
-        <v>5.052474334984193</v>
+        <v>5.0524743349841934</v>
       </c>
       <c r="D8" s="4">
-        <v>18.29895857703511</v>
+        <v>18.298958577035108</v>
       </c>
       <c r="E8" s="4">
-        <v>153.0413984179449</v>
+        <v>153.04139841794489</v>
       </c>
       <c r="F8" s="4">
-        <v>0.414637343204932</v>
+        <v>0.41463734320493201</v>
       </c>
       <c r="G8" s="4">
-        <v>0.8961983216846947</v>
+        <v>0.89619832168469471</v>
       </c>
       <c r="H8" s="4">
         <v>1.170674379079099</v>
       </c>
       <c r="I8" s="4">
-        <v>0.6015530719967704</v>
+        <v>0.60155307199677044</v>
       </c>
       <c r="J8" s="4">
-        <v>1561.866788390272</v>
+        <v>1561.8667883902719</v>
       </c>
       <c r="K8" s="4">
-        <v>915.463</v>
+        <v>915.46299999999997</v>
       </c>
       <c r="L8" s="4">
         <v>1333.736196781239</v>
       </c>
       <c r="M8" s="4">
-        <v>7506.256108676915</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>7506.2561086769147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2005</v>
       </c>
@@ -806,7 +808,7 @@
         <v>3.522983298272055</v>
       </c>
       <c r="C9" s="4">
-        <v>4.710681830528375</v>
+        <v>4.7106818305283751</v>
       </c>
       <c r="D9" s="4">
         <v>11.62486712492815</v>
@@ -815,118 +817,118 @@
         <v>103.1891657429647</v>
       </c>
       <c r="F9" s="4">
-        <v>0.4500091876832975</v>
+        <v>0.45000918768329751</v>
       </c>
       <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
       <c r="H9" s="4">
-        <v>1.096734158237111</v>
+        <v>1.0967341582371111</v>
       </c>
       <c r="I9" s="4">
-        <v>0.501857760691757</v>
+        <v>0.50185776069175703</v>
       </c>
       <c r="J9" s="4">
-        <v>1522.392991255506</v>
+        <v>1522.3929912555061</v>
       </c>
       <c r="K9" s="4">
-        <v>866.966</v>
+        <v>866.96600000000001</v>
       </c>
       <c r="L9" s="4">
         <v>1134.711596411601</v>
       </c>
       <c r="M9" s="4">
-        <v>7388.040553965758</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>7388.0405539657577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2006</v>
       </c>
       <c r="B10" s="4">
-        <v>3.179764816817132</v>
+        <v>3.1797648168171322</v>
       </c>
       <c r="C10" s="4">
-        <v>4.931752996643083</v>
+        <v>4.9317529966430831</v>
       </c>
       <c r="D10" s="4">
-        <v>15.34360392788214</v>
+        <v>15.343603927882141</v>
       </c>
       <c r="E10" s="4">
-        <v>182.7092149861407</v>
+        <v>182.70921498614069</v>
       </c>
       <c r="F10" s="4">
-        <v>0.4306919826868958</v>
+        <v>0.43069198268689579</v>
       </c>
       <c r="G10" s="4">
-        <v>0.8991000893174085</v>
+        <v>0.89910008931740848</v>
       </c>
       <c r="H10" s="4">
         <v>1.189128815374064</v>
       </c>
       <c r="I10" s="4">
-        <v>0.6040660277506557</v>
+        <v>0.60406602775065565</v>
       </c>
       <c r="J10" s="4">
-        <v>1511.205678560094</v>
+        <v>1511.2056785600939</v>
       </c>
       <c r="K10" s="4">
-        <v>901.541</v>
+        <v>901.54100000000005</v>
       </c>
       <c r="L10" s="4">
         <v>1202.340983490853</v>
       </c>
       <c r="M10" s="4">
-        <v>8167.491257656136</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>8167.4912576561364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2007</v>
       </c>
       <c r="B11" s="4">
-        <v>2.870915977341283</v>
+        <v>2.8709159773412831</v>
       </c>
       <c r="C11" s="4">
-        <v>5.372029326915549</v>
+        <v>5.3720293269155492</v>
       </c>
       <c r="D11" s="4">
-        <v>19.19689967553156</v>
+        <v>19.196899675531562</v>
       </c>
       <c r="E11" s="4">
         <v>227.4158819233287</v>
       </c>
       <c r="F11" s="4">
-        <v>0.3818247044007347</v>
+        <v>0.38182470440073468</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9337528423440373</v>
+        <v>0.93375284234403733</v>
       </c>
       <c r="H11" s="4">
         <v>1.261185125535272</v>
       </c>
       <c r="I11" s="4">
-        <v>0.6274397201978645</v>
+        <v>0.62743972019786454</v>
       </c>
       <c r="J11" s="4">
         <v>1619.71677977542</v>
       </c>
       <c r="K11" s="4">
-        <v>906.004</v>
+        <v>906.00400000000002</v>
       </c>
       <c r="L11" s="4">
-        <v>1268.030127081559</v>
+        <v>1268.0301270815589</v>
       </c>
       <c r="M11" s="4">
-        <v>8772.6590666927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>8772.6590666927004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2008</v>
       </c>
       <c r="B12" s="4">
-        <v>2.996672048110249</v>
+        <v>2.9966720481102489</v>
       </c>
       <c r="C12" s="4">
         <v>5.102246183381002</v>
@@ -935,42 +937,42 @@
         <v>18.51063406148069</v>
       </c>
       <c r="E12" s="4">
-        <v>199.740604639506</v>
+        <v>199.74060463950599</v>
       </c>
       <c r="F12" s="4">
-        <v>0.3790550923671357</v>
+        <v>0.37905509236713569</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9117180608121523</v>
+        <v>0.91171806081215234</v>
       </c>
       <c r="H12" s="4">
-        <v>1.202406807583393</v>
+        <v>1.2024068075833929</v>
       </c>
       <c r="I12" s="4">
-        <v>0.5690507962428903</v>
+        <v>0.56905079624289034</v>
       </c>
       <c r="J12" s="4">
-        <v>1666.90226775703</v>
+        <v>1666.9022677570299</v>
       </c>
       <c r="K12" s="4">
-        <v>904.3009999999999</v>
+        <v>904.30099999999993</v>
       </c>
       <c r="L12" s="4">
         <v>1306.026790488751</v>
       </c>
       <c r="M12" s="4">
-        <v>9065.150302308495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>9065.1503023084952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2009</v>
       </c>
       <c r="B13" s="4">
-        <v>2.841304206717104</v>
+        <v>2.8413042067171039</v>
       </c>
       <c r="C13" s="4">
-        <v>5.022203393120577</v>
+        <v>5.0222033931205772</v>
       </c>
       <c r="D13" s="4">
         <v>15.22514507583594</v>
@@ -982,28 +984,28 @@
         <v>0.3843403083402358</v>
       </c>
       <c r="G13" s="4">
-        <v>0.8532304494205779</v>
+        <v>0.85323044942057791</v>
       </c>
       <c r="H13" s="4">
-        <v>1.158378297634075</v>
+        <v>1.1583782976340751</v>
       </c>
       <c r="I13" s="4">
-        <v>0.5994665885233715</v>
+        <v>0.59946658852337154</v>
       </c>
       <c r="J13" s="4">
-        <v>1600.795288485837</v>
+        <v>1600.7952884858371</v>
       </c>
       <c r="K13" s="4">
-        <v>958.6800000000001</v>
+        <v>958.68000000000006</v>
       </c>
       <c r="L13" s="4">
-        <v>1229.484822408216</v>
+        <v>1229.4848224082159</v>
       </c>
       <c r="M13" s="4">
-        <v>8753.725010205088</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>8753.7250102050875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2010</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>3.496607292636825</v>
       </c>
       <c r="C14" s="4">
-        <v>4.585485732274575</v>
+        <v>4.5854857322745746</v>
       </c>
       <c r="D14" s="4">
         <v>12.68925424577125</v>
@@ -1020,31 +1022,31 @@
         <v>135.0529740266677</v>
       </c>
       <c r="F14" s="4">
-        <v>0.4589059238852041</v>
+        <v>0.45890592388520413</v>
       </c>
       <c r="G14" s="4">
-        <v>0.915637349717223</v>
+        <v>0.91563734971722299</v>
       </c>
       <c r="H14" s="4">
-        <v>1.307025297472408</v>
+        <v>1.3070252974724079</v>
       </c>
       <c r="I14" s="4">
-        <v>0.5021583865856729</v>
+        <v>0.50215838658567291</v>
       </c>
       <c r="J14" s="4">
-        <v>1487.279630786839</v>
+        <v>1487.2796307868391</v>
       </c>
       <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
       <c r="L14" s="4">
-        <v>994.7797145296602</v>
+        <v>994.77971452966017</v>
       </c>
       <c r="M14" s="4">
-        <v>8447.033573642206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>8447.0335736422057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2011</v>
       </c>
@@ -1052,60 +1054,60 @@
         <v>2.73698751955307</v>
       </c>
       <c r="C15" s="4">
-        <v>5.269317561011592</v>
+        <v>5.2693175610115919</v>
       </c>
       <c r="D15" s="4">
-        <v>12.34209046601993</v>
+        <v>12.342090466019931</v>
       </c>
       <c r="E15" s="4">
-        <v>184.1466938863502</v>
+        <v>184.14669388635019</v>
       </c>
       <c r="F15" s="4">
-        <v>0.3893419527469293</v>
+        <v>0.38934195274692929</v>
       </c>
       <c r="G15" s="4">
-        <v>0.8965230660921905</v>
+        <v>0.89652306609219046</v>
       </c>
       <c r="H15" s="4">
         <v>1.239751934920388</v>
       </c>
       <c r="I15" s="4">
-        <v>0.5528368224236117</v>
+        <v>0.55283682242361165</v>
       </c>
       <c r="J15" s="4">
         <v>1550.950975343402</v>
       </c>
       <c r="K15" s="4">
-        <v>934.563</v>
+        <v>934.56299999999999</v>
       </c>
       <c r="L15" s="4">
         <v>1034.314069658411</v>
       </c>
       <c r="M15" s="4">
-        <v>8959.378110555994</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>8959.3781105559938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2012</v>
       </c>
       <c r="B16" s="4">
-        <v>3.551023931677171</v>
+        <v>3.5510239316771708</v>
       </c>
       <c r="C16" s="4">
-        <v>4.9426654820563</v>
+        <v>4.9426654820562996</v>
       </c>
       <c r="D16" s="4">
         <v>10.12588729362615</v>
       </c>
       <c r="E16" s="4">
-        <v>131.6441672800252</v>
+        <v>131.64416728002519</v>
       </c>
       <c r="F16" s="4">
-        <v>0.4268975610010534</v>
+        <v>0.42689756100105342</v>
       </c>
       <c r="G16" s="4">
-        <v>0.9195065404939854</v>
+        <v>0.91950654049398539</v>
       </c>
       <c r="H16" s="4">
         <v>1.132108268148956</v>
@@ -1117,16 +1119,16 @@
         <v>1611.187153648661</v>
       </c>
       <c r="K16" s="4">
-        <v>882.508</v>
+        <v>882.50800000000004</v>
       </c>
       <c r="L16" s="4">
-        <v>1025.938781379978</v>
+        <v>1025.9387813799781</v>
       </c>
       <c r="M16" s="4">
-        <v>8232.362128856435</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>8232.3621288564354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2013</v>
       </c>
@@ -1134,51 +1136,51 @@
         <v>2.523792941355568</v>
       </c>
       <c r="C17" s="4">
-        <v>5.448667112102966</v>
+        <v>5.4486671121029664</v>
       </c>
       <c r="D17" s="4">
         <v>21.26504367073419</v>
       </c>
       <c r="E17" s="4">
-        <v>229.1727568152131</v>
+        <v>229.17275681521309</v>
       </c>
       <c r="F17" s="4">
-        <v>0.3353316852262178</v>
+        <v>0.33533168522621781</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9602626481108519</v>
+        <v>0.96026264811085194</v>
       </c>
       <c r="H17" s="4">
         <v>1.187899239163974</v>
       </c>
       <c r="I17" s="4">
-        <v>0.6532454281357638</v>
+        <v>0.65324542813576381</v>
       </c>
       <c r="J17" s="4">
         <v>1729.19962878303</v>
       </c>
       <c r="K17" s="4">
-        <v>887.254</v>
+        <v>887.25400000000002</v>
       </c>
       <c r="L17" s="4">
         <v>1416.923488657565</v>
       </c>
       <c r="M17" s="4">
-        <v>8458.590106966258</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>8458.5901069662577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
       <c r="B18" s="4">
-        <v>2.897783742562533</v>
+        <v>2.8977837425625328</v>
       </c>
       <c r="C18" s="4">
-        <v>5.313157794866777</v>
+        <v>5.3131577948667772</v>
       </c>
       <c r="D18" s="4">
-        <v>40.37497021443481</v>
+        <v>40.374970214434811</v>
       </c>
       <c r="E18" s="4">
         <v>119.537598142069</v>
@@ -1187,77 +1189,77 @@
         <v>0.3913142555183779</v>
       </c>
       <c r="G18" s="4">
-        <v>0.9344154392072506</v>
+        <v>0.93441543920725056</v>
       </c>
       <c r="H18" s="4">
         <v>1.061104961983947</v>
       </c>
       <c r="I18" s="4">
-        <v>0.7244377068194862</v>
+        <v>0.72443770681948616</v>
       </c>
       <c r="J18" s="4">
-        <v>1587.816025121865</v>
+        <v>1587.8160251218651</v>
       </c>
       <c r="K18" s="4">
-        <v>900.387</v>
+        <v>900.38699999999994</v>
       </c>
       <c r="L18" s="4">
         <v>2185.700373722947</v>
       </c>
       <c r="M18" s="4">
-        <v>5508.636050563186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>5508.6360505631856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
       <c r="B19" s="4">
-        <v>2.446876209037634</v>
+        <v>2.4468762090376339</v>
       </c>
       <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
       <c r="D19" s="4">
-        <v>42.19661415853276</v>
+        <v>42.196614158532761</v>
       </c>
       <c r="E19" s="4">
-        <v>158.2555686874532</v>
+        <v>158.25556868745321</v>
       </c>
       <c r="F19" s="4">
-        <v>0.353465193977447</v>
+        <v>0.35346519397744702</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9027012943672187</v>
+        <v>0.90270129436721869</v>
       </c>
       <c r="H19" s="4">
-        <v>1.109316108399594</v>
+        <v>1.1093161083995939</v>
       </c>
       <c r="I19" s="4">
-        <v>0.7924978255411461</v>
+        <v>0.79249782554114612</v>
       </c>
       <c r="J19" s="4">
-        <v>1615.296338892637</v>
+        <v>1615.2963388926371</v>
       </c>
       <c r="K19" s="4">
-        <v>912.306</v>
+        <v>912.30600000000004</v>
       </c>
       <c r="L19" s="4">
-        <v>2137.353454158723</v>
+        <v>2137.3534541587228</v>
       </c>
       <c r="M19" s="4">
-        <v>5793.943897410037</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>5793.9438974100367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2016</v>
       </c>
       <c r="B20" s="4">
-        <v>2.95139285417575</v>
+        <v>2.9513928541757499</v>
       </c>
       <c r="C20" s="4">
-        <v>5.060059289823874</v>
+        <v>5.0600592898238741</v>
       </c>
       <c r="D20" s="4">
         <v>15.75664126271761</v>
@@ -1266,48 +1268,48 @@
         <v>101.2811567459985</v>
       </c>
       <c r="F20" s="4">
-        <v>0.4229382755941576</v>
+        <v>0.42293827559415759</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9363686109652082</v>
+        <v>0.93636861096520818</v>
       </c>
       <c r="H20" s="4">
-        <v>1.139648883843046</v>
+        <v>1.1396488838430461</v>
       </c>
       <c r="I20" s="4">
-        <v>0.5847994637780838</v>
+        <v>0.58479946377808378</v>
       </c>
       <c r="J20" s="4">
-        <v>1482.618397644714</v>
+        <v>1482.6183976447139</v>
       </c>
       <c r="K20" s="4">
-        <v>876.847</v>
+        <v>876.84699999999998</v>
       </c>
       <c r="L20" s="4">
         <v>1271.316309897265</v>
       </c>
       <c r="M20" s="4">
-        <v>6281.309964988935</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>6281.3099649889346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
       <c r="B21" s="4">
-        <v>2.897558929219258</v>
+        <v>2.8975589292192581</v>
       </c>
       <c r="C21" s="4">
-        <v>5.6695298584224</v>
+        <v>5.6695298584223996</v>
       </c>
       <c r="D21" s="4">
-        <v>31.89388459820684</v>
+        <v>31.893884598206839</v>
       </c>
       <c r="E21" s="4">
-        <v>126.5067016223585</v>
+        <v>126.50670162235851</v>
       </c>
       <c r="F21" s="4">
-        <v>0.4030037256091871</v>
+        <v>0.40300372560918712</v>
       </c>
       <c r="G21" s="4">
         <v>0.9137673581108009</v>
@@ -1328,83 +1330,83 @@
         <v>1646.344331509225</v>
       </c>
       <c r="M21" s="4">
-        <v>6728.146825432676</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>6728.1468254326765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2018</v>
       </c>
       <c r="B22" s="4">
-        <v>2.858305870162422</v>
+        <v>2.8583058701624222</v>
       </c>
       <c r="C22" s="4">
-        <v>4.741563831807918</v>
+        <v>4.7415638318079179</v>
       </c>
       <c r="D22" s="4">
-        <v>11.52477976362361</v>
+        <v>11.524779763623609</v>
       </c>
       <c r="E22" s="4">
-        <v>132.6917156832367</v>
+        <v>132.69171568323671</v>
       </c>
       <c r="F22" s="4">
-        <v>0.375831457848527</v>
+        <v>0.37583145784852701</v>
       </c>
       <c r="G22" s="4">
-        <v>0.9546412806047563</v>
+        <v>0.95464128060475628</v>
       </c>
       <c r="H22" s="4">
-        <v>1.060982292024872</v>
+        <v>1.0609822920248719</v>
       </c>
       <c r="I22" s="4">
-        <v>0.5690488285096765</v>
+        <v>0.56904882850967653</v>
       </c>
       <c r="J22" s="4">
         <v>1641.927914785872</v>
       </c>
       <c r="K22" s="4">
-        <v>832.556</v>
+        <v>832.55600000000004</v>
       </c>
       <c r="L22" s="4">
         <v>1167.887597345918</v>
       </c>
       <c r="M22" s="4">
-        <v>7388.652399806724</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>7388.6523998067241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
       <c r="B23" s="4">
-        <v>3.626741441830217</v>
+        <v>3.6267414418302168</v>
       </c>
       <c r="C23" s="4">
-        <v>5.132679222896282</v>
+        <v>5.1326792228962823</v>
       </c>
       <c r="D23" s="4">
-        <v>32.74266619346135</v>
+        <v>32.742666193461353</v>
       </c>
       <c r="E23" s="4">
-        <v>165.4304557833053</v>
+        <v>165.43045578330529</v>
       </c>
       <c r="F23" s="4">
-        <v>0.4350673762073891</v>
+        <v>0.43506737620738911</v>
       </c>
       <c r="G23" s="4">
-        <v>0.9391555700336812</v>
+        <v>0.93915557003368122</v>
       </c>
       <c r="H23" s="4">
-        <v>1.358989106429148</v>
+        <v>1.3589891064291479</v>
       </c>
       <c r="I23" s="4">
-        <v>0.6452123151090703</v>
+        <v>0.64521231510907029</v>
       </c>
       <c r="J23" s="4">
         <v>1597.697822260729</v>
       </c>
       <c r="K23" s="4">
-        <v>880.496</v>
+        <v>880.49599999999998</v>
       </c>
       <c r="L23" s="4">
         <v>1536.858591392629</v>
@@ -1413,33 +1415,33 @@
         <v>7276.088108985974</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2020</v>
       </c>
       <c r="B24" s="4">
-        <v>2.610021793298616</v>
+        <v>2.6100217932986158</v>
       </c>
       <c r="C24" s="4">
-        <v>5.290498737121782</v>
+        <v>5.2904987371217818</v>
       </c>
       <c r="D24" s="4">
-        <v>22.92156277778036</v>
+        <v>22.921562777780359</v>
       </c>
       <c r="E24" s="4">
-        <v>168.6777056990284</v>
+        <v>168.67770569902839</v>
       </c>
       <c r="F24" s="4">
-        <v>0.3466964463727872</v>
+        <v>0.34669644637278718</v>
       </c>
       <c r="G24" s="4">
-        <v>0.9153747056368959</v>
+        <v>0.91537470563689594</v>
       </c>
       <c r="H24" s="4">
         <v>1.148251528216029</v>
       </c>
       <c r="I24" s="4">
-        <v>0.6407921231793343</v>
+        <v>0.64079212317933432</v>
       </c>
       <c r="J24" s="4">
         <v>1700.848146608032</v>
@@ -1448,13 +1450,13 @@
         <v>917.154</v>
       </c>
       <c r="L24" s="4">
-        <v>1521.871361127916</v>
+        <v>1521.8713611279161</v>
       </c>
       <c r="M24" s="4">
-        <v>7397.833327184935</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>7397.8333271849351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2021</v>
       </c>
@@ -1462,60 +1464,60 @@
         <v>3.051145264538714</v>
       </c>
       <c r="C25" s="4">
-        <v>4.692852742992623</v>
+        <v>4.6928527429926232</v>
       </c>
       <c r="D25" s="4">
-        <v>11.44583296427225</v>
+        <v>11.445832964272251</v>
       </c>
       <c r="E25" s="4">
-        <v>142.260259598735</v>
+        <v>142.26025959873499</v>
       </c>
       <c r="F25" s="4">
-        <v>0.3745661847113321</v>
+        <v>0.37456618471133207</v>
       </c>
       <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
       <c r="H25" s="4">
-        <v>1.138821305522402</v>
+        <v>1.1388213055224019</v>
       </c>
       <c r="I25" s="4">
-        <v>0.5389651468755957</v>
+        <v>0.53896514687559571</v>
       </c>
       <c r="J25" s="4">
         <v>1702.141810150611</v>
       </c>
       <c r="K25" s="4">
-        <v>856.9110000000001</v>
+        <v>856.91100000000006</v>
       </c>
       <c r="L25" s="4">
         <v>1084.328774845618</v>
       </c>
       <c r="M25" s="4">
-        <v>8077.44447285051</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>8077.4444728505096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2022</v>
       </c>
       <c r="B26" s="4">
-        <v>2.73631942604779</v>
+        <v>2.7363194260477899</v>
       </c>
       <c r="C26" s="4">
-        <v>5.281167338822821</v>
+        <v>5.2811673388228213</v>
       </c>
       <c r="D26" s="4">
-        <v>20.8991129979013</v>
+        <v>20.899112997901302</v>
       </c>
       <c r="E26" s="4">
         <v>154.7919596934741</v>
       </c>
       <c r="F26" s="4">
-        <v>0.3315490839022636</v>
+        <v>0.33154908390226362</v>
       </c>
       <c r="G26" s="4">
-        <v>0.8717437962903186</v>
+        <v>0.87174379629031862</v>
       </c>
       <c r="H26" s="4">
         <v>1.210795592453505</v>
@@ -1527,13 +1529,13 @@
         <v>1821.077501984596</v>
       </c>
       <c r="K26" s="4">
-        <v>962.208</v>
+        <v>962.20799999999997</v>
       </c>
       <c r="L26" s="4">
-        <v>1378.116587773341</v>
+        <v>1378.1165877733411</v>
       </c>
       <c r="M26" s="4">
-        <v>7889.23013154157</v>
+        <v>7889.2301315415698</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1550,24 +1552,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,80 +1599,80 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1998</v>
       </c>
       <c r="B2" s="4">
-        <v>5.598843570215775</v>
+        <v>5.5988435702157746</v>
       </c>
       <c r="C2" s="4">
-        <v>4.817145777480054</v>
+        <v>4.8171457774800537</v>
       </c>
       <c r="D2" s="4">
-        <v>718.8682961034746</v>
+        <v>718.86829610347456</v>
       </c>
       <c r="E2" s="4">
-        <v>583.0701530732294</v>
+        <v>583.07015307322945</v>
       </c>
       <c r="F2" s="4">
-        <v>0.4238102073338076</v>
+        <v>0.42381020733380759</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9160548728493352</v>
+        <v>0.91605487284933518</v>
       </c>
       <c r="H2" s="4">
-        <v>1.02510526713959</v>
+        <v>1.0251052671395899</v>
       </c>
       <c r="I2" s="4">
-        <v>0.9896169590076406</v>
+        <v>0.98961695900764057</v>
       </c>
       <c r="J2" s="4">
-        <v>2037.842516628927</v>
+        <v>2037.8425166289269</v>
       </c>
       <c r="K2" s="4">
-        <v>874.5129999999999</v>
+        <v>874.51299999999992</v>
       </c>
       <c r="L2" s="4">
-        <v>9546.607443497078</v>
+        <v>9546.6074434970778</v>
       </c>
       <c r="M2" s="4">
-        <v>8906.070746501448</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>8906.0707465014475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1999</v>
       </c>
       <c r="B3" s="4">
-        <v>3.66347850944371</v>
+        <v>3.6634785094437099</v>
       </c>
       <c r="C3" s="4">
-        <v>5.183040375884389</v>
+        <v>5.1830403758843886</v>
       </c>
       <c r="D3" s="4">
-        <v>625.5737781121011</v>
+        <v>625.57377811210108</v>
       </c>
       <c r="E3" s="4">
-        <v>715.1129408343971</v>
+        <v>715.11294083439714</v>
       </c>
       <c r="F3" s="4">
-        <v>0.3351335471561223</v>
+        <v>0.33513354715612231</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9472276300831177</v>
+        <v>0.94722763008311772</v>
       </c>
       <c r="H3" s="4">
-        <v>0.888651325514225</v>
+        <v>0.88865132551422499</v>
       </c>
       <c r="I3" s="4">
-        <v>0.9754894779693756</v>
+        <v>0.97548947796937557</v>
       </c>
       <c r="J3" s="4">
         <v>2084.595449079347</v>
       </c>
       <c r="K3" s="4">
-        <v>877.2649999999999</v>
+        <v>877.26499999999987</v>
       </c>
       <c r="L3" s="4">
         <v>10273.081643186</v>
@@ -1690,71 +1681,71 @@
         <v>10005.93307529983</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2000</v>
       </c>
       <c r="B4" s="4">
-        <v>4.460720534546722</v>
+        <v>4.4607205345467218</v>
       </c>
       <c r="C4" s="4">
-        <v>5.038316116769532</v>
+        <v>5.0383161167695318</v>
       </c>
       <c r="D4" s="4">
-        <v>733.3616895046306</v>
+        <v>733.36168950463059</v>
       </c>
       <c r="E4" s="4">
-        <v>640.0332303514263</v>
+        <v>640.03323035142625</v>
       </c>
       <c r="F4" s="4">
-        <v>0.3777005714371059</v>
+        <v>0.37770057143710589</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9023033963858765</v>
+        <v>0.90230339638587653</v>
       </c>
       <c r="H4" s="4">
-        <v>0.9122921301569986</v>
+        <v>0.91229213015699862</v>
       </c>
       <c r="I4" s="4">
-        <v>1.062917552003024</v>
+        <v>1.0629175520030241</v>
       </c>
       <c r="J4" s="4">
         <v>2041.022208253348</v>
       </c>
       <c r="K4" s="4">
-        <v>907.9939999999999</v>
+        <v>907.99399999999991</v>
       </c>
       <c r="L4" s="4">
         <v>10834.72880740341</v>
       </c>
       <c r="M4" s="4">
-        <v>8687.494593664942</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>8687.4945936649419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2001</v>
       </c>
       <c r="B5" s="4">
-        <v>4.283016700489782</v>
+        <v>4.2830167004897817</v>
       </c>
       <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
       <c r="D5" s="4">
-        <v>674.4534919507973</v>
+        <v>674.45349195079734</v>
       </c>
       <c r="E5" s="4">
-        <v>699.3557127053164</v>
+        <v>699.35571270531636</v>
       </c>
       <c r="F5" s="4">
-        <v>0.3723110963150156</v>
+        <v>0.37231109631501558</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8897713584292684</v>
+        <v>0.88977135842926836</v>
       </c>
       <c r="H5" s="4">
-        <v>0.876823420319072</v>
+        <v>0.87682342031907201</v>
       </c>
       <c r="I5" s="4">
         <v>1.174245016360087</v>
@@ -1769,42 +1760,42 @@
         <v>10810.77246322581</v>
       </c>
       <c r="M5" s="4">
-        <v>8220.215482835754</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>8220.2154828357543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
       <c r="B6" s="4">
-        <v>4.362676760777194</v>
+        <v>4.3626767607771937</v>
       </c>
       <c r="C6" s="4">
-        <v>4.900170806834261</v>
+        <v>4.9001708068342609</v>
       </c>
       <c r="D6" s="4">
-        <v>618.4182517841846</v>
+        <v>618.41825178418458</v>
       </c>
       <c r="E6" s="4">
         <v>767.4107666307101</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3641695289591599</v>
+        <v>0.36416952895915988</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9491329791632978</v>
+        <v>0.94913297916329775</v>
       </c>
       <c r="H6" s="4">
-        <v>0.9058000148721944</v>
+        <v>0.90580001487219441</v>
       </c>
       <c r="I6" s="4">
-        <v>1.006597932716128</v>
+        <v>1.0065979327161281</v>
       </c>
       <c r="J6" s="4">
         <v>2093.465355920915</v>
       </c>
       <c r="K6" s="4">
-        <v>851.278</v>
+        <v>851.27800000000002</v>
       </c>
       <c r="L6" s="4">
         <v>10020.78375564909</v>
@@ -1813,112 +1804,112 @@
         <v>10045.01927202996</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2003</v>
       </c>
       <c r="B7" s="4">
-        <v>5.097651513223705</v>
+        <v>5.0976515132237052</v>
       </c>
       <c r="C7" s="4">
-        <v>5.104784588258316</v>
+        <v>5.1047845882583163</v>
       </c>
       <c r="D7" s="4">
-        <v>725.8217175263649</v>
+        <v>725.82171752636486</v>
       </c>
       <c r="E7" s="4">
-        <v>574.4718893459361</v>
+        <v>574.47188934593612</v>
       </c>
       <c r="F7" s="4">
-        <v>0.4013394791453497</v>
+        <v>0.40133947914534968</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9062057628274756</v>
+        <v>0.90620576282747556</v>
       </c>
       <c r="H7" s="4">
-        <v>0.9101827239976555</v>
+        <v>0.91018272399765554</v>
       </c>
       <c r="I7" s="4">
-        <v>1.085810682655895</v>
+        <v>1.0858106826558951</v>
       </c>
       <c r="J7" s="4">
-        <v>2053.364517896088</v>
+        <v>2053.3645178960878</v>
       </c>
       <c r="K7" s="4">
-        <v>910.028</v>
+        <v>910.02800000000002</v>
       </c>
       <c r="L7" s="4">
-        <v>10803.86766215421</v>
+        <v>10803.867662154211</v>
       </c>
       <c r="M7" s="4">
         <v>8056.995951983009</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2004</v>
       </c>
       <c r="B8" s="4">
-        <v>5.308640820200534</v>
+        <v>5.3086408202005337</v>
       </c>
       <c r="C8" s="4">
-        <v>5.052474334984193</v>
+        <v>5.0524743349841934</v>
       </c>
       <c r="D8" s="4">
-        <v>584.9998529656582</v>
+        <v>584.99985296565819</v>
       </c>
       <c r="E8" s="4">
-        <v>598.4821424749339</v>
+        <v>598.48214247493388</v>
       </c>
       <c r="F8" s="4">
-        <v>0.4070242937014567</v>
+        <v>0.40702429370145671</v>
       </c>
       <c r="G8" s="4">
-        <v>0.8961983216846947</v>
+        <v>0.89619832168469471</v>
       </c>
       <c r="H8" s="4">
-        <v>0.8988007473782625</v>
+        <v>0.89880074737826254</v>
       </c>
       <c r="I8" s="4">
-        <v>1.111935188585753</v>
+        <v>1.1119351885857529</v>
       </c>
       <c r="J8" s="4">
-        <v>2066.161211625342</v>
+        <v>2066.1612116253418</v>
       </c>
       <c r="K8" s="4">
-        <v>915.463</v>
+        <v>915.46299999999997</v>
       </c>
       <c r="L8" s="4">
-        <v>9822.16709398412</v>
+        <v>9822.1670939841206</v>
       </c>
       <c r="M8" s="4">
-        <v>8030.433470030394</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>8030.4334700303943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2005</v>
       </c>
       <c r="B9" s="4">
-        <v>5.272595087808578</v>
+        <v>5.2725950878085781</v>
       </c>
       <c r="C9" s="4">
-        <v>4.710681830528375</v>
+        <v>4.7106818305283751</v>
       </c>
       <c r="D9" s="4">
-        <v>685.2690522854938</v>
+        <v>685.26905228549379</v>
       </c>
       <c r="E9" s="4">
-        <v>572.3702974230993</v>
+        <v>572.37029742309926</v>
       </c>
       <c r="F9" s="4">
-        <v>0.4080544610302989</v>
+        <v>0.40805446103029891</v>
       </c>
       <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
       <c r="H9" s="4">
-        <v>0.922340773972932</v>
+        <v>0.92234077397293202</v>
       </c>
       <c r="I9" s="4">
         <v>1.171005089539521</v>
@@ -1927,150 +1918,150 @@
         <v>2053.936178287589</v>
       </c>
       <c r="K9" s="4">
-        <v>866.966</v>
+        <v>866.96600000000001</v>
       </c>
       <c r="L9" s="4">
         <v>10359.33830281679</v>
       </c>
       <c r="M9" s="4">
-        <v>7457.145656276835</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>7457.1456562768353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2006</v>
       </c>
       <c r="B10" s="4">
-        <v>4.160679974507331</v>
+        <v>4.1606799745073308</v>
       </c>
       <c r="C10" s="4">
-        <v>4.931752996643083</v>
+        <v>4.9317529966430831</v>
       </c>
       <c r="D10" s="4">
-        <v>729.9576023698268</v>
+        <v>729.95760236982676</v>
       </c>
       <c r="E10" s="4">
-        <v>823.3974310076575</v>
+        <v>823.39743100765747</v>
       </c>
       <c r="F10" s="4">
-        <v>0.3610058717402402</v>
+        <v>0.36100587174024018</v>
       </c>
       <c r="G10" s="4">
-        <v>0.8991000893174085</v>
+        <v>0.89910008931740848</v>
       </c>
       <c r="H10" s="4">
-        <v>0.9292057874359222</v>
+        <v>0.92920578743592219</v>
       </c>
       <c r="I10" s="4">
         <v>1.04748782736315</v>
       </c>
       <c r="J10" s="4">
-        <v>2062.342326066342</v>
+        <v>2062.3423260663421</v>
       </c>
       <c r="K10" s="4">
-        <v>901.541</v>
+        <v>901.54100000000005</v>
       </c>
       <c r="L10" s="4">
-        <v>10612.7950254051</v>
+        <v>10612.795025405099</v>
       </c>
       <c r="M10" s="4">
-        <v>9998.817311846618</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>9998.8173118466184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2007</v>
       </c>
       <c r="B11" s="4">
-        <v>4.797796300485554</v>
+        <v>4.7977963004855537</v>
       </c>
       <c r="C11" s="4">
-        <v>5.372029326915549</v>
+        <v>5.3720293269155492</v>
       </c>
       <c r="D11" s="4">
-        <v>784.4266101568394</v>
+        <v>784.42661015683939</v>
       </c>
       <c r="E11" s="4">
-        <v>775.6297818311785</v>
+        <v>775.62978183117855</v>
       </c>
       <c r="F11" s="4">
-        <v>0.3863419219978322</v>
+        <v>0.38634192199783218</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9337528423440373</v>
+        <v>0.93375284234403733</v>
       </c>
       <c r="H11" s="4">
-        <v>0.9362662736656095</v>
+        <v>0.93626627366560955</v>
       </c>
       <c r="I11" s="4">
         <v>1.130285245101428</v>
       </c>
       <c r="J11" s="4">
-        <v>2069.388022254204</v>
+        <v>2069.3880222542039</v>
       </c>
       <c r="K11" s="4">
-        <v>906.004</v>
+        <v>906.00400000000002</v>
       </c>
       <c r="L11" s="4">
-        <v>10918.66757720176</v>
+        <v>10918.667577201761</v>
       </c>
       <c r="M11" s="4">
-        <v>8993.568447884121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>8993.5684478841213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2008</v>
       </c>
       <c r="B12" s="4">
-        <v>4.564009452980215</v>
+        <v>4.5640094529802147</v>
       </c>
       <c r="C12" s="4">
         <v>5.102246183381002</v>
       </c>
       <c r="D12" s="4">
-        <v>688.1455601795328</v>
+        <v>688.14556017953282</v>
       </c>
       <c r="E12" s="4">
-        <v>608.4102772482258</v>
+        <v>608.41027724822584</v>
       </c>
       <c r="F12" s="4">
-        <v>0.373787004087051</v>
+        <v>0.37378700408705101</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9117180608121523</v>
+        <v>0.91171806081215234</v>
       </c>
       <c r="H12" s="4">
-        <v>0.9259536375175125</v>
+        <v>0.92595363751751247</v>
       </c>
       <c r="I12" s="4">
-        <v>1.002623681767599</v>
+        <v>1.0026236817675991</v>
       </c>
       <c r="J12" s="4">
-        <v>2086.132718067063</v>
+        <v>2086.1327180670628</v>
       </c>
       <c r="K12" s="4">
-        <v>904.3009999999999</v>
+        <v>904.30099999999993</v>
       </c>
       <c r="L12" s="4">
         <v>10340.55332244372</v>
       </c>
       <c r="M12" s="4">
-        <v>8979.521132826263</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>8979.5211328262631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2009</v>
       </c>
       <c r="B13" s="4">
-        <v>3.976668012396288</v>
+        <v>3.9766680123962881</v>
       </c>
       <c r="C13" s="4">
-        <v>5.022203393120577</v>
+        <v>5.0222033931205772</v>
       </c>
       <c r="D13" s="4">
-        <v>729.5618109759635</v>
+        <v>729.56181097596345</v>
       </c>
       <c r="E13" s="4">
         <v>670.6726413891256</v>
@@ -2079,10 +2070,10 @@
         <v>0.3501086752813195</v>
       </c>
       <c r="G13" s="4">
-        <v>0.8532304494205779</v>
+        <v>0.85323044942057791</v>
       </c>
       <c r="H13" s="4">
-        <v>0.9176117521727885</v>
+        <v>0.91761175217278845</v>
       </c>
       <c r="I13" s="4">
         <v>1.059667778853461</v>
@@ -2091,244 +2082,244 @@
         <v>2078.976882768764</v>
       </c>
       <c r="K13" s="4">
-        <v>958.6800000000001</v>
+        <v>958.68000000000006</v>
       </c>
       <c r="L13" s="4">
         <v>10743.97387713024</v>
       </c>
       <c r="M13" s="4">
-        <v>8920.278850314728</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>8920.2788503147276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2010</v>
       </c>
       <c r="B14" s="4">
-        <v>5.096631318588726</v>
+        <v>5.0966313185887264</v>
       </c>
       <c r="C14" s="4">
-        <v>4.585485732274575</v>
+        <v>4.5854857322745746</v>
       </c>
       <c r="D14" s="4">
-        <v>711.2755061309816</v>
+        <v>711.27550613098163</v>
       </c>
       <c r="E14" s="4">
-        <v>549.7630444671784</v>
+        <v>549.76304446717836</v>
       </c>
       <c r="F14" s="4">
-        <v>0.4010989068868572</v>
+        <v>0.40109890688685718</v>
       </c>
       <c r="G14" s="4">
-        <v>0.915637349717223</v>
+        <v>0.91563734971722299</v>
       </c>
       <c r="H14" s="4">
-        <v>0.9638700634125952</v>
+        <v>0.96387006341259518</v>
       </c>
       <c r="I14" s="4">
-        <v>1.033955357289846</v>
+        <v>1.0339553572898461</v>
       </c>
       <c r="J14" s="4">
-        <v>2054.390487009961</v>
+        <v>2054.3904870099609</v>
       </c>
       <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
       <c r="L14" s="4">
-        <v>10099.34711766963</v>
+        <v>10099.347117669629</v>
       </c>
       <c r="M14" s="4">
-        <v>8277.112310438766</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>8277.1123104387661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2011</v>
       </c>
       <c r="B15" s="4">
-        <v>4.391843825794236</v>
+        <v>4.3918438257942363</v>
       </c>
       <c r="C15" s="4">
-        <v>5.269317561011592</v>
+        <v>5.2693175610115919</v>
       </c>
       <c r="D15" s="4">
-        <v>734.9323497211524</v>
+        <v>734.93234972115238</v>
       </c>
       <c r="E15" s="4">
-        <v>720.9443105568224</v>
+        <v>720.94431055682242</v>
       </c>
       <c r="F15" s="4">
-        <v>0.366114549104662</v>
+        <v>0.36611454910466201</v>
       </c>
       <c r="G15" s="4">
-        <v>0.8965230660921905</v>
+        <v>0.89652306609219046</v>
       </c>
       <c r="H15" s="4">
-        <v>0.9517998891445631</v>
+        <v>0.95179988914456315</v>
       </c>
       <c r="I15" s="4">
-        <v>1.01419234014038</v>
+        <v>1.0141923401403801</v>
       </c>
       <c r="J15" s="4">
-        <v>2089.292863377961</v>
+        <v>2089.2928633779611</v>
       </c>
       <c r="K15" s="4">
-        <v>934.563</v>
+        <v>934.56299999999999</v>
       </c>
       <c r="L15" s="4">
         <v>10396.11073333461</v>
       </c>
       <c r="M15" s="4">
-        <v>9663.254057237045</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>9663.2540572370453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2012</v>
       </c>
       <c r="B16" s="4">
-        <v>4.008806726611501</v>
+        <v>4.0088067266115006</v>
       </c>
       <c r="C16" s="4">
-        <v>4.9426654820563</v>
+        <v>4.9426654820562996</v>
       </c>
       <c r="D16" s="4">
-        <v>649.6918792892039</v>
+        <v>649.69187928920394</v>
       </c>
       <c r="E16" s="4">
-        <v>570.2203430192768</v>
+        <v>570.22034301927681</v>
       </c>
       <c r="F16" s="4">
         <v>0.3569204052365913</v>
       </c>
       <c r="G16" s="4">
-        <v>0.9195065404939854</v>
+        <v>0.91950654049398539</v>
       </c>
       <c r="H16" s="4">
         <v>0.8729722608284799</v>
       </c>
       <c r="I16" s="4">
-        <v>1.031951076789018</v>
+        <v>1.0319510767890181</v>
       </c>
       <c r="J16" s="4">
-        <v>2047.524213359817</v>
+        <v>2047.5242133598169</v>
       </c>
       <c r="K16" s="4">
-        <v>882.508</v>
+        <v>882.50800000000004</v>
       </c>
       <c r="L16" s="4">
-        <v>10657.27419605088</v>
+        <v>10657.274196050879</v>
       </c>
       <c r="M16" s="4">
-        <v>8446.078419623078</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>8446.0784196230779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2013</v>
       </c>
       <c r="B17" s="4">
-        <v>4.093694684090959</v>
+        <v>4.0936946840909592</v>
       </c>
       <c r="C17" s="4">
-        <v>5.448667112102966</v>
+        <v>5.4486671121029664</v>
       </c>
       <c r="D17" s="4">
-        <v>634.6520945375174</v>
+        <v>634.65209453751743</v>
       </c>
       <c r="E17" s="4">
-        <v>732.4760709440596</v>
+        <v>732.47607094405964</v>
       </c>
       <c r="F17" s="4">
-        <v>0.3612708422652935</v>
+        <v>0.36127084226529349</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9602626481108519</v>
+        <v>0.96026264811085194</v>
       </c>
       <c r="H17" s="4">
-        <v>0.9104432530176315</v>
+        <v>0.91044325301763152</v>
       </c>
       <c r="I17" s="4">
-        <v>1.090824573503331</v>
+        <v>1.0908245735033311</v>
       </c>
       <c r="J17" s="4">
         <v>2044.173139529064</v>
       </c>
       <c r="K17" s="4">
-        <v>887.254</v>
+        <v>887.25400000000002</v>
       </c>
       <c r="L17" s="4">
         <v>10099.68529549511</v>
       </c>
       <c r="M17" s="4">
-        <v>9055.963683629441</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>9055.9636836294412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
       <c r="B18" s="4">
-        <v>4.450355592429219</v>
+        <v>4.4503555924292186</v>
       </c>
       <c r="C18" s="4">
-        <v>5.313157794866777</v>
+        <v>5.3131577948667772</v>
       </c>
       <c r="D18" s="4">
-        <v>625.1482175859971</v>
+        <v>625.14821758599714</v>
       </c>
       <c r="E18" s="4">
-        <v>485.1191239398645</v>
+        <v>485.11912393986449</v>
       </c>
       <c r="F18" s="4">
-        <v>0.3760588717480378</v>
+        <v>0.37605887174803782</v>
       </c>
       <c r="G18" s="4">
-        <v>0.9344154392072506</v>
+        <v>0.93441543920725056</v>
       </c>
       <c r="H18" s="4">
-        <v>0.8291687332708593</v>
+        <v>0.82916873327085927</v>
       </c>
       <c r="I18" s="4">
-        <v>1.09113380536838</v>
+        <v>1.0911338053683799</v>
       </c>
       <c r="J18" s="4">
         <v>2047.549371152506</v>
       </c>
       <c r="K18" s="4">
-        <v>900.387</v>
+        <v>900.38699999999994</v>
       </c>
       <c r="L18" s="4">
         <v>11006.30252691444</v>
       </c>
       <c r="M18" s="4">
-        <v>7367.820740146692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>7367.8207401466916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
       <c r="B19" s="4">
-        <v>4.247478715341076</v>
+        <v>4.2474787153410762</v>
       </c>
       <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
       <c r="D19" s="4">
-        <v>743.8584110938567</v>
+        <v>743.85841109385672</v>
       </c>
       <c r="E19" s="4">
         <v>579.9165890189397</v>
       </c>
       <c r="F19" s="4">
-        <v>0.377829955983815</v>
+        <v>0.37782995598381502</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9027012943672187</v>
+        <v>0.90270129436721869</v>
       </c>
       <c r="H19" s="4">
-        <v>0.8713498842879042</v>
+        <v>0.87134988428790416</v>
       </c>
       <c r="I19" s="4">
         <v>1.252605133677086</v>
@@ -2337,71 +2328,71 @@
         <v>1990.95792606225</v>
       </c>
       <c r="K19" s="4">
-        <v>912.306</v>
+        <v>912.30600000000004</v>
       </c>
       <c r="L19" s="4">
-        <v>11424.71633240565</v>
+        <v>11424.716332405649</v>
       </c>
       <c r="M19" s="4">
-        <v>7017.161037742533</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>7017.1610377425332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2016</v>
       </c>
       <c r="B20" s="4">
-        <v>4.548246610574694</v>
+        <v>4.5482466105746937</v>
       </c>
       <c r="C20" s="4">
-        <v>5.060059289823874</v>
+        <v>5.0600592898238741</v>
       </c>
       <c r="D20" s="4">
-        <v>616.8587272620543</v>
+        <v>616.85872726205434</v>
       </c>
       <c r="E20" s="4">
-        <v>477.9275118092738</v>
+        <v>477.92751180927382</v>
       </c>
       <c r="F20" s="4">
-        <v>0.3761526718736534</v>
+        <v>0.37615267187365342</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9363686109652082</v>
+        <v>0.93636861096520818</v>
       </c>
       <c r="H20" s="4">
-        <v>0.8397709474957152</v>
+        <v>0.83977094749571524</v>
       </c>
       <c r="I20" s="4">
-        <v>1.166384976207404</v>
+        <v>1.1663849762074039</v>
       </c>
       <c r="J20" s="4">
-        <v>2069.429881087686</v>
+        <v>2069.4298810876862</v>
       </c>
       <c r="K20" s="4">
-        <v>876.847</v>
+        <v>876.84699999999998</v>
       </c>
       <c r="L20" s="4">
         <v>10795.05539770159</v>
       </c>
       <c r="M20" s="4">
-        <v>6841.194896991995</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>6841.1948969919949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
       <c r="B21" s="4">
-        <v>4.762205374105571</v>
+        <v>4.7622053741055712</v>
       </c>
       <c r="C21" s="4">
-        <v>5.6695298584224</v>
+        <v>5.6695298584223996</v>
       </c>
       <c r="D21" s="4">
-        <v>584.5777732284927</v>
+        <v>584.57777322849267</v>
       </c>
       <c r="E21" s="4">
-        <v>470.0477551628236</v>
+        <v>470.04775516282359</v>
       </c>
       <c r="F21" s="4">
         <v>0.3892529203495757</v>
@@ -2410,7 +2401,7 @@
         <v>0.9137673581108009</v>
       </c>
       <c r="H21" s="4">
-        <v>0.8400202021730118</v>
+        <v>0.84002020217301177</v>
       </c>
       <c r="I21" s="4">
         <v>1.181232556348778</v>
@@ -2425,51 +2416,51 @@
         <v>10505.682776484</v>
       </c>
       <c r="M21" s="4">
-        <v>6699.284905186782</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>6699.2849051867825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2018</v>
       </c>
       <c r="B22" s="4">
-        <v>8.563168674130234</v>
+        <v>8.5631686741302335</v>
       </c>
       <c r="C22" s="4">
-        <v>4.741563831807918</v>
+        <v>4.7415638318079179</v>
       </c>
       <c r="D22" s="4">
-        <v>746.3467917669395</v>
+        <v>746.34679176693953</v>
       </c>
       <c r="E22" s="4">
-        <v>577.2172408452358</v>
+        <v>577.21724084523578</v>
       </c>
       <c r="F22" s="4">
-        <v>0.4761361649419052</v>
+        <v>0.47613616494190519</v>
       </c>
       <c r="G22" s="4">
-        <v>0.9546412806047563</v>
+        <v>0.95464128060475628</v>
       </c>
       <c r="H22" s="4">
-        <v>0.901018486559267</v>
+        <v>0.90101848655926697</v>
       </c>
       <c r="I22" s="4">
         <v>1.109502661050296</v>
       </c>
       <c r="J22" s="4">
-        <v>2243.256548492526</v>
+        <v>2243.2565484925258</v>
       </c>
       <c r="K22" s="4">
-        <v>832.556</v>
+        <v>832.55600000000004</v>
       </c>
       <c r="L22" s="4">
-        <v>11066.9895010884</v>
+        <v>11066.989501088399</v>
       </c>
       <c r="M22" s="4">
-        <v>7903.767629515705</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>7903.7676295157053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -2477,160 +2468,160 @@
         <v>9.122040242775256</v>
       </c>
       <c r="C23" s="4">
-        <v>5.132679222896282</v>
+        <v>5.1326792228962823</v>
       </c>
       <c r="D23" s="4">
         <v>696.2856058948214</v>
       </c>
       <c r="E23" s="4">
-        <v>585.6730314148168</v>
+        <v>585.67303141481682</v>
       </c>
       <c r="F23" s="4">
-        <v>0.489532346331772</v>
+        <v>0.48953234633177201</v>
       </c>
       <c r="G23" s="4">
-        <v>0.9391555700336812</v>
+        <v>0.93915557003368122</v>
       </c>
       <c r="H23" s="4">
-        <v>0.9525931418286339</v>
+        <v>0.95259314182863386</v>
       </c>
       <c r="I23" s="4">
-        <v>1.160594811978399</v>
+        <v>1.1605948119783991</v>
       </c>
       <c r="J23" s="4">
-        <v>2251.943358668295</v>
+        <v>2251.9433586682949</v>
       </c>
       <c r="K23" s="4">
-        <v>880.496</v>
+        <v>880.49599999999998</v>
       </c>
       <c r="L23" s="4">
         <v>10110.65106819472</v>
       </c>
       <c r="M23" s="4">
-        <v>7610.967243577225</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>7610.9672435772254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2020</v>
       </c>
       <c r="B24" s="4">
-        <v>8.28747152818467</v>
+        <v>8.2874715281846694</v>
       </c>
       <c r="C24" s="4">
-        <v>5.290498737121782</v>
+        <v>5.2904987371217818</v>
       </c>
       <c r="D24" s="4">
         <v>777.5123118056697</v>
       </c>
       <c r="E24" s="4">
-        <v>621.4817950864272</v>
+        <v>621.48179508642716</v>
       </c>
       <c r="F24" s="4">
-        <v>0.4549105834454986</v>
+        <v>0.45491058344549862</v>
       </c>
       <c r="G24" s="4">
-        <v>0.9153747056368959</v>
+        <v>0.91537470563689594</v>
       </c>
       <c r="H24" s="4">
         <v>0.9093214968707567</v>
       </c>
       <c r="I24" s="4">
-        <v>1.159341012582836</v>
+        <v>1.1593410125828361</v>
       </c>
       <c r="J24" s="4">
-        <v>2309.818462632529</v>
+        <v>2309.8184626325292</v>
       </c>
       <c r="K24" s="4">
         <v>917.154</v>
       </c>
       <c r="L24" s="4">
-        <v>11192.55001268586</v>
+        <v>11192.550012685861</v>
       </c>
       <c r="M24" s="4">
         <v>7848.666406354947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2021</v>
       </c>
       <c r="B25" s="4">
-        <v>7.454932071006543</v>
+        <v>7.4549320710065432</v>
       </c>
       <c r="C25" s="4">
-        <v>4.692852742992623</v>
+        <v>4.6928527429926232</v>
       </c>
       <c r="D25" s="4">
-        <v>754.9593783007336</v>
+        <v>754.95937830073365</v>
       </c>
       <c r="E25" s="4">
-        <v>534.6419303689788</v>
+        <v>534.64193036897882</v>
       </c>
       <c r="F25" s="4">
-        <v>0.4458463941467184</v>
+        <v>0.44584639414671839</v>
       </c>
       <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
       <c r="H25" s="4">
-        <v>0.9022051238611722</v>
+        <v>0.90220512386117224</v>
       </c>
       <c r="I25" s="4">
         <v>1.025865118676627</v>
       </c>
       <c r="J25" s="4">
-        <v>2235.267229700439</v>
+        <v>2235.2672297004392</v>
       </c>
       <c r="K25" s="4">
-        <v>856.9110000000001</v>
+        <v>856.91100000000006</v>
       </c>
       <c r="L25" s="4">
-        <v>11116.02122669919</v>
+        <v>11116.021226699189</v>
       </c>
       <c r="M25" s="4">
-        <v>8226.860047425776</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>8226.8600474257764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2022</v>
       </c>
       <c r="B26" s="4">
-        <v>8.109877267144252</v>
+        <v>8.1098772671442525</v>
       </c>
       <c r="C26" s="4">
-        <v>5.281167338822821</v>
+        <v>5.2811673388228213</v>
       </c>
       <c r="D26" s="4">
-        <v>852.268963584617</v>
+        <v>852.26896358461704</v>
       </c>
       <c r="E26" s="4">
-        <v>616.0904657026701</v>
+        <v>616.09046570267014</v>
       </c>
       <c r="F26" s="4">
-        <v>0.4485296152940118</v>
+        <v>0.44852961529401181</v>
       </c>
       <c r="G26" s="4">
-        <v>0.8717437962903186</v>
+        <v>0.87174379629031862</v>
       </c>
       <c r="H26" s="4">
-        <v>0.9060002314876157</v>
+        <v>0.90600023148761566</v>
       </c>
       <c r="I26" s="4">
         <v>1.025162565421964</v>
       </c>
       <c r="J26" s="4">
-        <v>2317.442042786567</v>
+        <v>2317.4420427865671</v>
       </c>
       <c r="K26" s="4">
-        <v>962.208</v>
+        <v>962.20799999999997</v>
       </c>
       <c r="L26" s="4">
         <v>11761.23404799809</v>
       </c>
       <c r="M26" s="4">
-        <v>8837.356385430083</v>
+        <v>8837.3563854300828</v>
       </c>
     </row>
   </sheetData>
@@ -2639,7 +2630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2647,24 +2638,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2705,135 +2685,135 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1998</v>
       </c>
       <c r="B2" s="4">
-        <v>1802240133.031911</v>
+        <v>1802240133.0319109</v>
       </c>
       <c r="C2" s="4">
-        <v>4.817145777480054</v>
+        <v>4.8171457774800537</v>
       </c>
       <c r="D2" s="4">
         <v>0.4906413055276479</v>
       </c>
       <c r="E2" s="4">
-        <v>3575.434109705763</v>
+        <v>3575.4341097057631</v>
       </c>
       <c r="F2" s="4">
-        <v>13.47246808840718</v>
+        <v>13.472468088407179</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9160548728493352</v>
+        <v>0.91605487284933518</v>
       </c>
       <c r="H2" s="4">
-        <v>5.765349611347892</v>
+        <v>5.7653496113478919</v>
       </c>
       <c r="I2" s="4">
-        <v>0.6013965555908323</v>
+        <v>0.60139655559083227</v>
       </c>
       <c r="J2" s="4">
-        <v>1150143.499375862</v>
+        <v>1150143.4993758621</v>
       </c>
       <c r="K2" s="4">
-        <v>874.5129999999999</v>
+        <v>874.51299999999992</v>
       </c>
       <c r="L2" s="4">
-        <v>44.34547080000735</v>
+        <v>44.345470800007348</v>
       </c>
       <c r="M2" s="4">
         <v>36290.78124718825</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1999</v>
       </c>
       <c r="B3" s="4">
-        <v>1138676097.192012</v>
+        <v>1138676097.1920121</v>
       </c>
       <c r="C3" s="4">
-        <v>5.183040375884389</v>
+        <v>5.1830403758843886</v>
       </c>
       <c r="D3" s="4">
-        <v>0.332198540862629</v>
+        <v>0.33219854086262901</v>
       </c>
       <c r="E3" s="4">
-        <v>5942.938994605423</v>
+        <v>5942.9389946054234</v>
       </c>
       <c r="F3" s="4">
-        <v>13.65967926150769</v>
+        <v>13.659679261507691</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9472276300831177</v>
+        <v>0.94722763008311772</v>
       </c>
       <c r="H3" s="4">
-        <v>5.065959037703245</v>
+        <v>5.0659590377032453</v>
       </c>
       <c r="I3" s="4">
-        <v>0.65200350098446</v>
+        <v>0.65200350098446003</v>
       </c>
       <c r="J3" s="4">
-        <v>901680.0577501256</v>
+        <v>901680.05775012565</v>
       </c>
       <c r="K3" s="4">
-        <v>877.2649999999999</v>
+        <v>877.26499999999987</v>
       </c>
       <c r="L3" s="4">
-        <v>41.52695152090219</v>
+        <v>41.526951520902188</v>
       </c>
       <c r="M3" s="4">
-        <v>43156.23733655891</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>43156.237336558908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2000</v>
       </c>
       <c r="B4" s="4">
-        <v>214404093.1428357</v>
+        <v>214404093.14283571</v>
       </c>
       <c r="C4" s="4">
-        <v>5.038316116769532</v>
+        <v>5.0383161167695318</v>
       </c>
       <c r="D4" s="4">
-        <v>0.3915805980770042</v>
+        <v>0.39158059807700418</v>
       </c>
       <c r="E4" s="4">
         <v>2981.935211276706</v>
       </c>
       <c r="F4" s="4">
-        <v>9.69307493704702</v>
+        <v>9.6930749370470206</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9023033963858765</v>
+        <v>0.90230339638587653</v>
       </c>
       <c r="H4" s="4">
-        <v>5.077582444430208</v>
+        <v>5.0775824444302078</v>
       </c>
       <c r="I4" s="4">
         <v>0.5839494394432907</v>
       </c>
       <c r="J4" s="4">
-        <v>551375.9641968003</v>
+        <v>551375.96419680025</v>
       </c>
       <c r="K4" s="4">
-        <v>907.9939999999999</v>
+        <v>907.99399999999991</v>
       </c>
       <c r="L4" s="4">
-        <v>44.98279775736012</v>
+        <v>44.982797757360117</v>
       </c>
       <c r="M4" s="4">
-        <v>34132.39164536127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>34132.391645361269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2001</v>
       </c>
       <c r="B5" s="4">
-        <v>545060832.3115444</v>
+        <v>545060832.31154442</v>
       </c>
       <c r="C5" s="4">
         <v>4.609237428390788</v>
@@ -2842,86 +2822,86 @@
         <v>1.094636515140939</v>
       </c>
       <c r="E5" s="4">
-        <v>4072.483748799799</v>
+        <v>4072.4837487997988</v>
       </c>
       <c r="F5" s="4">
         <v>10.82331714032359</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8897713584292684</v>
+        <v>0.88977135842926836</v>
       </c>
       <c r="H5" s="4">
-        <v>4.249283022941798</v>
+        <v>4.2492830229417979</v>
       </c>
       <c r="I5" s="4">
-        <v>0.6364869399190481</v>
+        <v>0.63648693991904814</v>
       </c>
       <c r="J5" s="4">
-        <v>787326.6786984436</v>
+        <v>787326.67869844357</v>
       </c>
       <c r="K5" s="4">
         <v>880.702</v>
       </c>
       <c r="L5" s="4">
-        <v>89.86946823635249</v>
+        <v>89.869468236352489</v>
       </c>
       <c r="M5" s="4">
-        <v>36595.95186031811</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>36595.951860318113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
       <c r="B6" s="4">
-        <v>2987444695.408409</v>
+        <v>2987444695.4084091</v>
       </c>
       <c r="C6" s="4">
-        <v>4.900170806834261</v>
+        <v>4.9001708068342609</v>
       </c>
       <c r="D6" s="4">
-        <v>1.434477190906076</v>
+        <v>1.4344771909060761</v>
       </c>
       <c r="E6" s="4">
-        <v>2822.95064946682</v>
+        <v>2822.9506494668199</v>
       </c>
       <c r="F6" s="4">
-        <v>13.81371205760433</v>
+        <v>13.813712057604331</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9491329791632978</v>
+        <v>0.94913297916329775</v>
       </c>
       <c r="H6" s="4">
-        <v>4.563089532148545</v>
+        <v>4.5630895321485454</v>
       </c>
       <c r="I6" s="4">
-        <v>0.5940621888533683</v>
+        <v>0.59406218885336826</v>
       </c>
       <c r="J6" s="4">
         <v>1444216.832821209</v>
       </c>
       <c r="K6" s="4">
-        <v>851.278</v>
+        <v>851.27800000000002</v>
       </c>
       <c r="L6" s="4">
-        <v>95.80335051849315</v>
+        <v>95.803350518493147</v>
       </c>
       <c r="M6" s="4">
         <v>32644.69357185208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2003</v>
       </c>
       <c r="B7" s="4">
-        <v>3536223036.626304</v>
+        <v>3536223036.6263041</v>
       </c>
       <c r="C7" s="4">
-        <v>5.104784588258316</v>
+        <v>5.1047845882583163</v>
       </c>
       <c r="D7" s="4">
-        <v>3.017699680750778</v>
+        <v>3.0176996807507779</v>
       </c>
       <c r="E7" s="4">
         <v>3322.354138442307</v>
@@ -2930,19 +2910,19 @@
         <v>15.11856031434959</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9062057628274756</v>
+        <v>0.90620576282747556</v>
       </c>
       <c r="H7" s="4">
         <v>4.502799844959732</v>
       </c>
       <c r="I7" s="4">
-        <v>0.6380159980714548</v>
+        <v>0.63801599807145482</v>
       </c>
       <c r="J7" s="4">
         <v>1435662.154591837</v>
       </c>
       <c r="K7" s="4">
-        <v>910.028</v>
+        <v>910.02800000000002</v>
       </c>
       <c r="L7" s="4">
         <v>140.8147765820371</v>
@@ -2951,15 +2931,15 @@
         <v>32974.95847923962</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2004</v>
       </c>
       <c r="B8" s="4">
-        <v>627296682.3999305</v>
+        <v>627296682.39993048</v>
       </c>
       <c r="C8" s="4">
-        <v>5.052474334984193</v>
+        <v>5.0524743349841934</v>
       </c>
       <c r="D8" s="4">
         <v>2.689323034541554</v>
@@ -2971,42 +2951,42 @@
         <v>11.83248883926194</v>
       </c>
       <c r="G8" s="4">
-        <v>0.8961983216846947</v>
+        <v>0.89619832168469471</v>
       </c>
       <c r="H8" s="4">
-        <v>3.361165696257368</v>
+        <v>3.3611656962573679</v>
       </c>
       <c r="I8" s="4">
-        <v>0.6478974259315503</v>
+        <v>0.64789742593155031</v>
       </c>
       <c r="J8" s="4">
         <v>772597.4249094706</v>
       </c>
       <c r="K8" s="4">
-        <v>915.463</v>
+        <v>915.46299999999997</v>
       </c>
       <c r="L8" s="4">
-        <v>178.083805574264</v>
+        <v>178.08380557426401</v>
       </c>
       <c r="M8" s="4">
-        <v>34018.09684712344</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>34018.096847123437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2005</v>
       </c>
       <c r="B9" s="4">
-        <v>2272628991.773708</v>
+        <v>2272628991.7737079</v>
       </c>
       <c r="C9" s="4">
-        <v>4.710681830528375</v>
+        <v>4.7106818305283751</v>
       </c>
       <c r="D9" s="4">
         <v>2.756255700941991</v>
       </c>
       <c r="E9" s="4">
-        <v>3625.918277602391</v>
+        <v>3625.9182776023908</v>
       </c>
       <c r="F9" s="4">
         <v>14.53480026046571</v>
@@ -3015,66 +2995,66 @@
         <v>0.9137611396956602</v>
       </c>
       <c r="H9" s="4">
-        <v>3.499396684102601</v>
+        <v>3.4993966841026012</v>
       </c>
       <c r="I9" s="4">
-        <v>0.639963781337391</v>
+        <v>0.63996378133739096</v>
       </c>
       <c r="J9" s="4">
         <v>1197148.615969284</v>
       </c>
       <c r="K9" s="4">
-        <v>866.966</v>
+        <v>866.96600000000001</v>
       </c>
       <c r="L9" s="4">
         <v>173.164730385838</v>
       </c>
       <c r="M9" s="4">
-        <v>34343.65196490317</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>34343.651964903169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2006</v>
       </c>
       <c r="B10" s="4">
-        <v>2934311815.856866</v>
+        <v>2934311815.8568659</v>
       </c>
       <c r="C10" s="4">
-        <v>4.931752996643083</v>
+        <v>4.9317529966430831</v>
       </c>
       <c r="D10" s="4">
         <v>1.800273969789365</v>
       </c>
       <c r="E10" s="4">
-        <v>5008.453101500278</v>
+        <v>5008.4531015002776</v>
       </c>
       <c r="F10" s="4">
-        <v>14.01148387731815</v>
+        <v>14.011483877318151</v>
       </c>
       <c r="G10" s="4">
-        <v>0.8991000893174085</v>
+        <v>0.89910008931740848</v>
       </c>
       <c r="H10" s="4">
         <v>4.217231385842851</v>
       </c>
       <c r="I10" s="4">
-        <v>0.6543772521980546</v>
+        <v>0.65437725219805465</v>
       </c>
       <c r="J10" s="4">
         <v>1411113.232055007</v>
       </c>
       <c r="K10" s="4">
-        <v>901.541</v>
+        <v>901.54100000000005</v>
       </c>
       <c r="L10" s="4">
         <v>116.1274087818486</v>
       </c>
       <c r="M10" s="4">
-        <v>39474.48533543856</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>39474.485335438563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2007</v>
       </c>
@@ -3082,122 +3062,122 @@
         <v>3244869646.883327</v>
       </c>
       <c r="C11" s="4">
-        <v>5.372029326915549</v>
+        <v>5.3720293269155492</v>
       </c>
       <c r="D11" s="4">
-        <v>1.345133933198492</v>
+        <v>1.3451339331984919</v>
       </c>
       <c r="E11" s="4">
-        <v>4733.665478661185</v>
+        <v>4733.6654786611853</v>
       </c>
       <c r="F11" s="4">
-        <v>14.58317112951756</v>
+        <v>14.583171129517559</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9337528423440373</v>
+        <v>0.93375284234403733</v>
       </c>
       <c r="H11" s="4">
-        <v>4.4985338061747</v>
+        <v>4.4985338061746996</v>
       </c>
       <c r="I11" s="4">
-        <v>0.658657174712557</v>
+        <v>0.65865717471255703</v>
       </c>
       <c r="J11" s="4">
         <v>1425737.326506451</v>
       </c>
       <c r="K11" s="4">
-        <v>906.004</v>
+        <v>906.00400000000002</v>
       </c>
       <c r="L11" s="4">
         <v>94.10325379875043</v>
       </c>
       <c r="M11" s="4">
-        <v>38126.96356371428</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>38126.963563714278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2008</v>
       </c>
       <c r="B12" s="4">
-        <v>3890019343.188559</v>
+        <v>3890019343.1885591</v>
       </c>
       <c r="C12" s="4">
         <v>5.102246183381002</v>
       </c>
       <c r="D12" s="4">
-        <v>0.1550825328593602</v>
+        <v>0.15508253285936019</v>
       </c>
       <c r="E12" s="4">
-        <v>4770.478948537895</v>
+        <v>4770.4789485378951</v>
       </c>
       <c r="F12" s="4">
         <v>14.80981953385213</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9117180608121523</v>
+        <v>0.91171806081215234</v>
       </c>
       <c r="H12" s="4">
-        <v>4.746372318860032</v>
+        <v>4.7463723188600317</v>
       </c>
       <c r="I12" s="4">
-        <v>0.6137833258701562</v>
+        <v>0.61378332587015616</v>
       </c>
       <c r="J12" s="4">
         <v>1537159.659301939</v>
       </c>
       <c r="K12" s="4">
-        <v>904.3009999999999</v>
+        <v>904.30099999999993</v>
       </c>
       <c r="L12" s="4">
-        <v>30.28394889783512</v>
+        <v>30.283948897835121</v>
       </c>
       <c r="M12" s="4">
-        <v>41073.22177542034</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>41073.221775420338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2009</v>
       </c>
       <c r="B13" s="4">
-        <v>1956161421.388142</v>
+        <v>1956161421.3881421</v>
       </c>
       <c r="C13" s="4">
-        <v>5.022203393120577</v>
+        <v>5.0222033931205772</v>
       </c>
       <c r="D13" s="4">
-        <v>2.193594869576318</v>
+        <v>2.1935948695763181</v>
       </c>
       <c r="E13" s="4">
-        <v>4658.334442661859</v>
+        <v>4658.3344426618587</v>
       </c>
       <c r="F13" s="4">
-        <v>13.3658252100806</v>
+        <v>13.365825210080599</v>
       </c>
       <c r="G13" s="4">
-        <v>0.8532304494205779</v>
+        <v>0.85323044942057791</v>
       </c>
       <c r="H13" s="4">
-        <v>4.411236492788539</v>
+        <v>4.4112364927885386</v>
       </c>
       <c r="I13" s="4">
-        <v>0.6604642127163695</v>
+        <v>0.66046421271636946</v>
       </c>
       <c r="J13" s="4">
         <v>1207812.25517515</v>
       </c>
       <c r="K13" s="4">
-        <v>958.6800000000001</v>
+        <v>958.68000000000006</v>
       </c>
       <c r="L13" s="4">
         <v>122.549271454896</v>
       </c>
       <c r="M13" s="4">
-        <v>37718.89026297753</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>37718.890262977533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2010</v>
       </c>
@@ -3205,204 +3185,204 @@
         <v>2634722212.456336</v>
       </c>
       <c r="C14" s="4">
-        <v>4.585485732274575</v>
+        <v>4.5854857322745746</v>
       </c>
       <c r="D14" s="4">
-        <v>0.1235395891153896</v>
+        <v>0.12353958911538961</v>
       </c>
       <c r="E14" s="4">
-        <v>4107.520553189053</v>
+        <v>4107.5205531890533</v>
       </c>
       <c r="F14" s="4">
         <v>14.36723781554581</v>
       </c>
       <c r="G14" s="4">
-        <v>0.915637349717223</v>
+        <v>0.91563734971722299</v>
       </c>
       <c r="H14" s="4">
-        <v>5.423268248541272</v>
+        <v>5.4232682485412722</v>
       </c>
       <c r="I14" s="4">
-        <v>0.6035604888077105</v>
+        <v>0.60356048880771052</v>
       </c>
       <c r="J14" s="4">
-        <v>1304028.251338676</v>
+        <v>1304028.2513386761</v>
       </c>
       <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
       <c r="L14" s="4">
-        <v>23.65564828765022</v>
+        <v>23.655648287650219</v>
       </c>
       <c r="M14" s="4">
-        <v>38758.05150237409</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>38758.051502374088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2011</v>
       </c>
       <c r="B15" s="4">
-        <v>1672751028.525597</v>
+        <v>1672751028.5255971</v>
       </c>
       <c r="C15" s="4">
-        <v>5.269317561011592</v>
+        <v>5.2693175610115919</v>
       </c>
       <c r="D15" s="4">
-        <v>0.2109549595151088</v>
+        <v>0.21095495951510879</v>
       </c>
       <c r="E15" s="4">
-        <v>4263.753125767871</v>
+        <v>4263.7531257678711</v>
       </c>
       <c r="F15" s="4">
         <v>13.16868762849842</v>
       </c>
       <c r="G15" s="4">
-        <v>0.8965230660921905</v>
+        <v>0.89652306609219046</v>
       </c>
       <c r="H15" s="4">
-        <v>4.953011187537244</v>
+        <v>4.9530111875372436</v>
       </c>
       <c r="I15" s="4">
-        <v>0.6159580460667824</v>
+        <v>0.61595804606678239</v>
       </c>
       <c r="J15" s="4">
-        <v>1133616.141717878</v>
+        <v>1133616.1417178779</v>
       </c>
       <c r="K15" s="4">
-        <v>934.563</v>
+        <v>934.56299999999999</v>
       </c>
       <c r="L15" s="4">
-        <v>33.84686315509728</v>
+        <v>33.846863155097282</v>
       </c>
       <c r="M15" s="4">
         <v>38693.47699857151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2012</v>
       </c>
       <c r="B16" s="4">
-        <v>769366628.6581867</v>
+        <v>769366628.65818667</v>
       </c>
       <c r="C16" s="4">
-        <v>4.9426654820563</v>
+        <v>4.9426654820562996</v>
       </c>
       <c r="D16" s="4">
-        <v>0.6285278763164324</v>
+        <v>0.62852787631643237</v>
       </c>
       <c r="E16" s="4">
-        <v>5573.230988772068</v>
+        <v>5573.2309887720676</v>
       </c>
       <c r="F16" s="4">
         <v>13.07458354681699</v>
       </c>
       <c r="G16" s="4">
-        <v>0.9195065404939854</v>
+        <v>0.91950654049398539</v>
       </c>
       <c r="H16" s="4">
-        <v>6.360261248767669</v>
+        <v>6.3602612487676691</v>
       </c>
       <c r="I16" s="4">
-        <v>0.646171773801841</v>
+        <v>0.64617177380184099</v>
       </c>
       <c r="J16" s="4">
-        <v>774339.9610572258</v>
+        <v>774339.96105722582</v>
       </c>
       <c r="K16" s="4">
-        <v>882.508</v>
+        <v>882.50800000000004</v>
       </c>
       <c r="L16" s="4">
-        <v>45.496729812391</v>
+        <v>45.496729812391003</v>
       </c>
       <c r="M16" s="4">
-        <v>42169.49526781171</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>42169.495267811712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2013</v>
       </c>
       <c r="B17" s="4">
-        <v>308014359.1999328</v>
+        <v>308014359.19993281</v>
       </c>
       <c r="C17" s="4">
-        <v>5.448667112102966</v>
+        <v>5.4486671121029664</v>
       </c>
       <c r="D17" s="4">
         <v>2.568136032951347</v>
       </c>
       <c r="E17" s="4">
-        <v>3588.046766699232</v>
+        <v>3588.0467666992322</v>
       </c>
       <c r="F17" s="4">
         <v>11.6190450767567</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9602626481108519</v>
+        <v>0.96026264811085194</v>
       </c>
       <c r="H17" s="4">
         <v>3.687177056873097</v>
       </c>
       <c r="I17" s="4">
-        <v>0.6176285846472988</v>
+        <v>0.61762858464729875</v>
       </c>
       <c r="J17" s="4">
-        <v>551325.2835030393</v>
+        <v>551325.28350303927</v>
       </c>
       <c r="K17" s="4">
-        <v>887.254</v>
+        <v>887.25400000000002</v>
       </c>
       <c r="L17" s="4">
-        <v>158.6382403298578</v>
+        <v>158.63824032985781</v>
       </c>
       <c r="M17" s="4">
-        <v>35399.28779517193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>35399.287795171927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
       <c r="B18" s="4">
-        <v>4094217722.324664</v>
+        <v>4094217722.3246641</v>
       </c>
       <c r="C18" s="4">
-        <v>5.313157794866777</v>
+        <v>5.3131577948667772</v>
       </c>
       <c r="D18" s="4">
         <v>1.38023538824176</v>
       </c>
       <c r="E18" s="4">
-        <v>2385.768003445418</v>
+        <v>2385.7680034454179</v>
       </c>
       <c r="F18" s="4">
-        <v>14.18972691264718</v>
+        <v>14.189726912647179</v>
       </c>
       <c r="G18" s="4">
-        <v>0.9344154392072506</v>
+        <v>0.93441543920725056</v>
       </c>
       <c r="H18" s="4">
         <v>3.912347762829961</v>
       </c>
       <c r="I18" s="4">
-        <v>0.564016494476701</v>
+        <v>0.56401649447670099</v>
       </c>
       <c r="J18" s="4">
-        <v>1645903.216785797</v>
+        <v>1645903.2167857969</v>
       </c>
       <c r="K18" s="4">
-        <v>900.387</v>
+        <v>900.38699999999994</v>
       </c>
       <c r="L18" s="4">
         <v>109.6054102443197</v>
       </c>
       <c r="M18" s="4">
-        <v>31609.32081946239</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>31609.320819462391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
@@ -3413,7 +3393,7 @@
         <v>5.090769854087009</v>
       </c>
       <c r="D19" s="4">
-        <v>2.886793839715874</v>
+        <v>2.8867938397158741</v>
       </c>
       <c r="E19" s="4">
         <v>2863.716152099581</v>
@@ -3422,28 +3402,28 @@
         <v>13.8354911063256</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9027012943672187</v>
+        <v>0.90270129436721869</v>
       </c>
       <c r="H19" s="4">
-        <v>4.269120813317423</v>
+        <v>4.2691208133174232</v>
       </c>
       <c r="I19" s="4">
-        <v>0.6019004364745617</v>
+        <v>0.60190043647456171</v>
       </c>
       <c r="J19" s="4">
         <v>1472884.863551907</v>
       </c>
       <c r="K19" s="4">
-        <v>912.306</v>
+        <v>912.30600000000004</v>
       </c>
       <c r="L19" s="4">
-        <v>145.2654400913029</v>
+        <v>145.26544009130291</v>
       </c>
       <c r="M19" s="4">
-        <v>32451.3815508492</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>32451.381550849201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2016</v>
       </c>
@@ -3451,54 +3431,54 @@
         <v>1952895461.527488</v>
       </c>
       <c r="C20" s="4">
-        <v>5.060059289823874</v>
+        <v>5.0600592898238741</v>
       </c>
       <c r="D20" s="4">
         <v>1.0962847223848</v>
       </c>
       <c r="E20" s="4">
-        <v>2302.613269334474</v>
+        <v>2302.6132693344739</v>
       </c>
       <c r="F20" s="4">
-        <v>14.67329159364344</v>
+        <v>14.673291593643439</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9363686109652082</v>
+        <v>0.93636861096520818</v>
       </c>
       <c r="H20" s="4">
-        <v>3.361162796699406</v>
+        <v>3.3611627966994062</v>
       </c>
       <c r="I20" s="4">
-        <v>0.6276006838810786</v>
+        <v>0.62760068388107859</v>
       </c>
       <c r="J20" s="4">
-        <v>1099271.11003542</v>
+        <v>1099271.1100354199</v>
       </c>
       <c r="K20" s="4">
-        <v>876.847</v>
+        <v>876.84699999999998</v>
       </c>
       <c r="L20" s="4">
-        <v>113.70118672335</v>
+        <v>113.70118672335001</v>
       </c>
       <c r="M20" s="4">
-        <v>27907.43730958288</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>27907.437309582881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
       <c r="B21" s="4">
-        <v>3408274776.374233</v>
+        <v>3408274776.3742328</v>
       </c>
       <c r="C21" s="4">
-        <v>5.6695298584224</v>
+        <v>5.6695298584223996</v>
       </c>
       <c r="D21" s="4">
-        <v>0.528077429473061</v>
+        <v>0.52807742947306102</v>
       </c>
       <c r="E21" s="4">
-        <v>4225.696951622084</v>
+        <v>4225.6969516220843</v>
       </c>
       <c r="F21" s="4">
         <v>14.10690329274102</v>
@@ -3507,10 +3487,10 @@
         <v>0.9137673581108009</v>
       </c>
       <c r="H21" s="4">
-        <v>5.042137915765675</v>
+        <v>5.0421379157656752</v>
       </c>
       <c r="I21" s="4">
-        <v>0.677756217074341</v>
+        <v>0.67775621707434097</v>
       </c>
       <c r="J21" s="4">
         <v>1510526.941124208</v>
@@ -3522,51 +3502,51 @@
         <v>52.60499052567301</v>
       </c>
       <c r="M21" s="4">
-        <v>35008.09899972234</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>35008.098999722337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2018</v>
       </c>
       <c r="B22" s="4">
-        <v>2865373141.99584</v>
+        <v>2865373141.9958401</v>
       </c>
       <c r="C22" s="4">
-        <v>4.741563831807918</v>
+        <v>4.7415638318079179</v>
       </c>
       <c r="D22" s="4">
-        <v>1.553495354311461</v>
+        <v>1.5534953543114609</v>
       </c>
       <c r="E22" s="4">
-        <v>3145.388960869767</v>
+        <v>3145.3889608697668</v>
       </c>
       <c r="F22" s="4">
         <v>13.98164253311681</v>
       </c>
       <c r="G22" s="4">
-        <v>0.9546412806047563</v>
+        <v>0.95464128060475628</v>
       </c>
       <c r="H22" s="4">
-        <v>6.116591326443189</v>
+        <v>6.1165913264431886</v>
       </c>
       <c r="I22" s="4">
-        <v>0.6449945780054255</v>
+        <v>0.64499457800542548</v>
       </c>
       <c r="J22" s="4">
-        <v>1397414.556822444</v>
+        <v>1397414.5568224441</v>
       </c>
       <c r="K22" s="4">
-        <v>832.556</v>
+        <v>832.55600000000004</v>
       </c>
       <c r="L22" s="4">
-        <v>74.37695243283368</v>
+        <v>74.376952432833676</v>
       </c>
       <c r="M22" s="4">
         <v>31737.59250555807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -3574,69 +3554,69 @@
         <v>1144481747.367269</v>
       </c>
       <c r="C23" s="4">
-        <v>5.132679222896282</v>
+        <v>5.1326792228962823</v>
       </c>
       <c r="D23" s="4">
         <v>11.07378631831269</v>
       </c>
       <c r="E23" s="4">
-        <v>2867.324717266768</v>
+        <v>2867.3247172667679</v>
       </c>
       <c r="F23" s="4">
-        <v>12.04000187792536</v>
+        <v>12.040001877925359</v>
       </c>
       <c r="G23" s="4">
-        <v>0.9391555700336812</v>
+        <v>0.93915557003368122</v>
       </c>
       <c r="H23" s="4">
         <v>3.09217015305618</v>
       </c>
       <c r="I23" s="4">
-        <v>0.6838034733012578</v>
+        <v>0.68380347330125779</v>
       </c>
       <c r="J23" s="4">
         <v>1025582.838912287</v>
       </c>
       <c r="K23" s="4">
-        <v>880.496</v>
+        <v>880.49599999999998</v>
       </c>
       <c r="L23" s="4">
-        <v>392.8054909906421</v>
+        <v>392.80549099064211</v>
       </c>
       <c r="M23" s="4">
-        <v>28582.48612113619</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>28582.486121136189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2020</v>
       </c>
       <c r="B24" s="4">
-        <v>1363565008.538139</v>
+        <v>1363565008.5381391</v>
       </c>
       <c r="C24" s="4">
-        <v>5.290498737121782</v>
+        <v>5.2904987371217818</v>
       </c>
       <c r="D24" s="4">
-        <v>2.241793638573851</v>
+        <v>2.2417936385738511</v>
       </c>
       <c r="E24" s="4">
         <v>4714.659704046745</v>
       </c>
       <c r="F24" s="4">
-        <v>12.4007121745474</v>
+        <v>12.400712174547399</v>
       </c>
       <c r="G24" s="4">
-        <v>0.9153747056368959</v>
+        <v>0.91537470563689594</v>
       </c>
       <c r="H24" s="4">
-        <v>3.321055223482863</v>
+        <v>3.3210552234828632</v>
       </c>
       <c r="I24" s="4">
-        <v>0.7079825876766673</v>
+        <v>0.70798258767666733</v>
       </c>
       <c r="J24" s="4">
-        <v>1086886.416055174</v>
+        <v>1086886.4160551741</v>
       </c>
       <c r="K24" s="4">
         <v>917.154</v>
@@ -3645,27 +3625,27 @@
         <v>164.5563263854981</v>
       </c>
       <c r="M24" s="4">
-        <v>35399.36434322075</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>35399.364343220746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2021</v>
       </c>
       <c r="B25" s="4">
-        <v>807589209.9885542</v>
+        <v>807589209.98855424</v>
       </c>
       <c r="C25" s="4">
-        <v>4.692852742992623</v>
+        <v>4.6928527429926232</v>
       </c>
       <c r="D25" s="4">
-        <v>1.568863930787055</v>
+        <v>1.5688639307870551</v>
       </c>
       <c r="E25" s="4">
         <v>4384.055912886939</v>
       </c>
       <c r="F25" s="4">
-        <v>11.60789291708159</v>
+        <v>11.607892917081591</v>
       </c>
       <c r="G25" s="4">
         <v>0.9227320593728493</v>
@@ -3674,60 +3654,60 @@
         <v>4.173010075844048</v>
       </c>
       <c r="I25" s="4">
-        <v>0.6411475225193591</v>
+        <v>0.64114752251935914</v>
       </c>
       <c r="J25" s="4">
-        <v>893582.6447520612</v>
+        <v>893582.64475206123</v>
       </c>
       <c r="K25" s="4">
-        <v>856.9110000000001</v>
+        <v>856.91100000000006</v>
       </c>
       <c r="L25" s="4">
         <v>109.5559755276112</v>
       </c>
       <c r="M25" s="4">
-        <v>37694.06179596334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>37694.061795963338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2022</v>
       </c>
       <c r="B26" s="4">
-        <v>6284845728.665865</v>
+        <v>6284845728.6658649</v>
       </c>
       <c r="C26" s="4">
-        <v>5.281167338822821</v>
+        <v>5.2811673388228213</v>
       </c>
       <c r="D26" s="4">
         <v>2.375309988969315</v>
       </c>
       <c r="E26" s="4">
-        <v>3258.083744456627</v>
+        <v>3258.0837444566268</v>
       </c>
       <c r="F26" s="4">
-        <v>14.49446560603399</v>
+        <v>14.494465606033989</v>
       </c>
       <c r="G26" s="4">
-        <v>0.8717437962903186</v>
+        <v>0.87174379629031862</v>
       </c>
       <c r="H26" s="4">
-        <v>3.808918702650255</v>
+        <v>3.8089187026502551</v>
       </c>
       <c r="I26" s="4">
-        <v>0.6366620572372119</v>
+        <v>0.63666205723721192</v>
       </c>
       <c r="J26" s="4">
-        <v>1996355.898305657</v>
+        <v>1996355.8983056571</v>
       </c>
       <c r="K26" s="4">
-        <v>962.208</v>
+        <v>962.20799999999997</v>
       </c>
       <c r="L26" s="4">
         <v>147.6900742415605</v>
       </c>
       <c r="M26" s="4">
-        <v>32723.89705270311</v>
+        <v>32723.897052703109</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3744,24 +3724,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3802,156 +3771,156 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1998</v>
       </c>
       <c r="B2" s="4">
-        <v>4.000547394715827</v>
+        <v>4.0005473947158272</v>
       </c>
       <c r="C2" s="4">
-        <v>4.817145777480054</v>
+        <v>4.8171457774800537</v>
       </c>
       <c r="D2" s="4">
         <v>129.5981458186593</v>
       </c>
       <c r="E2" s="4">
-        <v>3345.628245795029</v>
+        <v>3345.6282457950292</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5046598372452182</v>
+        <v>0.50465983724521823</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9160548728493352</v>
+        <v>0.91605487284933518</v>
       </c>
       <c r="H2" s="4">
-        <v>1.390747986737069</v>
+        <v>1.3907479867370689</v>
       </c>
       <c r="I2" s="4">
-        <v>0.9488186795267071</v>
+        <v>0.94881867952670707</v>
       </c>
       <c r="J2" s="4">
         <v>1446.617888287213</v>
       </c>
       <c r="K2" s="4">
-        <v>874.5129999999999</v>
+        <v>874.51299999999992</v>
       </c>
       <c r="L2" s="4">
         <v>2987.746997023894</v>
       </c>
       <c r="M2" s="4">
-        <v>22250.9459798945</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>22250.945979894499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1999</v>
       </c>
       <c r="B3" s="4">
-        <v>3.445797612617359</v>
+        <v>3.4457976126173588</v>
       </c>
       <c r="C3" s="4">
-        <v>5.183040375884389</v>
+        <v>5.1830403758843886</v>
       </c>
       <c r="D3" s="4">
-        <v>138.9730600066001</v>
+        <v>138.97306000660009</v>
       </c>
       <c r="E3" s="4">
-        <v>3559.027173128837</v>
+        <v>3559.0271731288371</v>
       </c>
       <c r="F3" s="4">
-        <v>0.4524519624395796</v>
+        <v>0.45245196243957958</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9472276300831177</v>
+        <v>0.94722763008311772</v>
       </c>
       <c r="H3" s="4">
-        <v>1.596034253395528</v>
+        <v>1.5960342533955281</v>
       </c>
       <c r="I3" s="4">
-        <v>0.90034448183251</v>
+        <v>0.90034448183251004</v>
       </c>
       <c r="J3" s="4">
         <v>1497.494621085089</v>
       </c>
       <c r="K3" s="4">
-        <v>877.2649999999999</v>
+        <v>877.26499999999987</v>
       </c>
       <c r="L3" s="4">
-        <v>2695.975659133428</v>
+        <v>2695.9756591334281</v>
       </c>
       <c r="M3" s="4">
-        <v>24185.20702177967</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>24185.207021779672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2000</v>
       </c>
       <c r="B4" s="4">
-        <v>3.714908057419038</v>
+        <v>3.7149080574190378</v>
       </c>
       <c r="C4" s="4">
-        <v>5.038316116769532</v>
+        <v>5.0383161167695318</v>
       </c>
       <c r="D4" s="4">
         <v>121.446387666033</v>
       </c>
       <c r="E4" s="4">
-        <v>4323.347077693378</v>
+        <v>4323.3470776933782</v>
       </c>
       <c r="F4" s="4">
-        <v>0.4828929020704463</v>
+        <v>0.48289290207044627</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9023033963858765</v>
+        <v>0.90230339638587653</v>
       </c>
       <c r="H4" s="4">
         <v>1.428748734816996</v>
       </c>
       <c r="I4" s="4">
-        <v>0.9361816914328777</v>
+        <v>0.93618169143287766</v>
       </c>
       <c r="J4" s="4">
-        <v>1456.85415660669</v>
+        <v>1456.8541566066899</v>
       </c>
       <c r="K4" s="4">
-        <v>907.9939999999999</v>
+        <v>907.99399999999991</v>
       </c>
       <c r="L4" s="4">
         <v>2815.329988602864</v>
       </c>
       <c r="M4" s="4">
-        <v>25635.55781861692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>25635.557818616919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2001</v>
       </c>
       <c r="B5" s="4">
-        <v>3.684928369777788</v>
+        <v>3.6849283697777881</v>
       </c>
       <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
       <c r="D5" s="4">
-        <v>200.8054079471254</v>
+        <v>200.80540794712539</v>
       </c>
       <c r="E5" s="4">
-        <v>3844.036668888113</v>
+        <v>3844.0366688881131</v>
       </c>
       <c r="F5" s="4">
-        <v>0.4703172045124638</v>
+        <v>0.47031720451246378</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8897713584292684</v>
+        <v>0.88977135842926836</v>
       </c>
       <c r="H5" s="4">
-        <v>1.689626288308879</v>
+        <v>1.6896262883088791</v>
       </c>
       <c r="I5" s="4">
-        <v>0.9210298526651632</v>
+        <v>0.92102985266516324</v>
       </c>
       <c r="J5" s="4">
         <v>1489.760735511788</v>
@@ -3966,27 +3935,27 @@
         <v>24570.43913495836</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
       <c r="B6" s="4">
-        <v>3.57912007275068</v>
+        <v>3.5791200727506798</v>
       </c>
       <c r="C6" s="4">
-        <v>4.900170806834261</v>
+        <v>4.9001708068342609</v>
       </c>
       <c r="D6" s="4">
-        <v>162.2731482068037</v>
+        <v>162.27314820680371</v>
       </c>
       <c r="E6" s="4">
         <v>3229.201569867475</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4649301492968235</v>
+        <v>0.46493014929682352</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9491329791632978</v>
+        <v>0.94913297916329775</v>
       </c>
       <c r="H6" s="4">
         <v>1.575282012959532</v>
@@ -3998,98 +3967,98 @@
         <v>1485.228549913714</v>
       </c>
       <c r="K6" s="4">
-        <v>851.278</v>
+        <v>851.27800000000002</v>
       </c>
       <c r="L6" s="4">
-        <v>2951.602579710457</v>
+        <v>2951.6025797104571</v>
       </c>
       <c r="M6" s="4">
         <v>25369.12124000533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2003</v>
       </c>
       <c r="B7" s="4">
-        <v>3.943718210358451</v>
+        <v>3.9437182103584512</v>
       </c>
       <c r="C7" s="4">
-        <v>5.104784588258316</v>
+        <v>5.1047845882583163</v>
       </c>
       <c r="D7" s="4">
-        <v>140.7657896585584</v>
+        <v>140.76578965855839</v>
       </c>
       <c r="E7" s="4">
-        <v>4201.457729796158</v>
+        <v>4201.4577297961578</v>
       </c>
       <c r="F7" s="4">
         <v>0.490323867278527</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9062057628274756</v>
+        <v>0.90620576282747556</v>
       </c>
       <c r="H7" s="4">
-        <v>1.504288030943476</v>
+        <v>1.5042880309434761</v>
       </c>
       <c r="I7" s="4">
-        <v>0.9071913069679161</v>
+        <v>0.90719130696791606</v>
       </c>
       <c r="J7" s="4">
-        <v>1478.300652687211</v>
+        <v>1478.3006526872109</v>
       </c>
       <c r="K7" s="4">
-        <v>910.028</v>
+        <v>910.02800000000002</v>
       </c>
       <c r="L7" s="4">
-        <v>2878.792913365752</v>
+        <v>2878.7929133657522</v>
       </c>
       <c r="M7" s="4">
-        <v>26079.18311289533</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>26079.183112895331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2004</v>
       </c>
       <c r="B8" s="4">
-        <v>4.094057445139582</v>
+        <v>4.0940574451395824</v>
       </c>
       <c r="C8" s="4">
-        <v>5.052474334984193</v>
+        <v>5.0524743349841934</v>
       </c>
       <c r="D8" s="4">
-        <v>99.64915609284107</v>
+        <v>99.649156092841068</v>
       </c>
       <c r="E8" s="4">
         <v>3804.703783565807</v>
       </c>
       <c r="F8" s="4">
-        <v>0.5321283946066915</v>
+        <v>0.53212839460669148</v>
       </c>
       <c r="G8" s="4">
-        <v>0.8961983216846947</v>
+        <v>0.89619832168469471</v>
       </c>
       <c r="H8" s="4">
-        <v>1.553649214863232</v>
+        <v>1.5536492148632319</v>
       </c>
       <c r="I8" s="4">
-        <v>0.9019578165260678</v>
+        <v>0.90195781652606777</v>
       </c>
       <c r="J8" s="4">
         <v>1387.884727738274</v>
       </c>
       <c r="K8" s="4">
-        <v>915.463</v>
+        <v>915.46299999999997</v>
       </c>
       <c r="L8" s="4">
-        <v>2345.182836586689</v>
+        <v>2345.1828365866891</v>
       </c>
       <c r="M8" s="4">
-        <v>24961.29213066941</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>24961.292130669412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2005</v>
       </c>
@@ -4097,16 +4066,16 @@
         <v>3.921612279106915</v>
       </c>
       <c r="C9" s="4">
-        <v>4.710681830528375</v>
+        <v>4.7106818305283751</v>
       </c>
       <c r="D9" s="4">
-        <v>206.1789650453101</v>
+        <v>206.17896504531009</v>
       </c>
       <c r="E9" s="4">
-        <v>3858.040868418348</v>
+        <v>3858.0408684183481</v>
       </c>
       <c r="F9" s="4">
-        <v>0.5137451329572849</v>
+        <v>0.51374513295728486</v>
       </c>
       <c r="G9" s="4">
         <v>0.9137611396956602</v>
@@ -4115,22 +4084,22 @@
         <v>1.49681200618595</v>
       </c>
       <c r="I9" s="4">
-        <v>0.9402966411949334</v>
+        <v>0.94029664119493339</v>
       </c>
       <c r="J9" s="4">
-        <v>1406.946135040898</v>
+        <v>1406.9461350408981</v>
       </c>
       <c r="K9" s="4">
-        <v>866.966</v>
+        <v>866.96600000000001</v>
       </c>
       <c r="L9" s="4">
         <v>3501.448830504532</v>
       </c>
       <c r="M9" s="4">
-        <v>24110.78728766156</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>24110.787287661558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2006</v>
       </c>
@@ -4138,86 +4107,86 @@
         <v>4.246777931811768</v>
       </c>
       <c r="C10" s="4">
-        <v>4.931752996643083</v>
+        <v>4.9317529966430831</v>
       </c>
       <c r="D10" s="4">
         <v>223.4146475293802</v>
       </c>
       <c r="E10" s="4">
-        <v>3047.056796570431</v>
+        <v>3047.0567965704308</v>
       </c>
       <c r="F10" s="4">
-        <v>0.5373630258449957</v>
+        <v>0.53736302584499573</v>
       </c>
       <c r="G10" s="4">
-        <v>0.8991000893174085</v>
+        <v>0.89910008931740848</v>
       </c>
       <c r="H10" s="4">
-        <v>1.579295195332152</v>
+        <v>1.5792951953321519</v>
       </c>
       <c r="I10" s="4">
-        <v>0.8688964774643902</v>
+        <v>0.86889647746439025</v>
       </c>
       <c r="J10" s="4">
-        <v>1399.764128175383</v>
+        <v>1399.7641281753829</v>
       </c>
       <c r="K10" s="4">
-        <v>901.541</v>
+        <v>901.54100000000005</v>
       </c>
       <c r="L10" s="4">
         <v>3454.501390347807</v>
       </c>
       <c r="M10" s="4">
-        <v>23188.09668887022</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>23188.096688870221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2007</v>
       </c>
       <c r="B11" s="4">
-        <v>4.461098249060022</v>
+        <v>4.4610982490600222</v>
       </c>
       <c r="C11" s="4">
-        <v>5.372029326915549</v>
+        <v>5.3720293269155492</v>
       </c>
       <c r="D11" s="4">
         <v>213.332067571474</v>
       </c>
       <c r="E11" s="4">
-        <v>4482.647716523151</v>
+        <v>4482.6477165231508</v>
       </c>
       <c r="F11" s="4">
-        <v>0.5391198239903534</v>
+        <v>0.53911982399035341</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9337528423440373</v>
+        <v>0.93375284234403733</v>
       </c>
       <c r="H11" s="4">
         <v>1.474058907753947</v>
       </c>
       <c r="I11" s="4">
-        <v>0.9760139563901239</v>
+        <v>0.97601395639012389</v>
       </c>
       <c r="J11" s="4">
         <v>1429.975039710765</v>
       </c>
       <c r="K11" s="4">
-        <v>906.004</v>
+        <v>906.00400000000002</v>
       </c>
       <c r="L11" s="4">
         <v>3616.646785771336</v>
       </c>
       <c r="M11" s="4">
-        <v>25038.2598043144</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>25038.259804314399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2008</v>
       </c>
       <c r="B12" s="4">
-        <v>4.360593088971775</v>
+        <v>4.3605930889717754</v>
       </c>
       <c r="C12" s="4">
         <v>5.102246183381002</v>
@@ -4232,77 +4201,77 @@
         <v>0.5247439408407083</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9117180608121523</v>
+        <v>0.91171806081215234</v>
       </c>
       <c r="H12" s="4">
         <v>1.543234055700855</v>
       </c>
       <c r="I12" s="4">
-        <v>0.9079055483026234</v>
+        <v>0.90790554830262338</v>
       </c>
       <c r="J12" s="4">
-        <v>1452.506929609271</v>
+        <v>1452.5069296092711</v>
       </c>
       <c r="K12" s="4">
-        <v>904.3009999999999</v>
+        <v>904.30099999999993</v>
       </c>
       <c r="L12" s="4">
         <v>2617.808372783014</v>
       </c>
       <c r="M12" s="4">
-        <v>27476.49828564801</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>27476.498285648009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2009</v>
       </c>
       <c r="B13" s="4">
-        <v>4.233652967487193</v>
+        <v>4.2336529674871928</v>
       </c>
       <c r="C13" s="4">
-        <v>5.022203393120577</v>
+        <v>5.0222033931205772</v>
       </c>
       <c r="D13" s="4">
         <v>103.8624811024892</v>
       </c>
       <c r="E13" s="4">
-        <v>4401.817583312705</v>
+        <v>4401.8175833127052</v>
       </c>
       <c r="F13" s="4">
-        <v>0.5298027363066177</v>
+        <v>0.52980273630661767</v>
       </c>
       <c r="G13" s="4">
-        <v>0.8532304494205779</v>
+        <v>0.85323044942057791</v>
       </c>
       <c r="H13" s="4">
-        <v>1.535058947790419</v>
+        <v>1.5350589477904191</v>
       </c>
       <c r="I13" s="4">
-        <v>0.9197884688946594</v>
+        <v>0.91978846889465937</v>
       </c>
       <c r="J13" s="4">
-        <v>1417.543175418154</v>
+        <v>1417.5431754181541</v>
       </c>
       <c r="K13" s="4">
-        <v>958.6800000000001</v>
+        <v>958.68000000000006</v>
       </c>
       <c r="L13" s="4">
-        <v>2423.244041139828</v>
+        <v>2423.2440411398279</v>
       </c>
       <c r="M13" s="4">
-        <v>26328.18520003458</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>26328.185200034579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2010</v>
       </c>
       <c r="B14" s="4">
-        <v>3.970269673330658</v>
+        <v>3.9702696733306579</v>
       </c>
       <c r="C14" s="4">
-        <v>4.585485732274575</v>
+        <v>4.5854857322745746</v>
       </c>
       <c r="D14" s="4">
         <v>161.0259327515555</v>
@@ -4314,28 +4283,28 @@
         <v>0.5066576355115151</v>
       </c>
       <c r="G14" s="4">
-        <v>0.915637349717223</v>
+        <v>0.91563734971722299</v>
       </c>
       <c r="H14" s="4">
         <v>1.516294798954074</v>
       </c>
       <c r="I14" s="4">
-        <v>0.9857105606476594</v>
+        <v>0.98571056064765938</v>
       </c>
       <c r="J14" s="4">
-        <v>1435.45068098628</v>
+        <v>1435.4506809862801</v>
       </c>
       <c r="K14" s="4">
         <v>853.6149999999999</v>
       </c>
       <c r="L14" s="4">
-        <v>3054.619577665814</v>
+        <v>3054.6195776658142</v>
       </c>
       <c r="M14" s="4">
-        <v>25707.35620367154</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>25707.356203671541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2011</v>
       </c>
@@ -4343,256 +4312,256 @@
         <v>3.634993316082562</v>
       </c>
       <c r="C15" s="4">
-        <v>5.269317561011592</v>
+        <v>5.2693175610115919</v>
       </c>
       <c r="D15" s="4">
         <v>185.3721130248525</v>
       </c>
       <c r="E15" s="4">
-        <v>4163.885063934154</v>
+        <v>4163.8850639341535</v>
       </c>
       <c r="F15" s="4">
-        <v>0.49779902423537</v>
+        <v>0.49779902423536998</v>
       </c>
       <c r="G15" s="4">
-        <v>0.8965230660921905</v>
+        <v>0.89652306609219046</v>
       </c>
       <c r="H15" s="4">
         <v>1.674298056107683</v>
       </c>
       <c r="I15" s="4">
-        <v>0.912924472035126</v>
+        <v>0.91292447203512594</v>
       </c>
       <c r="J15" s="4">
-        <v>1397.946759724009</v>
+        <v>1397.9467597240091</v>
       </c>
       <c r="K15" s="4">
-        <v>934.563</v>
+        <v>934.56299999999999</v>
       </c>
       <c r="L15" s="4">
-        <v>2968.125715717079</v>
+        <v>2968.1257157170789</v>
       </c>
       <c r="M15" s="4">
         <v>25799.26788486712</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2012</v>
       </c>
       <c r="B16" s="4">
-        <v>4.006996356805822</v>
+        <v>4.0069963568058222</v>
       </c>
       <c r="C16" s="4">
-        <v>4.9426654820563</v>
+        <v>4.9426654820562996</v>
       </c>
       <c r="D16" s="4">
         <v>175.8151523831331</v>
       </c>
       <c r="E16" s="4">
-        <v>3222.239484994696</v>
+        <v>3222.2394849946959</v>
       </c>
       <c r="F16" s="4">
-        <v>0.5096673147770265</v>
+        <v>0.50966731477702654</v>
       </c>
       <c r="G16" s="4">
-        <v>0.9195065404939854</v>
+        <v>0.91950654049398539</v>
       </c>
       <c r="H16" s="4">
         <v>1.466059282888865</v>
       </c>
       <c r="I16" s="4">
-        <v>0.9212604446856856</v>
+        <v>0.92126044468568558</v>
       </c>
       <c r="J16" s="4">
-        <v>1433.558946113183</v>
+        <v>1433.5589461131831</v>
       </c>
       <c r="K16" s="4">
-        <v>882.508</v>
+        <v>882.50800000000004</v>
       </c>
       <c r="L16" s="4">
-        <v>3301.182110740223</v>
+        <v>3301.1821107402229</v>
       </c>
       <c r="M16" s="4">
-        <v>22489.99440386106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>22489.994403861059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2013</v>
       </c>
       <c r="B17" s="4">
-        <v>3.787124156515514</v>
+        <v>3.7871241565155138</v>
       </c>
       <c r="C17" s="4">
-        <v>5.448667112102966</v>
+        <v>5.4486671121029664</v>
       </c>
       <c r="D17" s="4">
         <v>185.3413720232717</v>
       </c>
       <c r="E17" s="4">
-        <v>4692.763027277824</v>
+        <v>4692.7630272778242</v>
       </c>
       <c r="F17" s="4">
         <v>0.5080627954089334</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9602626481108519</v>
+        <v>0.96026264811085194</v>
       </c>
       <c r="H17" s="4">
-        <v>1.72235260550873</v>
+        <v>1.7223526055087299</v>
       </c>
       <c r="I17" s="4">
         <v>0.898174028090442</v>
       </c>
       <c r="J17" s="4">
-        <v>1398.074268592636</v>
+        <v>1398.0742685926359</v>
       </c>
       <c r="K17" s="4">
-        <v>887.254</v>
+        <v>887.25400000000002</v>
       </c>
       <c r="L17" s="4">
-        <v>2885.074185631851</v>
+        <v>2885.0741856318509</v>
       </c>
       <c r="M17" s="4">
-        <v>27838.55467330785</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>27838.554673307852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
       <c r="B18" s="4">
-        <v>3.848861220703304</v>
+        <v>3.8488612207033039</v>
       </c>
       <c r="C18" s="4">
-        <v>5.313157794866777</v>
+        <v>5.3131577948667772</v>
       </c>
       <c r="D18" s="4">
         <v>102.5128505144468</v>
       </c>
       <c r="E18" s="4">
-        <v>5451.604886784962</v>
+        <v>5451.6048867849622</v>
       </c>
       <c r="F18" s="4">
-        <v>0.5017407411741874</v>
+        <v>0.50174074117418743</v>
       </c>
       <c r="G18" s="4">
-        <v>0.9344154392072506</v>
+        <v>0.93441543920725056</v>
       </c>
       <c r="H18" s="4">
-        <v>1.533376400914033</v>
+        <v>1.5333764009140329</v>
       </c>
       <c r="I18" s="4">
-        <v>0.9309350378786564</v>
+        <v>0.93093503787865639</v>
       </c>
       <c r="J18" s="4">
         <v>1427.182866790205</v>
       </c>
       <c r="K18" s="4">
-        <v>900.387</v>
+        <v>900.38699999999994</v>
       </c>
       <c r="L18" s="4">
-        <v>2410.089908917965</v>
+        <v>2410.0899089179652</v>
       </c>
       <c r="M18" s="4">
-        <v>28949.14051358519</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>28949.140513585189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
       <c r="B19" s="4">
-        <v>4.280264627475034</v>
+        <v>4.2802646274750336</v>
       </c>
       <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
       <c r="D19" s="4">
-        <v>126.8465722803765</v>
+        <v>126.84657228037651</v>
       </c>
       <c r="E19" s="4">
-        <v>4015.604479226499</v>
+        <v>4015.6044792264988</v>
       </c>
       <c r="F19" s="4">
-        <v>0.5285116208539449</v>
+        <v>0.52851162085394487</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9027012943672187</v>
+        <v>0.90270129436721869</v>
       </c>
       <c r="H19" s="4">
-        <v>1.428248815083735</v>
+        <v>1.4282488150837349</v>
       </c>
       <c r="I19" s="4">
-        <v>0.9649073643021417</v>
+        <v>0.96490736430214175</v>
       </c>
       <c r="J19" s="4">
         <v>1428.807211556046</v>
       </c>
       <c r="K19" s="4">
-        <v>912.306</v>
+        <v>912.30600000000004</v>
       </c>
       <c r="L19" s="4">
-        <v>2878.248983856619</v>
+        <v>2878.2489838566189</v>
       </c>
       <c r="M19" s="4">
-        <v>23970.80993801372</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>23970.809938013721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2016</v>
       </c>
       <c r="B20" s="4">
-        <v>4.110341327357064</v>
+        <v>4.1103413273570641</v>
       </c>
       <c r="C20" s="4">
-        <v>5.060059289823874</v>
+        <v>5.0600592898238741</v>
       </c>
       <c r="D20" s="4">
         <v>136.9170484582435</v>
       </c>
       <c r="E20" s="4">
-        <v>3817.681534207198</v>
+        <v>3817.6815342071982</v>
       </c>
       <c r="F20" s="4">
-        <v>0.5408210672680698</v>
+        <v>0.54082106726806978</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9363686109652082</v>
+        <v>0.93636861096520818</v>
       </c>
       <c r="H20" s="4">
         <v>1.515883851954213</v>
       </c>
       <c r="I20" s="4">
-        <v>1.015539453473231</v>
+        <v>1.0155394534732309</v>
       </c>
       <c r="J20" s="4">
-        <v>1368.290171537759</v>
+        <v>1368.2901715377591</v>
       </c>
       <c r="K20" s="4">
-        <v>876.847</v>
+        <v>876.84699999999998</v>
       </c>
       <c r="L20" s="4">
         <v>2817.446655537969</v>
       </c>
       <c r="M20" s="4">
-        <v>22207.30783800522</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>22207.307838005221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
       <c r="B21" s="4">
-        <v>4.042985179311516</v>
+        <v>4.0429851793115157</v>
       </c>
       <c r="C21" s="4">
-        <v>5.6695298584224</v>
+        <v>5.6695298584223996</v>
       </c>
       <c r="D21" s="4">
-        <v>84.85841250470129</v>
+        <v>84.858412504701292</v>
       </c>
       <c r="E21" s="4">
         <v>3800.857306250758</v>
@@ -4604,10 +4573,10 @@
         <v>0.9137673581108009</v>
       </c>
       <c r="H21" s="4">
-        <v>1.471062795551808</v>
+        <v>1.4710627955518081</v>
       </c>
       <c r="I21" s="4">
-        <v>0.9648541744920066</v>
+        <v>0.96485417449200661</v>
       </c>
       <c r="J21" s="4">
         <v>1396.642094351892</v>
@@ -4616,54 +4585,54 @@
         <v>951.1099999999999</v>
       </c>
       <c r="L21" s="4">
-        <v>2285.646716133476</v>
+        <v>2285.6467161334758</v>
       </c>
       <c r="M21" s="4">
-        <v>23322.3316567994</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>23322.331656799401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2018</v>
       </c>
       <c r="B22" s="4">
-        <v>4.185556143775051</v>
+        <v>4.1855561437750506</v>
       </c>
       <c r="C22" s="4">
-        <v>4.741563831807918</v>
+        <v>4.7415638318079179</v>
       </c>
       <c r="D22" s="4">
-        <v>177.319864581662</v>
+        <v>177.31986458166199</v>
       </c>
       <c r="E22" s="4">
-        <v>4365.810480756531</v>
+        <v>4365.8104807565314</v>
       </c>
       <c r="F22" s="4">
-        <v>0.537104735867631</v>
+        <v>0.53710473586763097</v>
       </c>
       <c r="G22" s="4">
-        <v>0.9546412806047563</v>
+        <v>0.95464128060475628</v>
       </c>
       <c r="H22" s="4">
         <v>1.527999136466875</v>
       </c>
       <c r="I22" s="4">
-        <v>0.895886359268127</v>
+        <v>0.89588635926812699</v>
       </c>
       <c r="J22" s="4">
         <v>1390.30622923903</v>
       </c>
       <c r="K22" s="4">
-        <v>832.556</v>
+        <v>832.55600000000004</v>
       </c>
       <c r="L22" s="4">
-        <v>3180.88853754854</v>
+        <v>3180.8885375485402</v>
       </c>
       <c r="M22" s="4">
-        <v>26919.83415022164</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>26919.834150221639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -4671,66 +4640,66 @@
         <v>4.053911453332339</v>
       </c>
       <c r="C23" s="4">
-        <v>5.132679222896282</v>
+        <v>5.1326792228962823</v>
       </c>
       <c r="D23" s="4">
-        <v>132.2785495203863</v>
+        <v>132.27854952038629</v>
       </c>
       <c r="E23" s="4">
-        <v>4741.578470492909</v>
+        <v>4741.5784704929092</v>
       </c>
       <c r="F23" s="4">
-        <v>0.5348902926588798</v>
+        <v>0.53489029265887977</v>
       </c>
       <c r="G23" s="4">
-        <v>0.9391555700336812</v>
+        <v>0.93915557003368122</v>
       </c>
       <c r="H23" s="4">
         <v>1.612413086943417</v>
       </c>
       <c r="I23" s="4">
-        <v>0.9125033476693812</v>
+        <v>0.91250334766938124</v>
       </c>
       <c r="J23" s="4">
         <v>1373.93212244813</v>
       </c>
       <c r="K23" s="4">
-        <v>880.496</v>
+        <v>880.49599999999998</v>
       </c>
       <c r="L23" s="4">
-        <v>2603.522061449298</v>
+        <v>2603.5220614492978</v>
       </c>
       <c r="M23" s="4">
-        <v>27543.54713548067</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>27543.547135480669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2020</v>
       </c>
       <c r="B24" s="4">
-        <v>3.998727236017018</v>
+        <v>3.9987272360170181</v>
       </c>
       <c r="C24" s="4">
-        <v>5.290498737121782</v>
+        <v>5.2904987371217818</v>
       </c>
       <c r="D24" s="4">
         <v>159.968762594997</v>
       </c>
       <c r="E24" s="4">
-        <v>3703.272418791894</v>
+        <v>3703.2724187918939</v>
       </c>
       <c r="F24" s="4">
-        <v>0.5102389555544337</v>
+        <v>0.51023895555443366</v>
       </c>
       <c r="G24" s="4">
-        <v>0.9153747056368959</v>
+        <v>0.91537470563689594</v>
       </c>
       <c r="H24" s="4">
         <v>1.632493308665028</v>
       </c>
       <c r="I24" s="4">
-        <v>0.8658811581902816</v>
+        <v>0.86588115819028155</v>
       </c>
       <c r="J24" s="4">
         <v>1430.47457098474</v>
@@ -4739,74 +4708,74 @@
         <v>917.154</v>
       </c>
       <c r="L24" s="4">
-        <v>2827.867438991879</v>
+        <v>2827.8674389918792</v>
       </c>
       <c r="M24" s="4">
-        <v>25652.36468443536</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>25652.364684435361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2021</v>
       </c>
       <c r="B25" s="4">
-        <v>3.925227201417209</v>
+        <v>3.9252272014172092</v>
       </c>
       <c r="C25" s="4">
-        <v>4.692852742992623</v>
+        <v>4.6928527429926232</v>
       </c>
       <c r="D25" s="4">
-        <v>203.5487482741081</v>
+        <v>203.54874827410811</v>
       </c>
       <c r="E25" s="4">
-        <v>4169.516141039316</v>
+        <v>4169.5161410393157</v>
       </c>
       <c r="F25" s="4">
-        <v>0.4921424368664091</v>
+        <v>0.49214243686640913</v>
       </c>
       <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
       <c r="H25" s="4">
-        <v>1.449224808754641</v>
+        <v>1.4492248087546411</v>
       </c>
       <c r="I25" s="4">
-        <v>0.9870145836533077</v>
+        <v>0.98701458365330774</v>
       </c>
       <c r="J25" s="4">
-        <v>1469.381098632878</v>
+        <v>1469.3810986328781</v>
       </c>
       <c r="K25" s="4">
-        <v>856.9110000000001</v>
+        <v>856.91100000000006</v>
       </c>
       <c r="L25" s="4">
         <v>3593.282170708595</v>
       </c>
       <c r="M25" s="4">
-        <v>23878.77946144854</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>23878.779461448539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2022</v>
       </c>
       <c r="B26" s="4">
-        <v>4.14329274600438</v>
+        <v>4.1432927460043798</v>
       </c>
       <c r="C26" s="4">
-        <v>5.281167338822821</v>
+        <v>5.2811673388228213</v>
       </c>
       <c r="D26" s="4">
         <v>183.5300905394524</v>
       </c>
       <c r="E26" s="4">
-        <v>5059.666229573233</v>
+        <v>5059.6662295732331</v>
       </c>
       <c r="F26" s="4">
-        <v>0.5173891229987307</v>
+        <v>0.51738912299873074</v>
       </c>
       <c r="G26" s="4">
-        <v>0.8717437962903186</v>
+        <v>0.87174379629031862</v>
       </c>
       <c r="H26" s="4">
         <v>1.508865292089262</v>
@@ -4815,16 +4784,16 @@
         <v>0.9556946269702955</v>
       </c>
       <c r="J26" s="4">
-        <v>1435.979962688713</v>
+        <v>1435.9799626887129</v>
       </c>
       <c r="K26" s="4">
-        <v>962.208</v>
+        <v>962.20799999999997</v>
       </c>
       <c r="L26" s="4">
-        <v>3277.147849564776</v>
+        <v>3277.1478495647762</v>
       </c>
       <c r="M26" s="4">
-        <v>27166.56035341575</v>
+        <v>27166.560353415749</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4841,24 +4810,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4899,112 +4857,112 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1998</v>
       </c>
       <c r="B2" s="4">
-        <v>1.734523035388377</v>
+        <v>1.7345230353883769</v>
       </c>
       <c r="C2" s="4">
-        <v>4.817145777480054</v>
+        <v>4.8171457774800537</v>
       </c>
       <c r="D2" s="4">
-        <v>374.4226428467412</v>
+        <v>374.42264284674121</v>
       </c>
       <c r="E2" s="4">
-        <v>4.570710749009597</v>
+        <v>4.5707107490095966</v>
       </c>
       <c r="F2" s="4">
-        <v>0.2734307025129672</v>
+        <v>0.27343070251296719</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9160548728493352</v>
+        <v>0.91605487284933518</v>
       </c>
       <c r="H2" s="4">
-        <v>0.5010292565410669</v>
+        <v>0.50102925654106689</v>
       </c>
       <c r="I2" s="4">
-        <v>3.14334666016228</v>
+        <v>3.1433466601622801</v>
       </c>
       <c r="J2" s="4">
         <v>1758.067809972343</v>
       </c>
       <c r="K2" s="4">
-        <v>874.5129999999999</v>
+        <v>874.51299999999992</v>
       </c>
       <c r="L2" s="4">
-        <v>14096.48489595441</v>
+        <v>14096.484895954411</v>
       </c>
       <c r="M2" s="4">
         <v>248.2518275877363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1999</v>
       </c>
       <c r="B3" s="4">
-        <v>1.755481283123192</v>
+        <v>1.7554812831231921</v>
       </c>
       <c r="C3" s="4">
-        <v>5.183040375884389</v>
+        <v>5.1830403758843886</v>
       </c>
       <c r="D3" s="4">
-        <v>315.4204696381922</v>
+        <v>315.42046963819217</v>
       </c>
       <c r="E3" s="4">
-        <v>3.191252160486273</v>
+        <v>3.1912521604862731</v>
       </c>
       <c r="F3" s="4">
-        <v>0.2758528474445057</v>
+        <v>0.27585284744450572</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9472276300831177</v>
+        <v>0.94722763008311772</v>
       </c>
       <c r="H3" s="4">
-        <v>0.4731938390957472</v>
+        <v>0.47319383909574719</v>
       </c>
       <c r="I3" s="4">
-        <v>3.670198402248886</v>
+        <v>3.6701984022488858</v>
       </c>
       <c r="J3" s="4">
-        <v>1753.127470348527</v>
+        <v>1753.1274703485269</v>
       </c>
       <c r="K3" s="4">
-        <v>877.2649999999999</v>
+        <v>877.26499999999987</v>
       </c>
       <c r="L3" s="4">
         <v>13699.31083726334</v>
       </c>
       <c r="M3" s="4">
-        <v>177.6576379133008</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>177.65763791330079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2000</v>
       </c>
       <c r="B4" s="4">
-        <v>1.598108205446653</v>
+        <v>1.5981082054466531</v>
       </c>
       <c r="C4" s="4">
-        <v>5.038316116769532</v>
+        <v>5.0383161167695318</v>
       </c>
       <c r="D4" s="4">
-        <v>323.3859811341895</v>
+        <v>323.38598113418948</v>
       </c>
       <c r="E4" s="4">
-        <v>6.564756415229303</v>
+        <v>6.5647564152293034</v>
       </c>
       <c r="F4" s="4">
         <v>0.2572419297626673</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9023033963858765</v>
+        <v>0.90230339638587653</v>
       </c>
       <c r="H4" s="4">
-        <v>0.4718344956337163</v>
+        <v>0.47183449563371632</v>
       </c>
       <c r="I4" s="4">
         <v>3.659504729465628</v>
@@ -5013,7 +4971,7 @@
         <v>1793.718123674236</v>
       </c>
       <c r="K4" s="4">
-        <v>907.9939999999999</v>
+        <v>907.99399999999991</v>
       </c>
       <c r="L4" s="4">
         <v>13911.17359875802</v>
@@ -5022,89 +4980,89 @@
         <v>255.5523387252058</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2001</v>
       </c>
       <c r="B5" s="4">
-        <v>1.495614469195745</v>
+        <v>1.4956144691957449</v>
       </c>
       <c r="C5" s="4">
         <v>4.609237428390788</v>
       </c>
       <c r="D5" s="4">
-        <v>331.8312900306536</v>
+        <v>331.83129003065358</v>
       </c>
       <c r="E5" s="4">
-        <v>9.848461687773694</v>
+        <v>9.8484616877736944</v>
       </c>
       <c r="F5" s="4">
-        <v>0.2529174553280931</v>
+        <v>0.25291745532809312</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8897713584292684</v>
+        <v>0.88977135842926836</v>
       </c>
       <c r="H5" s="4">
-        <v>0.4902085091023851</v>
+        <v>0.49020850910238511</v>
       </c>
       <c r="I5" s="4">
-        <v>3.670408248413474</v>
+        <v>3.6704082484134739</v>
       </c>
       <c r="J5" s="4">
-        <v>1764.915388849627</v>
+        <v>1764.9153888496271</v>
       </c>
       <c r="K5" s="4">
         <v>880.702</v>
       </c>
       <c r="L5" s="4">
-        <v>13563.46611174095</v>
+        <v>13563.466111740951</v>
       </c>
       <c r="M5" s="4">
-        <v>312.0776680637161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>312.07766806371609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2002</v>
       </c>
       <c r="B6" s="4">
-        <v>1.487559107296425</v>
+        <v>1.4875591072964249</v>
       </c>
       <c r="C6" s="4">
-        <v>4.900170806834261</v>
+        <v>4.9001708068342609</v>
       </c>
       <c r="D6" s="4">
-        <v>430.9944331298062</v>
+        <v>430.99443312980623</v>
       </c>
       <c r="E6" s="4">
-        <v>5.833085070015496</v>
+        <v>5.8330850700154961</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2534401715186803</v>
+        <v>0.25344017151868031</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9491329791632978</v>
+        <v>0.94913297916329775</v>
       </c>
       <c r="H6" s="4">
-        <v>0.5076631011024786</v>
+        <v>0.50766310110247859</v>
       </c>
       <c r="I6" s="4">
-        <v>3.678315297774261</v>
+        <v>3.6783152977742608</v>
       </c>
       <c r="J6" s="4">
         <v>1756.52577207232</v>
       </c>
       <c r="K6" s="4">
-        <v>851.278</v>
+        <v>851.27800000000002</v>
       </c>
       <c r="L6" s="4">
         <v>14926.33197331591</v>
       </c>
       <c r="M6" s="4">
-        <v>239.6586266208542</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>239.65862662085419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2003</v>
       </c>
@@ -5112,40 +5070,40 @@
         <v>1.533337228375699</v>
       </c>
       <c r="C7" s="4">
-        <v>5.104784588258316</v>
+        <v>5.1047845882583163</v>
       </c>
       <c r="D7" s="4">
-        <v>309.2561902391876</v>
+        <v>309.25619023918762</v>
       </c>
       <c r="E7" s="4">
-        <v>10.98564759446507</v>
+        <v>10.985647594465069</v>
       </c>
       <c r="F7" s="4">
-        <v>0.2644979468990304</v>
+        <v>0.26449794689903039</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9062057628274756</v>
+        <v>0.90620576282747556</v>
       </c>
       <c r="H7" s="4">
-        <v>0.4834609086139399</v>
+        <v>0.48346090861393992</v>
       </c>
       <c r="I7" s="4">
         <v>3.250416376580731</v>
       </c>
       <c r="J7" s="4">
-        <v>1708.792775655507</v>
+        <v>1708.7927756555071</v>
       </c>
       <c r="K7" s="4">
-        <v>910.028</v>
+        <v>910.02800000000002</v>
       </c>
       <c r="L7" s="4">
-        <v>13276.71709538481</v>
+        <v>13276.717095384811</v>
       </c>
       <c r="M7" s="4">
-        <v>372.1917125844568</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>372.19171258445681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2004</v>
       </c>
@@ -5153,81 +5111,81 @@
         <v>1.717982139991187</v>
       </c>
       <c r="C8" s="4">
-        <v>5.052474334984193</v>
+        <v>5.0524743349841934</v>
       </c>
       <c r="D8" s="4">
         <v>324.1389285844806</v>
       </c>
       <c r="E8" s="4">
-        <v>3.635756448691633</v>
+        <v>3.6357564486916329</v>
       </c>
       <c r="F8" s="4">
-        <v>0.2711408680618109</v>
+        <v>0.27114086806181092</v>
       </c>
       <c r="G8" s="4">
-        <v>0.8961983216846947</v>
+        <v>0.89619832168469471</v>
       </c>
       <c r="H8" s="4">
-        <v>0.4961325421657249</v>
+        <v>0.49613254216572489</v>
       </c>
       <c r="I8" s="4">
-        <v>2.975757963732855</v>
+        <v>2.9757579637328551</v>
       </c>
       <c r="J8" s="4">
-        <v>1764.441259226901</v>
+        <v>1764.4412592269009</v>
       </c>
       <c r="K8" s="4">
-        <v>915.463</v>
+        <v>915.46299999999997</v>
       </c>
       <c r="L8" s="4">
         <v>13245.26789117925</v>
       </c>
       <c r="M8" s="4">
-        <v>233.879766443863</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>233.87976644386299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2005</v>
       </c>
       <c r="B9" s="4">
-        <v>1.891880322077831</v>
+        <v>1.8918803220778311</v>
       </c>
       <c r="C9" s="4">
-        <v>4.710681830528375</v>
+        <v>4.7106818305283751</v>
       </c>
       <c r="D9" s="4">
-        <v>338.7098495848991</v>
+        <v>338.70984958489908</v>
       </c>
       <c r="E9" s="4">
         <v>4.131228005321498</v>
       </c>
       <c r="F9" s="4">
-        <v>0.2926616688355007</v>
+        <v>0.29266166883550071</v>
       </c>
       <c r="G9" s="4">
         <v>0.9137611396956602</v>
       </c>
       <c r="H9" s="4">
-        <v>0.5073372320335545</v>
+        <v>0.50733723203355452</v>
       </c>
       <c r="I9" s="4">
-        <v>2.809585242571299</v>
+        <v>2.8095852425712988</v>
       </c>
       <c r="J9" s="4">
         <v>1715.433352873237</v>
       </c>
       <c r="K9" s="4">
-        <v>866.966</v>
+        <v>866.96600000000001</v>
       </c>
       <c r="L9" s="4">
-        <v>13240.67245863446</v>
+        <v>13240.672458634461</v>
       </c>
       <c r="M9" s="4">
-        <v>264.0524696183569</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>264.05246961835689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2006</v>
       </c>
@@ -5235,81 +5193,81 @@
         <v>1.735169342569544</v>
       </c>
       <c r="C10" s="4">
-        <v>4.931752996643083</v>
+        <v>4.9317529966430831</v>
       </c>
       <c r="D10" s="4">
-        <v>356.5800536752212</v>
+        <v>356.58005367522122</v>
       </c>
       <c r="E10" s="4">
-        <v>7.92020063759248</v>
+        <v>7.9202006375924796</v>
       </c>
       <c r="F10" s="4">
-        <v>0.2784311927797866</v>
+        <v>0.27843119277978662</v>
       </c>
       <c r="G10" s="4">
-        <v>0.8991000893174085</v>
+        <v>0.89910008931740848</v>
       </c>
       <c r="H10" s="4">
-        <v>0.4894958667710672</v>
+        <v>0.48949586677106721</v>
       </c>
       <c r="I10" s="4">
-        <v>3.878624141365748</v>
+        <v>3.8786241413657478</v>
       </c>
       <c r="J10" s="4">
         <v>1726.815385648863</v>
       </c>
       <c r="K10" s="4">
-        <v>901.541</v>
+        <v>901.54100000000005</v>
       </c>
       <c r="L10" s="4">
         <v>14080.63881370148</v>
       </c>
       <c r="M10" s="4">
-        <v>264.8398052858039</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>264.83980528580389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2007</v>
       </c>
       <c r="B11" s="4">
-        <v>1.774755014139929</v>
+        <v>1.7747550141399291</v>
       </c>
       <c r="C11" s="4">
-        <v>5.372029326915549</v>
+        <v>5.3720293269155492</v>
       </c>
       <c r="D11" s="4">
         <v>315.0161018383281</v>
       </c>
       <c r="E11" s="4">
-        <v>3.269545147941449</v>
+        <v>3.2695451479414488</v>
       </c>
       <c r="F11" s="4">
-        <v>0.2871821838032328</v>
+        <v>0.28718218380323279</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9337528423440373</v>
+        <v>0.93375284234403733</v>
       </c>
       <c r="H11" s="4">
-        <v>0.4583144676439753</v>
+        <v>0.45831446764397532</v>
       </c>
       <c r="I11" s="4">
-        <v>4.319958057161564</v>
+        <v>4.3199580571615641</v>
       </c>
       <c r="J11" s="4">
-        <v>1693.185640672939</v>
+        <v>1693.1856406729389</v>
       </c>
       <c r="K11" s="4">
-        <v>906.004</v>
+        <v>906.00400000000002</v>
       </c>
       <c r="L11" s="4">
         <v>14134.99548512239</v>
       </c>
       <c r="M11" s="4">
-        <v>152.7766573054079</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>152.77665730540789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2008</v>
       </c>
@@ -5320,37 +5278,37 @@
         <v>5.102246183381002</v>
       </c>
       <c r="D12" s="4">
-        <v>310.0826746134633</v>
+        <v>310.08267461346333</v>
       </c>
       <c r="E12" s="4">
         <v>4.099761185731273</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2962826347131365</v>
+        <v>0.29628263471313648</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9117180608121523</v>
+        <v>0.91171806081215234</v>
       </c>
       <c r="H12" s="4">
         <v>0.4633180450507205</v>
       </c>
       <c r="I12" s="4">
-        <v>4.290990331902285</v>
+        <v>4.2909903319022851</v>
       </c>
       <c r="J12" s="4">
         <v>1677.532220110945</v>
       </c>
       <c r="K12" s="4">
-        <v>904.3009999999999</v>
+        <v>904.30099999999993</v>
       </c>
       <c r="L12" s="4">
-        <v>13872.42546128857</v>
+        <v>13872.425461288571</v>
       </c>
       <c r="M12" s="4">
-        <v>172.232302757055</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>172.23230275705501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2009</v>
       </c>
@@ -5358,7 +5316,7 @@
         <v>1.501169014984187</v>
       </c>
       <c r="C13" s="4">
-        <v>5.022203393120577</v>
+        <v>5.0222033931205772</v>
       </c>
       <c r="D13" s="4">
         <v>419.1311572543147</v>
@@ -5370,28 +5328,28 @@
         <v>0.2602423944972439</v>
       </c>
       <c r="G13" s="4">
-        <v>0.8532304494205779</v>
+        <v>0.85323044942057791</v>
       </c>
       <c r="H13" s="4">
         <v>0.5254821140200242</v>
       </c>
       <c r="I13" s="4">
-        <v>3.493733925888101</v>
+        <v>3.4937339258881011</v>
       </c>
       <c r="J13" s="4">
-        <v>1718.421169041886</v>
+        <v>1718.4211690418861</v>
       </c>
       <c r="K13" s="4">
-        <v>958.6800000000001</v>
+        <v>958.68000000000006</v>
       </c>
       <c r="L13" s="4">
-        <v>14220.33734924675</v>
+        <v>14220.337349246751</v>
       </c>
       <c r="M13" s="4">
-        <v>337.6700454156176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>337.67004541561761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2010</v>
       </c>
@@ -5399,25 +5357,25 @@
         <v>1.894813879483753</v>
       </c>
       <c r="C14" s="4">
-        <v>4.585485732274575</v>
+        <v>4.5854857322745746</v>
       </c>
       <c r="D14" s="4">
-        <v>541.0157624849007</v>
+        <v>541.01576248490073</v>
       </c>
       <c r="E14" s="4">
-        <v>52.96000339461318</v>
+        <v>52.960003394613182</v>
       </c>
       <c r="F14" s="4">
-        <v>0.2886216485285709</v>
+        <v>0.28862164852857092</v>
       </c>
       <c r="G14" s="4">
-        <v>0.915637349717223</v>
+        <v>0.91563734971722299</v>
       </c>
       <c r="H14" s="4">
-        <v>0.659927324990431</v>
+        <v>0.65992732499043105</v>
       </c>
       <c r="I14" s="4">
-        <v>2.529330153303803</v>
+        <v>2.5293301533038028</v>
       </c>
       <c r="J14" s="4">
         <v>1740.793434915546</v>
@@ -5429,21 +5387,21 @@
         <v>12864.76070896654</v>
       </c>
       <c r="M14" s="4">
-        <v>1050.174201206651</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>1050.1742012066511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2011</v>
       </c>
       <c r="B15" s="4">
-        <v>1.718657360213199</v>
+        <v>1.7186573602131989</v>
       </c>
       <c r="C15" s="4">
-        <v>5.269317561011592</v>
+        <v>5.2693175610115919</v>
       </c>
       <c r="D15" s="4">
-        <v>354.8508793649507</v>
+        <v>354.85087936495069</v>
       </c>
       <c r="E15" s="4">
         <v>3.018178290876333</v>
@@ -5452,28 +5410,28 @@
         <v>0.2728355204068838</v>
       </c>
       <c r="G15" s="4">
-        <v>0.8965230660921905</v>
+        <v>0.89652306609219046</v>
       </c>
       <c r="H15" s="4">
-        <v>0.432452182433185</v>
+        <v>0.43245218243318501</v>
       </c>
       <c r="I15" s="4">
-        <v>4.070092116053694</v>
+        <v>4.0700921160536936</v>
       </c>
       <c r="J15" s="4">
         <v>1753.826408375593</v>
       </c>
       <c r="K15" s="4">
-        <v>934.563</v>
+        <v>934.56299999999999</v>
       </c>
       <c r="L15" s="4">
         <v>15899.28938914241</v>
       </c>
       <c r="M15" s="4">
-        <v>155.7977105715547</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>155.79771057155469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2012</v>
       </c>
@@ -5481,40 +5439,40 @@
         <v>1.61463320880051</v>
       </c>
       <c r="C16" s="4">
-        <v>4.9426654820563</v>
+        <v>4.9426654820562996</v>
       </c>
       <c r="D16" s="4">
-        <v>350.8530572077869</v>
+        <v>350.85305720778689</v>
       </c>
       <c r="E16" s="4">
-        <v>5.073795019606708</v>
+        <v>5.0737950196067079</v>
       </c>
       <c r="F16" s="4">
-        <v>0.2688015863277761</v>
+        <v>0.26880158632777612</v>
       </c>
       <c r="G16" s="4">
-        <v>0.9195065404939854</v>
+        <v>0.91950654049398539</v>
       </c>
       <c r="H16" s="4">
-        <v>0.4757690433597266</v>
+        <v>0.47576904335972658</v>
       </c>
       <c r="I16" s="4">
-        <v>4.822197906125067</v>
+        <v>4.8221979061250666</v>
       </c>
       <c r="J16" s="4">
         <v>1725.432512996249</v>
       </c>
       <c r="K16" s="4">
-        <v>882.508</v>
+        <v>882.50800000000004</v>
       </c>
       <c r="L16" s="4">
         <v>14370.08431944011</v>
       </c>
       <c r="M16" s="4">
-        <v>170.4960387680075</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>170.49603876800751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2013</v>
       </c>
@@ -5522,40 +5480,40 @@
         <v>1.738057496972627</v>
       </c>
       <c r="C17" s="4">
-        <v>5.448667112102966</v>
+        <v>5.4486671121029664</v>
       </c>
       <c r="D17" s="4">
-        <v>333.3754206697068</v>
+        <v>333.37542066970678</v>
       </c>
       <c r="E17" s="4">
-        <v>4.315744371960942</v>
+        <v>4.3157443719609416</v>
       </c>
       <c r="F17" s="4">
-        <v>0.2808833040115757</v>
+        <v>0.28088330401157569</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9602626481108519</v>
+        <v>0.96026264811085194</v>
       </c>
       <c r="H17" s="4">
         <v>0.4510814416399192</v>
       </c>
       <c r="I17" s="4">
-        <v>4.530394613682856</v>
+        <v>4.5303946136828559</v>
       </c>
       <c r="J17" s="4">
         <v>1713.164273711046</v>
       </c>
       <c r="K17" s="4">
-        <v>887.254</v>
+        <v>887.25400000000002</v>
       </c>
       <c r="L17" s="4">
-        <v>14774.22446780637</v>
+        <v>14774.224467806371</v>
       </c>
       <c r="M17" s="4">
-        <v>167.3727256409111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>167.37272564091111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
@@ -5563,7 +5521,7 @@
         <v>1.747613187157687</v>
       </c>
       <c r="C18" s="4">
-        <v>5.313157794866777</v>
+        <v>5.3131577948667772</v>
       </c>
       <c r="D18" s="4">
         <v>393.7539986690187</v>
@@ -5572,63 +5530,63 @@
         <v>3.870008899821288</v>
       </c>
       <c r="F18" s="4">
-        <v>0.2752579428743526</v>
+        <v>0.27525794287435262</v>
       </c>
       <c r="G18" s="4">
-        <v>0.9344154392072506</v>
+        <v>0.93441543920725056</v>
       </c>
       <c r="H18" s="4">
-        <v>0.4604898088978744</v>
+        <v>0.46048980889787439</v>
       </c>
       <c r="I18" s="4">
-        <v>4.030259570172955</v>
+        <v>4.0302595701729551</v>
       </c>
       <c r="J18" s="4">
-        <v>1752.974752560864</v>
+        <v>1752.9747525608641</v>
       </c>
       <c r="K18" s="4">
-        <v>900.387</v>
+        <v>900.38699999999994</v>
       </c>
       <c r="L18" s="4">
-        <v>15728.42840448842</v>
+        <v>15728.428404488421</v>
       </c>
       <c r="M18" s="4">
-        <v>178.1623073016802</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>178.16230730168019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
       <c r="B19" s="4">
-        <v>1.86045611430823</v>
+        <v>1.8604561143082301</v>
       </c>
       <c r="C19" s="4">
         <v>5.090769854087009</v>
       </c>
       <c r="D19" s="4">
-        <v>422.9578945168267</v>
+        <v>422.95789451682668</v>
       </c>
       <c r="E19" s="4">
-        <v>3.900185185195476</v>
+        <v>3.9001851851954759</v>
       </c>
       <c r="F19" s="4">
-        <v>0.288572267613787</v>
+        <v>0.28857226761378701</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9027012943672187</v>
+        <v>0.90270129436721869</v>
       </c>
       <c r="H19" s="4">
         <v>0.4494368776545557</v>
       </c>
       <c r="I19" s="4">
-        <v>5.692389147769647</v>
+        <v>5.6923891477696467</v>
       </c>
       <c r="J19" s="4">
         <v>1725.233916190866</v>
       </c>
       <c r="K19" s="4">
-        <v>912.306</v>
+        <v>912.30600000000004</v>
       </c>
       <c r="L19" s="4">
         <v>16702.1633744471</v>
@@ -5637,74 +5595,74 @@
         <v>126.6312507854277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2016</v>
       </c>
       <c r="B20" s="4">
-        <v>1.958483507806492</v>
+        <v>1.9584835078064919</v>
       </c>
       <c r="C20" s="4">
-        <v>5.060059289823874</v>
+        <v>5.0600592898238741</v>
       </c>
       <c r="D20" s="4">
-        <v>409.0038211102411</v>
+        <v>409.00382111024112</v>
       </c>
       <c r="E20" s="4">
-        <v>5.181897378848768</v>
+        <v>5.1818973788487677</v>
       </c>
       <c r="F20" s="4">
-        <v>0.316162867852913</v>
+        <v>0.31616286785291298</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9363686109652082</v>
+        <v>0.93636861096520818</v>
       </c>
       <c r="H20" s="4">
-        <v>0.5370955165899873</v>
+        <v>0.53709551658998733</v>
       </c>
       <c r="I20" s="4">
-        <v>3.838695243125959</v>
+        <v>3.8386952431259589</v>
       </c>
       <c r="J20" s="4">
-        <v>1615.630196000685</v>
+        <v>1615.6301960006849</v>
       </c>
       <c r="K20" s="4">
-        <v>876.847</v>
+        <v>876.84699999999998</v>
       </c>
       <c r="L20" s="4">
-        <v>13743.74282725496</v>
+        <v>13743.742827254961</v>
       </c>
       <c r="M20" s="4">
-        <v>216.4480282680304</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>216.44802826803041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2017</v>
       </c>
       <c r="B21" s="4">
-        <v>1.517806415724196</v>
+        <v>1.5178064157241959</v>
       </c>
       <c r="C21" s="4">
-        <v>5.6695298584224</v>
+        <v>5.6695298584223996</v>
       </c>
       <c r="D21" s="4">
-        <v>343.3884130142008</v>
+        <v>343.38841301420081</v>
       </c>
       <c r="E21" s="4">
-        <v>2.725636729896714</v>
+        <v>2.7256367298967139</v>
       </c>
       <c r="F21" s="4">
-        <v>0.2656641586689862</v>
+        <v>0.26566415866898618</v>
       </c>
       <c r="G21" s="4">
         <v>0.9137673581108009</v>
       </c>
       <c r="H21" s="4">
-        <v>0.4636567480250516</v>
+        <v>0.46365674802505158</v>
       </c>
       <c r="I21" s="4">
-        <v>4.360625447309569</v>
+        <v>4.3606254473095687</v>
       </c>
       <c r="J21" s="4">
         <v>1692.653602321886</v>
@@ -5716,10 +5674,10 @@
         <v>14587.7764016894</v>
       </c>
       <c r="M21" s="4">
-        <v>138.1904611491491</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>138.19046114914909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2018</v>
       </c>
@@ -5727,40 +5685,40 @@
         <v>1.575785858874087</v>
       </c>
       <c r="C22" s="4">
-        <v>4.741563831807918</v>
+        <v>4.7415638318079179</v>
       </c>
       <c r="D22" s="4">
-        <v>531.9145067308808</v>
+        <v>531.91450673088082</v>
       </c>
       <c r="E22" s="4">
-        <v>6.056119783926223</v>
+        <v>6.0561197839262233</v>
       </c>
       <c r="F22" s="4">
         <v>0.2709471352599982</v>
       </c>
       <c r="G22" s="4">
-        <v>0.9546412806047563</v>
+        <v>0.95464128060475628</v>
       </c>
       <c r="H22" s="4">
-        <v>0.5039261468198949</v>
+        <v>0.50392614681989489</v>
       </c>
       <c r="I22" s="4">
-        <v>4.5210387892073</v>
+        <v>4.5210387892073003</v>
       </c>
       <c r="J22" s="4">
-        <v>1691.051758217025</v>
+        <v>1691.0517582170251</v>
       </c>
       <c r="K22" s="4">
-        <v>832.556</v>
+        <v>832.55600000000004</v>
       </c>
       <c r="L22" s="4">
-        <v>16705.01573484978</v>
+        <v>16705.015734849781</v>
       </c>
       <c r="M22" s="4">
-        <v>198.6789515570177</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>198.67895155701771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -5768,69 +5726,69 @@
         <v>1.795971244637607</v>
       </c>
       <c r="C23" s="4">
-        <v>5.132679222896282</v>
+        <v>5.1326792228962823</v>
       </c>
       <c r="D23" s="4">
         <v>451.3764403433841</v>
       </c>
       <c r="E23" s="4">
-        <v>1.48461934350109</v>
+        <v>1.4846193435010899</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2896319527593126</v>
+        <v>0.28963195275931258</v>
       </c>
       <c r="G23" s="4">
-        <v>0.9391555700336812</v>
+        <v>0.93915557003368122</v>
       </c>
       <c r="H23" s="4">
-        <v>0.435339226089363</v>
+        <v>0.43533922608936299</v>
       </c>
       <c r="I23" s="4">
-        <v>4.438145103014466</v>
+        <v>4.4381451030144659</v>
       </c>
       <c r="J23" s="4">
-        <v>1688.869456667297</v>
+        <v>1688.8694566672971</v>
       </c>
       <c r="K23" s="4">
-        <v>880.496</v>
+        <v>880.49599999999998</v>
       </c>
       <c r="L23" s="4">
         <v>17812.89497139008</v>
       </c>
       <c r="M23" s="4">
-        <v>100.2071994177383</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>100.20719941773829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2020</v>
       </c>
       <c r="B24" s="4">
-        <v>1.864614082864689</v>
+        <v>1.8646140828646891</v>
       </c>
       <c r="C24" s="4">
-        <v>5.290498737121782</v>
+        <v>5.2904987371217818</v>
       </c>
       <c r="D24" s="4">
-        <v>438.3332610091376</v>
+        <v>438.33326100913757</v>
       </c>
       <c r="E24" s="4">
         <v>3.19473566016925</v>
       </c>
       <c r="F24" s="4">
-        <v>0.3028588394528919</v>
+        <v>0.30285883945289188</v>
       </c>
       <c r="G24" s="4">
-        <v>0.9153747056368959</v>
+        <v>0.91537470563689594</v>
       </c>
       <c r="H24" s="4">
-        <v>0.4718656147418612</v>
+        <v>0.47186561474186117</v>
       </c>
       <c r="I24" s="4">
-        <v>4.452831689590424</v>
+        <v>4.4528316895904236</v>
       </c>
       <c r="J24" s="4">
-        <v>1645.686439823584</v>
+        <v>1645.6864398235839</v>
       </c>
       <c r="K24" s="4">
         <v>917.154</v>
@@ -5839,10 +5797,10 @@
         <v>16194.84316700709</v>
       </c>
       <c r="M24" s="4">
-        <v>146.5122876241975</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>146.51228762419751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2021</v>
       </c>
@@ -5850,40 +5808,40 @@
         <v>1.671129145364973</v>
       </c>
       <c r="C25" s="4">
-        <v>4.692852742992623</v>
+        <v>4.6928527429926232</v>
       </c>
       <c r="D25" s="4">
-        <v>427.0945860371214</v>
+        <v>427.09458603712142</v>
       </c>
       <c r="E25" s="4">
-        <v>2.677701790652181</v>
+        <v>2.6777017906521809</v>
       </c>
       <c r="F25" s="4">
-        <v>0.2742228925413567</v>
+        <v>0.27422289254135668</v>
       </c>
       <c r="G25" s="4">
         <v>0.9227320593728493</v>
       </c>
       <c r="H25" s="4">
-        <v>0.438732425369766</v>
+        <v>0.43873242536976598</v>
       </c>
       <c r="I25" s="4">
-        <v>4.08453283635215</v>
+        <v>4.0845328363521496</v>
       </c>
       <c r="J25" s="4">
-        <v>1720.656437817535</v>
+        <v>1720.6564378175351</v>
       </c>
       <c r="K25" s="4">
-        <v>856.9110000000001</v>
+        <v>856.91100000000006</v>
       </c>
       <c r="L25" s="4">
-        <v>17193.13861632112</v>
+        <v>17193.138616321121</v>
       </c>
       <c r="M25" s="4">
-        <v>146.2283491960329</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>146.22834919603289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2022</v>
       </c>
@@ -5891,34 +5849,34 @@
         <v>1.916126049678305</v>
       </c>
       <c r="C26" s="4">
-        <v>5.281167338822821</v>
+        <v>5.2811673388228213</v>
       </c>
       <c r="D26" s="4">
         <v>533.2837933025686</v>
       </c>
       <c r="E26" s="4">
-        <v>11.87040727118634</v>
+        <v>11.870407271186339</v>
       </c>
       <c r="F26" s="4">
-        <v>0.2818030175307331</v>
+        <v>0.28180301753073311</v>
       </c>
       <c r="G26" s="4">
-        <v>0.8717437962903186</v>
+        <v>0.87174379629031862</v>
       </c>
       <c r="H26" s="4">
         <v>0.4433553115564004</v>
       </c>
       <c r="I26" s="4">
-        <v>5.738823351641816</v>
+        <v>5.7388233516418161</v>
       </c>
       <c r="J26" s="4">
         <v>1792.913192487435</v>
       </c>
       <c r="K26" s="4">
-        <v>962.208</v>
+        <v>962.20799999999997</v>
       </c>
       <c r="L26" s="4">
-        <v>19011.66448710239</v>
+        <v>19011.664487102389</v>
       </c>
       <c r="M26" s="4">
         <v>219.1304938671438</v>
